--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841630012888581</v>
+        <v>0.9841630012888558</v>
       </c>
       <c r="D2">
-        <v>1.004999899440047</v>
+        <v>1.004999899440045</v>
       </c>
       <c r="E2">
-        <v>0.9937896504141451</v>
+        <v>0.9937896504141429</v>
       </c>
       <c r="F2">
-        <v>0.9929589578583614</v>
+        <v>0.9929589578583584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039054036152406</v>
+        <v>1.039054036152404</v>
       </c>
       <c r="J2">
-        <v>1.006827937267811</v>
+        <v>1.006827937267809</v>
       </c>
       <c r="K2">
-        <v>1.016390014453355</v>
+        <v>1.016390014453352</v>
       </c>
       <c r="L2">
-        <v>1.005336188731768</v>
+        <v>1.005336188731766</v>
       </c>
       <c r="M2">
-        <v>1.004517265045616</v>
+        <v>1.004517265045613</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993533543349328</v>
+        <v>0.9935335433493273</v>
       </c>
       <c r="D3">
-        <v>1.012092449354133</v>
+        <v>1.012092449354132</v>
       </c>
       <c r="E3">
         <v>1.002691168884808</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042151849952922</v>
+        <v>1.042151849952921</v>
       </c>
       <c r="J3">
-        <v>1.014202056326305</v>
+        <v>1.014202056326304</v>
       </c>
       <c r="K3">
-        <v>1.02257290820036</v>
+        <v>1.022572908200359</v>
       </c>
       <c r="L3">
-        <v>1.013289731122911</v>
+        <v>1.013289731122909</v>
       </c>
       <c r="M3">
-        <v>1.013066306061141</v>
+        <v>1.01306630606114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993661680588362</v>
+        <v>0.9993661680588387</v>
       </c>
       <c r="D4">
-        <v>1.016508845732264</v>
+        <v>1.016508845732266</v>
       </c>
       <c r="E4">
-        <v>1.008238313593543</v>
+        <v>1.008238313593546</v>
       </c>
       <c r="F4">
-        <v>1.00839005676092</v>
+        <v>1.008390056760923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044062157438368</v>
+        <v>1.044062157438369</v>
       </c>
       <c r="J4">
-        <v>1.018786101230508</v>
+        <v>1.01878610123051</v>
       </c>
       <c r="K4">
-        <v>1.026412024385087</v>
+        <v>1.026412024385089</v>
       </c>
       <c r="L4">
-        <v>1.018238315976243</v>
+        <v>1.018238315976246</v>
       </c>
       <c r="M4">
-        <v>1.018388264961659</v>
+        <v>1.018388264961662</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001766907108831</v>
+        <v>1.001766907108833</v>
       </c>
       <c r="D5">
-        <v>1.01832688636577</v>
+        <v>1.018326886365772</v>
       </c>
       <c r="E5">
-        <v>1.010523000769261</v>
+        <v>1.010523000769263</v>
       </c>
       <c r="F5">
-        <v>1.010830823115243</v>
+        <v>1.010830823115245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044844061129034</v>
+        <v>1.044844061129035</v>
       </c>
       <c r="J5">
-        <v>1.020671412402622</v>
+        <v>1.020671412402624</v>
       </c>
       <c r="K5">
-        <v>1.027989857329121</v>
+        <v>1.027989857329123</v>
       </c>
       <c r="L5">
-        <v>1.020274602608625</v>
+        <v>1.020274602608627</v>
       </c>
       <c r="M5">
-        <v>1.020578896936393</v>
+        <v>1.020578896936395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002167100193148</v>
+        <v>1.002167100193146</v>
       </c>
       <c r="D6">
-        <v>1.018629954677304</v>
+        <v>1.018629954677302</v>
       </c>
       <c r="E6">
-        <v>1.010903931361906</v>
+        <v>1.010903931361904</v>
       </c>
       <c r="F6">
-        <v>1.011237800163092</v>
+        <v>1.01123780016309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044974140348142</v>
+        <v>1.04497414034814</v>
       </c>
       <c r="J6">
-        <v>1.020985594893244</v>
+        <v>1.020985594893242</v>
       </c>
       <c r="K6">
-        <v>1.028252732916952</v>
+        <v>1.02825273291695</v>
       </c>
       <c r="L6">
-        <v>1.020614006663486</v>
+        <v>1.020614006663484</v>
       </c>
       <c r="M6">
-        <v>1.02094406903764</v>
+        <v>1.020944069037638</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993984435272703</v>
+        <v>0.9993984435272695</v>
       </c>
       <c r="D7">
-        <v>1.016533286735794</v>
+        <v>1.016533286735793</v>
       </c>
       <c r="E7">
-        <v>1.008269023223254</v>
+        <v>1.008269023223253</v>
       </c>
       <c r="F7">
         <v>1.00842286279785</v>
@@ -629,16 +629,16 @@
         <v>1.044072686849816</v>
       </c>
       <c r="J7">
-        <v>1.01881145337867</v>
+        <v>1.018811453378669</v>
       </c>
       <c r="K7">
-        <v>1.026433246261146</v>
+        <v>1.026433246261145</v>
       </c>
       <c r="L7">
-        <v>1.018265694154295</v>
+        <v>1.018265694154294</v>
       </c>
       <c r="M7">
-        <v>1.018417715511374</v>
+        <v>1.018417715511373</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873801182783833</v>
+        <v>0.987380118278383</v>
       </c>
       <c r="D8">
         <v>1.007434456393034</v>
       </c>
       <c r="E8">
-        <v>0.9968443061425045</v>
+        <v>0.9968443061425042</v>
       </c>
       <c r="F8">
-        <v>0.9962207422421802</v>
+        <v>0.9962207422421804</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.04012132639994</v>
       </c>
       <c r="J8">
-        <v>1.009360839240644</v>
+        <v>1.009360839240643</v>
       </c>
       <c r="K8">
-        <v>1.018514656219019</v>
+        <v>1.018514656219018</v>
       </c>
       <c r="L8">
         <v>1.008067193668565</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642299160716964</v>
+        <v>0.9642299160716974</v>
       </c>
       <c r="D9">
-        <v>0.9899315872120077</v>
+        <v>0.9899315872120081</v>
       </c>
       <c r="E9">
-        <v>0.9748964052314403</v>
+        <v>0.9748964052314411</v>
       </c>
       <c r="F9">
-        <v>0.9727889909260838</v>
+        <v>0.9727889909260845</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03236667398783</v>
+        <v>1.032366673987831</v>
       </c>
       <c r="J9">
-        <v>0.9911122706405192</v>
+        <v>0.99111227064052</v>
       </c>
       <c r="K9">
         <v>1.003190157274371</v>
       </c>
       <c r="L9">
-        <v>0.9884103394772374</v>
+        <v>0.9884103394772383</v>
       </c>
       <c r="M9">
-        <v>0.986339535073677</v>
+        <v>0.9863395350736778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9471279087895803</v>
+        <v>0.9471279087895798</v>
       </c>
       <c r="D10">
-        <v>0.977033980304622</v>
+        <v>0.9770339803046213</v>
       </c>
       <c r="E10">
-        <v>0.9587322043758909</v>
+        <v>0.9587322043758899</v>
       </c>
       <c r="F10">
-        <v>0.9555351520144409</v>
+        <v>0.9555351520144402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026547229116137</v>
+        <v>1.026547229116136</v>
       </c>
       <c r="J10">
-        <v>0.9776085072478466</v>
+        <v>0.9776085072478462</v>
       </c>
       <c r="K10">
-        <v>0.9918306546616442</v>
+        <v>0.9918306546616437</v>
       </c>
       <c r="L10">
-        <v>0.9738888001985306</v>
+        <v>0.97388880019853</v>
       </c>
       <c r="M10">
-        <v>0.9707564853802417</v>
+        <v>0.9707564853802411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9392290103577502</v>
+        <v>0.939229010357753</v>
       </c>
       <c r="D11">
-        <v>0.97108919669006</v>
+        <v>0.9710891966900623</v>
       </c>
       <c r="E11">
-        <v>0.951280828424946</v>
+        <v>0.951280828424949</v>
       </c>
       <c r="F11">
-        <v>0.947581266537221</v>
+        <v>0.9475812665372239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023839920164563</v>
+        <v>1.023839920164564</v>
       </c>
       <c r="J11">
-        <v>0.971368270482573</v>
+        <v>0.9713682704825755</v>
       </c>
       <c r="K11">
-        <v>0.9865777297189516</v>
+        <v>0.9865777297189539</v>
       </c>
       <c r="L11">
-        <v>0.9671839641222065</v>
+        <v>0.9671839641222095</v>
       </c>
       <c r="M11">
-        <v>0.9635643879962716</v>
+        <v>0.9635643879962744</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9362104026705237</v>
+        <v>0.9362104026705244</v>
       </c>
       <c r="D12">
-        <v>0.9688196658792844</v>
+        <v>0.9688196658792847</v>
       </c>
       <c r="E12">
-        <v>0.9484356704890956</v>
+        <v>0.9484356704890962</v>
       </c>
       <c r="F12">
-        <v>0.9445441025526765</v>
+        <v>0.9445441025526768</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.022802597637236</v>
       </c>
       <c r="J12">
-        <v>0.968983266514738</v>
+        <v>0.9689832665147385</v>
       </c>
       <c r="K12">
-        <v>0.984569646025299</v>
+        <v>0.9845696460252994</v>
       </c>
       <c r="L12">
-        <v>0.9646222450391514</v>
+        <v>0.9646222450391518</v>
       </c>
       <c r="M12">
-        <v>0.9608168818153331</v>
+        <v>0.9608168818153334</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9368619243810887</v>
+        <v>0.9368619243810862</v>
       </c>
       <c r="D13">
-        <v>0.9693093984652614</v>
+        <v>0.9693093984652595</v>
       </c>
       <c r="E13">
-        <v>0.94904964151477</v>
+        <v>0.9490496415147671</v>
       </c>
       <c r="F13">
-        <v>0.9451995153622959</v>
+        <v>0.9451995153622935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023026606526143</v>
+        <v>1.023026606526142</v>
       </c>
       <c r="J13">
-        <v>0.9694980420276496</v>
+        <v>0.9694980420276471</v>
       </c>
       <c r="K13">
-        <v>0.9850030850053854</v>
+        <v>0.9850030850053835</v>
       </c>
       <c r="L13">
-        <v>0.9651751241143659</v>
+        <v>0.965175124114363</v>
       </c>
       <c r="M13">
-        <v>0.961409841800197</v>
+        <v>0.9614098418001948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389812853934524</v>
+        <v>0.9389812853934518</v>
       </c>
       <c r="D14">
-        <v>0.9709028959929172</v>
+        <v>0.9709028959929165</v>
       </c>
       <c r="E14">
-        <v>0.9510472870412812</v>
+        <v>0.9510472870412806</v>
       </c>
       <c r="F14">
-        <v>0.9473319679053216</v>
+        <v>0.9473319679053211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023754844668643</v>
+        <v>1.023754844668642</v>
       </c>
       <c r="J14">
-        <v>0.9711725466900387</v>
+        <v>0.9711725466900379</v>
       </c>
       <c r="K14">
-        <v>0.9864129456048221</v>
+        <v>0.9864129456048214</v>
       </c>
       <c r="L14">
-        <v>0.966973721106956</v>
+        <v>0.9669737211069556</v>
       </c>
       <c r="M14">
-        <v>0.9633388898412099</v>
+        <v>0.9633388898412094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9402755334560317</v>
+        <v>0.9402755334560328</v>
       </c>
       <c r="D15">
-        <v>0.9718763268361609</v>
+        <v>0.971876326836162</v>
       </c>
       <c r="E15">
-        <v>0.9522675323910053</v>
+        <v>0.9522675323910067</v>
       </c>
       <c r="F15">
-        <v>0.9486345382785761</v>
+        <v>0.9486345382785772</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024199216399323</v>
       </c>
       <c r="J15">
-        <v>0.9721951035477293</v>
+        <v>0.9721951035477306</v>
       </c>
       <c r="K15">
-        <v>0.9872738418116358</v>
+        <v>0.9872738418116367</v>
       </c>
       <c r="L15">
-        <v>0.9680721679987757</v>
+        <v>0.9680721679987772</v>
       </c>
       <c r="M15">
-        <v>0.9645170546677457</v>
+        <v>0.9645170546677468</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9476408886324301</v>
       </c>
       <c r="D16">
-        <v>0.9774203413688419</v>
+        <v>0.9774203413688417</v>
       </c>
       <c r="E16">
-        <v>0.9592164367420881</v>
+        <v>0.9592164367420886</v>
       </c>
       <c r="F16">
-        <v>0.9560520279603313</v>
+        <v>0.9560520279603317</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>0.9780137193875359</v>
       </c>
       <c r="K16">
-        <v>0.992171690708211</v>
+        <v>0.9921716907082109</v>
       </c>
       <c r="L16">
-        <v>0.9743242981806561</v>
+        <v>0.9743242981806565</v>
       </c>
       <c r="M16">
-        <v>0.9712236871363263</v>
+        <v>0.9712236871363269</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9521220885474726</v>
+        <v>0.9521220885474744</v>
       </c>
       <c r="D17">
-        <v>0.9807968581108056</v>
+        <v>0.9807968581108073</v>
       </c>
       <c r="E17">
-        <v>0.9634481401726878</v>
+        <v>0.9634481401726894</v>
       </c>
       <c r="F17">
-        <v>0.9605689701424441</v>
+        <v>0.9605689701424464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028253085954681</v>
+        <v>1.028253085954682</v>
       </c>
       <c r="J17">
-        <v>0.9815531600177548</v>
+        <v>0.9815531600177565</v>
       </c>
       <c r="K17">
-        <v>0.9951501794208391</v>
+        <v>0.9951501794208406</v>
       </c>
       <c r="L17">
-        <v>0.9781289171007838</v>
+        <v>0.9781289171007854</v>
       </c>
       <c r="M17">
-        <v>0.9753055920029841</v>
+        <v>0.9753055920029862</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546890753621728</v>
+        <v>0.954689075362175</v>
       </c>
       <c r="D18">
-        <v>0.982732145552744</v>
+        <v>0.9827321455527459</v>
       </c>
       <c r="E18">
-        <v>0.9658735215533932</v>
+        <v>0.9658735215533949</v>
       </c>
       <c r="F18">
-        <v>0.9631578228266654</v>
+        <v>0.9631578228266678</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029127939321187</v>
       </c>
       <c r="J18">
-        <v>0.9835803558991202</v>
+        <v>0.983580355899122</v>
       </c>
       <c r="K18">
-        <v>0.9968557538003212</v>
+        <v>0.996855753800323</v>
       </c>
       <c r="L18">
-        <v>0.9803085239881555</v>
+        <v>0.9803085239881573</v>
       </c>
       <c r="M18">
-        <v>0.9776443201305279</v>
+        <v>0.9776443201305304</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9555566937298655</v>
+        <v>0.9555566937298645</v>
       </c>
       <c r="D19">
-        <v>0.9833864297947207</v>
+        <v>0.9833864297947198</v>
       </c>
       <c r="E19">
-        <v>0.9666934945649092</v>
+        <v>0.9666934945649079</v>
       </c>
       <c r="F19">
-        <v>0.9640330628643299</v>
+        <v>0.964033062864329</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029423316806749</v>
       </c>
       <c r="J19">
-        <v>0.9842654697994251</v>
+        <v>0.9842654697994238</v>
       </c>
       <c r="K19">
-        <v>0.9974321115979483</v>
+        <v>0.9974321115979472</v>
       </c>
       <c r="L19">
-        <v>0.98104523727044</v>
+        <v>0.9810452372704388</v>
       </c>
       <c r="M19">
-        <v>0.9784348636474196</v>
+        <v>0.9784348636474187</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,7 +1105,7 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9516462099502948</v>
+        <v>0.9516462099502949</v>
       </c>
       <c r="D20">
         <v>0.9804381730273714</v>
@@ -1114,7 +1114,7 @@
         <v>0.962998618062974</v>
       </c>
       <c r="F20">
-        <v>0.9600891498114377</v>
+        <v>0.9600891498114374</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028090752529132</v>
       </c>
       <c r="J20">
-        <v>0.9811773227577927</v>
+        <v>0.9811773227577925</v>
       </c>
       <c r="K20">
         <v>0.9948339417480474</v>
       </c>
       <c r="L20">
-        <v>0.9777248664309171</v>
+        <v>0.9777248664309172</v>
       </c>
       <c r="M20">
-        <v>0.9748720659064878</v>
+        <v>0.9748720659064877</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383596166991177</v>
+        <v>0.9383596166991173</v>
       </c>
       <c r="D21">
-        <v>0.9704354108398638</v>
+        <v>0.9704354108398634</v>
       </c>
       <c r="E21">
-        <v>0.9504612521173353</v>
+        <v>0.9504612521173348</v>
       </c>
       <c r="F21">
-        <v>0.9467063901636581</v>
+        <v>0.9467063901636577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023541304065669</v>
+        <v>1.023541304065668</v>
       </c>
       <c r="J21">
-        <v>0.9706813721695916</v>
+        <v>0.9706813721695909</v>
       </c>
       <c r="K21">
-        <v>0.9859994086396806</v>
+        <v>0.9859994086396798</v>
       </c>
       <c r="L21">
-        <v>0.9664461238444909</v>
+        <v>0.9664461238444902</v>
       </c>
       <c r="M21">
-        <v>0.9627730162881939</v>
+        <v>0.9627730162881931</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295094138213562</v>
+        <v>0.9295094138213538</v>
       </c>
       <c r="D22">
-        <v>0.9637864053912689</v>
+        <v>0.9637864053912669</v>
       </c>
       <c r="E22">
-        <v>0.9421245608927149</v>
+        <v>0.9421245608927123</v>
       </c>
       <c r="F22">
-        <v>0.9378067087466913</v>
+        <v>0.9378067087466887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020495107533169</v>
+        <v>1.020495107533167</v>
       </c>
       <c r="J22">
-        <v>0.9636886151693419</v>
+        <v>0.9636886151693392</v>
       </c>
       <c r="K22">
-        <v>0.9801110935533941</v>
+        <v>0.9801110935533917</v>
       </c>
       <c r="L22">
-        <v>0.9589368643208022</v>
+        <v>0.9589368643207997</v>
       </c>
       <c r="M22">
-        <v>0.954719816597055</v>
+        <v>0.9547198165970525</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9342522181953394</v>
+        <v>0.9342522181953423</v>
       </c>
       <c r="D23">
-        <v>0.9673481254482531</v>
+        <v>0.9673481254482559</v>
       </c>
       <c r="E23">
-        <v>0.9465907258444232</v>
+        <v>0.9465907258444264</v>
       </c>
       <c r="F23">
-        <v>0.9425745994681117</v>
+        <v>0.9425745994681152</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022128948200424</v>
+        <v>1.022128948200426</v>
       </c>
       <c r="J23">
-        <v>0.9674360616443499</v>
+        <v>0.9674360616443528</v>
       </c>
       <c r="K23">
-        <v>0.9832668522253574</v>
+        <v>0.98326685222536</v>
       </c>
       <c r="L23">
-        <v>0.962960641045133</v>
+        <v>0.962960641045136</v>
       </c>
       <c r="M23">
-        <v>0.9590348716660891</v>
+        <v>0.9590348716660924</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.95186138292718</v>
+        <v>0.951861382927177</v>
       </c>
       <c r="D24">
-        <v>0.9806003524600255</v>
+        <v>0.9806003524600233</v>
       </c>
       <c r="E24">
-        <v>0.9632018696317028</v>
+        <v>0.9632018696317001</v>
       </c>
       <c r="F24">
-        <v>0.9603061007608151</v>
+        <v>0.9603061007608127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028164158804242</v>
+        <v>1.028164158804241</v>
       </c>
       <c r="J24">
-        <v>0.9813472621125909</v>
+        <v>0.9813472621125883</v>
       </c>
       <c r="K24">
-        <v>0.9949769334942127</v>
+        <v>0.9949769334942102</v>
       </c>
       <c r="L24">
-        <v>0.9779075611639665</v>
+        <v>0.9779075611639639</v>
       </c>
       <c r="M24">
-        <v>0.9750680873495081</v>
+        <v>0.9750680873495057</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.970480346556132</v>
+        <v>0.9704803465561327</v>
       </c>
       <c r="D25">
-        <v>0.9946530826657913</v>
+        <v>0.9946530826657917</v>
       </c>
       <c r="E25">
-        <v>0.9808146217476639</v>
+        <v>0.9808146217476643</v>
       </c>
       <c r="F25">
-        <v>0.9791065226331037</v>
+        <v>0.9791065226331042</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034476192419335</v>
+        <v>1.034476192419336</v>
       </c>
       <c r="J25">
-        <v>0.9960437070387537</v>
+        <v>0.9960437070387541</v>
       </c>
       <c r="K25">
         <v>1.007334973622662</v>
       </c>
       <c r="L25">
-        <v>0.9937182509501877</v>
+        <v>0.9937182509501885</v>
       </c>
       <c r="M25">
-        <v>0.9920380799701164</v>
+        <v>0.9920380799701168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841630012888558</v>
+        <v>0.9841630012888581</v>
       </c>
       <c r="D2">
-        <v>1.004999899440045</v>
+        <v>1.004999899440047</v>
       </c>
       <c r="E2">
-        <v>0.9937896504141429</v>
+        <v>0.9937896504141451</v>
       </c>
       <c r="F2">
-        <v>0.9929589578583584</v>
+        <v>0.9929589578583614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039054036152404</v>
+        <v>1.039054036152406</v>
       </c>
       <c r="J2">
-        <v>1.006827937267809</v>
+        <v>1.006827937267811</v>
       </c>
       <c r="K2">
-        <v>1.016390014453352</v>
+        <v>1.016390014453355</v>
       </c>
       <c r="L2">
-        <v>1.005336188731766</v>
+        <v>1.005336188731768</v>
       </c>
       <c r="M2">
-        <v>1.004517265045613</v>
+        <v>1.004517265045616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,10 +459,10 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935335433493273</v>
+        <v>0.993533543349328</v>
       </c>
       <c r="D3">
-        <v>1.012092449354132</v>
+        <v>1.012092449354133</v>
       </c>
       <c r="E3">
         <v>1.002691168884808</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042151849952921</v>
+        <v>1.042151849952922</v>
       </c>
       <c r="J3">
-        <v>1.014202056326304</v>
+        <v>1.014202056326305</v>
       </c>
       <c r="K3">
-        <v>1.022572908200359</v>
+        <v>1.02257290820036</v>
       </c>
       <c r="L3">
-        <v>1.013289731122909</v>
+        <v>1.013289731122911</v>
       </c>
       <c r="M3">
-        <v>1.01306630606114</v>
+        <v>1.013066306061141</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993661680588387</v>
+        <v>0.9993661680588362</v>
       </c>
       <c r="D4">
-        <v>1.016508845732266</v>
+        <v>1.016508845732264</v>
       </c>
       <c r="E4">
-        <v>1.008238313593546</v>
+        <v>1.008238313593543</v>
       </c>
       <c r="F4">
-        <v>1.008390056760923</v>
+        <v>1.00839005676092</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044062157438369</v>
+        <v>1.044062157438368</v>
       </c>
       <c r="J4">
-        <v>1.01878610123051</v>
+        <v>1.018786101230508</v>
       </c>
       <c r="K4">
-        <v>1.026412024385089</v>
+        <v>1.026412024385087</v>
       </c>
       <c r="L4">
-        <v>1.018238315976246</v>
+        <v>1.018238315976243</v>
       </c>
       <c r="M4">
-        <v>1.018388264961662</v>
+        <v>1.018388264961659</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001766907108833</v>
+        <v>1.001766907108831</v>
       </c>
       <c r="D5">
-        <v>1.018326886365772</v>
+        <v>1.01832688636577</v>
       </c>
       <c r="E5">
-        <v>1.010523000769263</v>
+        <v>1.010523000769261</v>
       </c>
       <c r="F5">
-        <v>1.010830823115245</v>
+        <v>1.010830823115243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044844061129035</v>
+        <v>1.044844061129034</v>
       </c>
       <c r="J5">
-        <v>1.020671412402624</v>
+        <v>1.020671412402622</v>
       </c>
       <c r="K5">
-        <v>1.027989857329123</v>
+        <v>1.027989857329121</v>
       </c>
       <c r="L5">
-        <v>1.020274602608627</v>
+        <v>1.020274602608625</v>
       </c>
       <c r="M5">
-        <v>1.020578896936395</v>
+        <v>1.020578896936393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002167100193146</v>
+        <v>1.002167100193148</v>
       </c>
       <c r="D6">
-        <v>1.018629954677302</v>
+        <v>1.018629954677304</v>
       </c>
       <c r="E6">
-        <v>1.010903931361904</v>
+        <v>1.010903931361906</v>
       </c>
       <c r="F6">
-        <v>1.01123780016309</v>
+        <v>1.011237800163092</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04497414034814</v>
+        <v>1.044974140348142</v>
       </c>
       <c r="J6">
-        <v>1.020985594893242</v>
+        <v>1.020985594893244</v>
       </c>
       <c r="K6">
-        <v>1.02825273291695</v>
+        <v>1.028252732916952</v>
       </c>
       <c r="L6">
-        <v>1.020614006663484</v>
+        <v>1.020614006663486</v>
       </c>
       <c r="M6">
-        <v>1.020944069037638</v>
+        <v>1.02094406903764</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993984435272695</v>
+        <v>0.9993984435272703</v>
       </c>
       <c r="D7">
-        <v>1.016533286735793</v>
+        <v>1.016533286735794</v>
       </c>
       <c r="E7">
-        <v>1.008269023223253</v>
+        <v>1.008269023223254</v>
       </c>
       <c r="F7">
         <v>1.00842286279785</v>
@@ -629,16 +629,16 @@
         <v>1.044072686849816</v>
       </c>
       <c r="J7">
-        <v>1.018811453378669</v>
+        <v>1.01881145337867</v>
       </c>
       <c r="K7">
-        <v>1.026433246261145</v>
+        <v>1.026433246261146</v>
       </c>
       <c r="L7">
-        <v>1.018265694154294</v>
+        <v>1.018265694154295</v>
       </c>
       <c r="M7">
-        <v>1.018417715511373</v>
+        <v>1.018417715511374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.987380118278383</v>
+        <v>0.9873801182783833</v>
       </c>
       <c r="D8">
         <v>1.007434456393034</v>
       </c>
       <c r="E8">
-        <v>0.9968443061425042</v>
+        <v>0.9968443061425045</v>
       </c>
       <c r="F8">
-        <v>0.9962207422421804</v>
+        <v>0.9962207422421802</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.04012132639994</v>
       </c>
       <c r="J8">
-        <v>1.009360839240643</v>
+        <v>1.009360839240644</v>
       </c>
       <c r="K8">
-        <v>1.018514656219018</v>
+        <v>1.018514656219019</v>
       </c>
       <c r="L8">
         <v>1.008067193668565</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642299160716974</v>
+        <v>0.9642299160716964</v>
       </c>
       <c r="D9">
-        <v>0.9899315872120081</v>
+        <v>0.9899315872120077</v>
       </c>
       <c r="E9">
-        <v>0.9748964052314411</v>
+        <v>0.9748964052314403</v>
       </c>
       <c r="F9">
-        <v>0.9727889909260845</v>
+        <v>0.9727889909260838</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032366673987831</v>
+        <v>1.03236667398783</v>
       </c>
       <c r="J9">
-        <v>0.99111227064052</v>
+        <v>0.9911122706405192</v>
       </c>
       <c r="K9">
         <v>1.003190157274371</v>
       </c>
       <c r="L9">
-        <v>0.9884103394772383</v>
+        <v>0.9884103394772374</v>
       </c>
       <c r="M9">
-        <v>0.9863395350736778</v>
+        <v>0.986339535073677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9471279087895798</v>
+        <v>0.9471279087895803</v>
       </c>
       <c r="D10">
-        <v>0.9770339803046213</v>
+        <v>0.977033980304622</v>
       </c>
       <c r="E10">
-        <v>0.9587322043758899</v>
+        <v>0.9587322043758909</v>
       </c>
       <c r="F10">
-        <v>0.9555351520144402</v>
+        <v>0.9555351520144409</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026547229116136</v>
+        <v>1.026547229116137</v>
       </c>
       <c r="J10">
-        <v>0.9776085072478462</v>
+        <v>0.9776085072478466</v>
       </c>
       <c r="K10">
-        <v>0.9918306546616437</v>
+        <v>0.9918306546616442</v>
       </c>
       <c r="L10">
-        <v>0.97388880019853</v>
+        <v>0.9738888001985306</v>
       </c>
       <c r="M10">
-        <v>0.9707564853802411</v>
+        <v>0.9707564853802417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.939229010357753</v>
+        <v>0.9392290103577502</v>
       </c>
       <c r="D11">
-        <v>0.9710891966900623</v>
+        <v>0.97108919669006</v>
       </c>
       <c r="E11">
-        <v>0.951280828424949</v>
+        <v>0.951280828424946</v>
       </c>
       <c r="F11">
-        <v>0.9475812665372239</v>
+        <v>0.947581266537221</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023839920164564</v>
+        <v>1.023839920164563</v>
       </c>
       <c r="J11">
-        <v>0.9713682704825755</v>
+        <v>0.971368270482573</v>
       </c>
       <c r="K11">
-        <v>0.9865777297189539</v>
+        <v>0.9865777297189516</v>
       </c>
       <c r="L11">
-        <v>0.9671839641222095</v>
+        <v>0.9671839641222065</v>
       </c>
       <c r="M11">
-        <v>0.9635643879962744</v>
+        <v>0.9635643879962716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9362104026705244</v>
+        <v>0.9362104026705237</v>
       </c>
       <c r="D12">
-        <v>0.9688196658792847</v>
+        <v>0.9688196658792844</v>
       </c>
       <c r="E12">
-        <v>0.9484356704890962</v>
+        <v>0.9484356704890956</v>
       </c>
       <c r="F12">
-        <v>0.9445441025526768</v>
+        <v>0.9445441025526765</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.022802597637236</v>
       </c>
       <c r="J12">
-        <v>0.9689832665147385</v>
+        <v>0.968983266514738</v>
       </c>
       <c r="K12">
-        <v>0.9845696460252994</v>
+        <v>0.984569646025299</v>
       </c>
       <c r="L12">
-        <v>0.9646222450391518</v>
+        <v>0.9646222450391514</v>
       </c>
       <c r="M12">
-        <v>0.9608168818153334</v>
+        <v>0.9608168818153331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9368619243810862</v>
+        <v>0.9368619243810887</v>
       </c>
       <c r="D13">
-        <v>0.9693093984652595</v>
+        <v>0.9693093984652614</v>
       </c>
       <c r="E13">
-        <v>0.9490496415147671</v>
+        <v>0.94904964151477</v>
       </c>
       <c r="F13">
-        <v>0.9451995153622935</v>
+        <v>0.9451995153622959</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023026606526142</v>
+        <v>1.023026606526143</v>
       </c>
       <c r="J13">
-        <v>0.9694980420276471</v>
+        <v>0.9694980420276496</v>
       </c>
       <c r="K13">
-        <v>0.9850030850053835</v>
+        <v>0.9850030850053854</v>
       </c>
       <c r="L13">
-        <v>0.965175124114363</v>
+        <v>0.9651751241143659</v>
       </c>
       <c r="M13">
-        <v>0.9614098418001948</v>
+        <v>0.961409841800197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389812853934518</v>
+        <v>0.9389812853934524</v>
       </c>
       <c r="D14">
-        <v>0.9709028959929165</v>
+        <v>0.9709028959929172</v>
       </c>
       <c r="E14">
-        <v>0.9510472870412806</v>
+        <v>0.9510472870412812</v>
       </c>
       <c r="F14">
-        <v>0.9473319679053211</v>
+        <v>0.9473319679053216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023754844668642</v>
+        <v>1.023754844668643</v>
       </c>
       <c r="J14">
-        <v>0.9711725466900379</v>
+        <v>0.9711725466900387</v>
       </c>
       <c r="K14">
-        <v>0.9864129456048214</v>
+        <v>0.9864129456048221</v>
       </c>
       <c r="L14">
-        <v>0.9669737211069556</v>
+        <v>0.966973721106956</v>
       </c>
       <c r="M14">
-        <v>0.9633388898412094</v>
+        <v>0.9633388898412099</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9402755334560328</v>
+        <v>0.9402755334560317</v>
       </c>
       <c r="D15">
-        <v>0.971876326836162</v>
+        <v>0.9718763268361609</v>
       </c>
       <c r="E15">
-        <v>0.9522675323910067</v>
+        <v>0.9522675323910053</v>
       </c>
       <c r="F15">
-        <v>0.9486345382785772</v>
+        <v>0.9486345382785761</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.024199216399323</v>
       </c>
       <c r="J15">
-        <v>0.9721951035477306</v>
+        <v>0.9721951035477293</v>
       </c>
       <c r="K15">
-        <v>0.9872738418116367</v>
+        <v>0.9872738418116358</v>
       </c>
       <c r="L15">
-        <v>0.9680721679987772</v>
+        <v>0.9680721679987757</v>
       </c>
       <c r="M15">
-        <v>0.9645170546677468</v>
+        <v>0.9645170546677457</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -956,13 +956,13 @@
         <v>0.9476408886324301</v>
       </c>
       <c r="D16">
-        <v>0.9774203413688417</v>
+        <v>0.9774203413688419</v>
       </c>
       <c r="E16">
-        <v>0.9592164367420886</v>
+        <v>0.9592164367420881</v>
       </c>
       <c r="F16">
-        <v>0.9560520279603317</v>
+        <v>0.9560520279603313</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>0.9780137193875359</v>
       </c>
       <c r="K16">
-        <v>0.9921716907082109</v>
+        <v>0.992171690708211</v>
       </c>
       <c r="L16">
-        <v>0.9743242981806565</v>
+        <v>0.9743242981806561</v>
       </c>
       <c r="M16">
-        <v>0.9712236871363269</v>
+        <v>0.9712236871363263</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9521220885474744</v>
+        <v>0.9521220885474726</v>
       </c>
       <c r="D17">
-        <v>0.9807968581108073</v>
+        <v>0.9807968581108056</v>
       </c>
       <c r="E17">
-        <v>0.9634481401726894</v>
+        <v>0.9634481401726878</v>
       </c>
       <c r="F17">
-        <v>0.9605689701424464</v>
+        <v>0.9605689701424441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028253085954682</v>
+        <v>1.028253085954681</v>
       </c>
       <c r="J17">
-        <v>0.9815531600177565</v>
+        <v>0.9815531600177548</v>
       </c>
       <c r="K17">
-        <v>0.9951501794208406</v>
+        <v>0.9951501794208391</v>
       </c>
       <c r="L17">
-        <v>0.9781289171007854</v>
+        <v>0.9781289171007838</v>
       </c>
       <c r="M17">
-        <v>0.9753055920029862</v>
+        <v>0.9753055920029841</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.954689075362175</v>
+        <v>0.9546890753621728</v>
       </c>
       <c r="D18">
-        <v>0.9827321455527459</v>
+        <v>0.982732145552744</v>
       </c>
       <c r="E18">
-        <v>0.9658735215533949</v>
+        <v>0.9658735215533932</v>
       </c>
       <c r="F18">
-        <v>0.9631578228266678</v>
+        <v>0.9631578228266654</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.029127939321187</v>
       </c>
       <c r="J18">
-        <v>0.983580355899122</v>
+        <v>0.9835803558991202</v>
       </c>
       <c r="K18">
-        <v>0.996855753800323</v>
+        <v>0.9968557538003212</v>
       </c>
       <c r="L18">
-        <v>0.9803085239881573</v>
+        <v>0.9803085239881555</v>
       </c>
       <c r="M18">
-        <v>0.9776443201305304</v>
+        <v>0.9776443201305279</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9555566937298645</v>
+        <v>0.9555566937298655</v>
       </c>
       <c r="D19">
-        <v>0.9833864297947198</v>
+        <v>0.9833864297947207</v>
       </c>
       <c r="E19">
-        <v>0.9666934945649079</v>
+        <v>0.9666934945649092</v>
       </c>
       <c r="F19">
-        <v>0.964033062864329</v>
+        <v>0.9640330628643299</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.029423316806749</v>
       </c>
       <c r="J19">
-        <v>0.9842654697994238</v>
+        <v>0.9842654697994251</v>
       </c>
       <c r="K19">
-        <v>0.9974321115979472</v>
+        <v>0.9974321115979483</v>
       </c>
       <c r="L19">
-        <v>0.9810452372704388</v>
+        <v>0.98104523727044</v>
       </c>
       <c r="M19">
-        <v>0.9784348636474187</v>
+        <v>0.9784348636474196</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,7 +1105,7 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9516462099502949</v>
+        <v>0.9516462099502948</v>
       </c>
       <c r="D20">
         <v>0.9804381730273714</v>
@@ -1114,7 +1114,7 @@
         <v>0.962998618062974</v>
       </c>
       <c r="F20">
-        <v>0.9600891498114374</v>
+        <v>0.9600891498114377</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.028090752529132</v>
       </c>
       <c r="J20">
-        <v>0.9811773227577925</v>
+        <v>0.9811773227577927</v>
       </c>
       <c r="K20">
         <v>0.9948339417480474</v>
       </c>
       <c r="L20">
-        <v>0.9777248664309172</v>
+        <v>0.9777248664309171</v>
       </c>
       <c r="M20">
-        <v>0.9748720659064877</v>
+        <v>0.9748720659064878</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383596166991173</v>
+        <v>0.9383596166991177</v>
       </c>
       <c r="D21">
-        <v>0.9704354108398634</v>
+        <v>0.9704354108398638</v>
       </c>
       <c r="E21">
-        <v>0.9504612521173348</v>
+        <v>0.9504612521173353</v>
       </c>
       <c r="F21">
-        <v>0.9467063901636577</v>
+        <v>0.9467063901636581</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023541304065668</v>
+        <v>1.023541304065669</v>
       </c>
       <c r="J21">
-        <v>0.9706813721695909</v>
+        <v>0.9706813721695916</v>
       </c>
       <c r="K21">
-        <v>0.9859994086396798</v>
+        <v>0.9859994086396806</v>
       </c>
       <c r="L21">
-        <v>0.9664461238444902</v>
+        <v>0.9664461238444909</v>
       </c>
       <c r="M21">
-        <v>0.9627730162881931</v>
+        <v>0.9627730162881939</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295094138213538</v>
+        <v>0.9295094138213562</v>
       </c>
       <c r="D22">
-        <v>0.9637864053912669</v>
+        <v>0.9637864053912689</v>
       </c>
       <c r="E22">
-        <v>0.9421245608927123</v>
+        <v>0.9421245608927149</v>
       </c>
       <c r="F22">
-        <v>0.9378067087466887</v>
+        <v>0.9378067087466913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020495107533167</v>
+        <v>1.020495107533169</v>
       </c>
       <c r="J22">
-        <v>0.9636886151693392</v>
+        <v>0.9636886151693419</v>
       </c>
       <c r="K22">
-        <v>0.9801110935533917</v>
+        <v>0.9801110935533941</v>
       </c>
       <c r="L22">
-        <v>0.9589368643207997</v>
+        <v>0.9589368643208022</v>
       </c>
       <c r="M22">
-        <v>0.9547198165970525</v>
+        <v>0.954719816597055</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9342522181953423</v>
+        <v>0.9342522181953394</v>
       </c>
       <c r="D23">
-        <v>0.9673481254482559</v>
+        <v>0.9673481254482531</v>
       </c>
       <c r="E23">
-        <v>0.9465907258444264</v>
+        <v>0.9465907258444232</v>
       </c>
       <c r="F23">
-        <v>0.9425745994681152</v>
+        <v>0.9425745994681117</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022128948200426</v>
+        <v>1.022128948200424</v>
       </c>
       <c r="J23">
-        <v>0.9674360616443528</v>
+        <v>0.9674360616443499</v>
       </c>
       <c r="K23">
-        <v>0.98326685222536</v>
+        <v>0.9832668522253574</v>
       </c>
       <c r="L23">
-        <v>0.962960641045136</v>
+        <v>0.962960641045133</v>
       </c>
       <c r="M23">
-        <v>0.9590348716660924</v>
+        <v>0.9590348716660891</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.951861382927177</v>
+        <v>0.95186138292718</v>
       </c>
       <c r="D24">
-        <v>0.9806003524600233</v>
+        <v>0.9806003524600255</v>
       </c>
       <c r="E24">
-        <v>0.9632018696317001</v>
+        <v>0.9632018696317028</v>
       </c>
       <c r="F24">
-        <v>0.9603061007608127</v>
+        <v>0.9603061007608151</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028164158804241</v>
+        <v>1.028164158804242</v>
       </c>
       <c r="J24">
-        <v>0.9813472621125883</v>
+        <v>0.9813472621125909</v>
       </c>
       <c r="K24">
-        <v>0.9949769334942102</v>
+        <v>0.9949769334942127</v>
       </c>
       <c r="L24">
-        <v>0.9779075611639639</v>
+        <v>0.9779075611639665</v>
       </c>
       <c r="M24">
-        <v>0.9750680873495057</v>
+        <v>0.9750680873495081</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9704803465561327</v>
+        <v>0.970480346556132</v>
       </c>
       <c r="D25">
-        <v>0.9946530826657917</v>
+        <v>0.9946530826657913</v>
       </c>
       <c r="E25">
-        <v>0.9808146217476643</v>
+        <v>0.9808146217476639</v>
       </c>
       <c r="F25">
-        <v>0.9791065226331042</v>
+        <v>0.9791065226331037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034476192419336</v>
+        <v>1.034476192419335</v>
       </c>
       <c r="J25">
-        <v>0.9960437070387541</v>
+        <v>0.9960437070387537</v>
       </c>
       <c r="K25">
         <v>1.007334973622662</v>
       </c>
       <c r="L25">
-        <v>0.9937182509501885</v>
+        <v>0.9937182509501877</v>
       </c>
       <c r="M25">
-        <v>0.9920380799701168</v>
+        <v>0.9920380799701164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841630012888581</v>
+        <v>0.9841921667669085</v>
       </c>
       <c r="D2">
-        <v>1.004999899440047</v>
+        <v>1.005023724678174</v>
       </c>
       <c r="E2">
-        <v>0.9937896504141451</v>
+        <v>0.9938185466878857</v>
       </c>
       <c r="F2">
-        <v>0.9929589578583614</v>
+        <v>0.9929871183103068</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039054036152406</v>
+        <v>1.039066124319375</v>
       </c>
       <c r="J2">
-        <v>1.006827937267811</v>
+        <v>1.006856191193698</v>
       </c>
       <c r="K2">
-        <v>1.016390014453355</v>
+        <v>1.016413511926892</v>
       </c>
       <c r="L2">
-        <v>1.005336188731768</v>
+        <v>1.005364676064063</v>
       </c>
       <c r="M2">
-        <v>1.004517265045616</v>
+        <v>1.004545026125512</v>
+      </c>
+      <c r="N2">
+        <v>1.004920839121551</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993533543349328</v>
+        <v>0.9935544659863025</v>
       </c>
       <c r="D3">
-        <v>1.012092449354133</v>
+        <v>1.012109798246369</v>
       </c>
       <c r="E3">
-        <v>1.002691168884808</v>
+        <v>1.002711929645975</v>
       </c>
       <c r="F3">
-        <v>1.002464866813588</v>
+        <v>1.002485146405643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042151849952922</v>
+        <v>1.042160663204495</v>
       </c>
       <c r="J3">
-        <v>1.014202056326305</v>
+        <v>1.01422239843081</v>
       </c>
       <c r="K3">
-        <v>1.02257290820036</v>
+        <v>1.022590041673882</v>
       </c>
       <c r="L3">
-        <v>1.013289731122911</v>
+        <v>1.013310228030867</v>
       </c>
       <c r="M3">
-        <v>1.013066306061141</v>
+        <v>1.013086327769774</v>
+      </c>
+      <c r="N3">
+        <v>1.010161917862478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993661680588362</v>
+        <v>0.9993821035510057</v>
       </c>
       <c r="D4">
-        <v>1.016508845732264</v>
+        <v>1.016522268289498</v>
       </c>
       <c r="E4">
-        <v>1.008238313593543</v>
+        <v>1.008254142626942</v>
       </c>
       <c r="F4">
-        <v>1.00839005676092</v>
+        <v>1.008405573422041</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044062157438368</v>
+        <v>1.044068981544278</v>
       </c>
       <c r="J4">
-        <v>1.018786101230508</v>
+        <v>1.018801628400316</v>
       </c>
       <c r="K4">
-        <v>1.026412024385087</v>
+        <v>1.026425291386206</v>
       </c>
       <c r="L4">
-        <v>1.018238315976243</v>
+        <v>1.018253957818951</v>
       </c>
       <c r="M4">
-        <v>1.018388264961659</v>
+        <v>1.018403598194461</v>
+      </c>
+      <c r="N4">
+        <v>1.013415485330003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001766907108831</v>
+        <v>1.001780819827873</v>
       </c>
       <c r="D5">
-        <v>1.01832688636577</v>
+        <v>1.018338714838338</v>
       </c>
       <c r="E5">
-        <v>1.010523000769261</v>
+        <v>1.010536827513108</v>
       </c>
       <c r="F5">
-        <v>1.010830823115243</v>
+        <v>1.010844409143502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044844061129034</v>
+        <v>1.044850076797705</v>
       </c>
       <c r="J5">
-        <v>1.020671412402622</v>
+        <v>1.020684980602414</v>
       </c>
       <c r="K5">
-        <v>1.027989857329121</v>
+        <v>1.028001552732574</v>
       </c>
       <c r="L5">
-        <v>1.020274602608625</v>
+        <v>1.020288270824275</v>
       </c>
       <c r="M5">
-        <v>1.020578896936393</v>
+        <v>1.020592327313363</v>
+      </c>
+      <c r="N5">
+        <v>1.014752487976699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002167100193148</v>
+        <v>1.002180677369143</v>
       </c>
       <c r="D6">
-        <v>1.018629954677304</v>
+        <v>1.018641518635143</v>
       </c>
       <c r="E6">
-        <v>1.010903931361906</v>
+        <v>1.01091742585094</v>
       </c>
       <c r="F6">
-        <v>1.011237800163092</v>
+        <v>1.011251066002036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044974140348142</v>
+        <v>1.044980021819787</v>
       </c>
       <c r="J6">
-        <v>1.020985594893244</v>
+        <v>1.020998837796416</v>
       </c>
       <c r="K6">
-        <v>1.028252732916952</v>
+        <v>1.028264167434485</v>
       </c>
       <c r="L6">
-        <v>1.020614006663486</v>
+        <v>1.020627347242155</v>
       </c>
       <c r="M6">
-        <v>1.02094406903764</v>
+        <v>1.020957183697239</v>
+      </c>
+      <c r="N6">
+        <v>1.014975229656718</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993984435272703</v>
+        <v>0.9994143517119943</v>
       </c>
       <c r="D7">
-        <v>1.016533286735794</v>
+        <v>1.016546687778734</v>
       </c>
       <c r="E7">
-        <v>1.008269023223254</v>
+        <v>1.008284825233322</v>
       </c>
       <c r="F7">
-        <v>1.00842286279785</v>
+        <v>1.008438353390702</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044072686849816</v>
+        <v>1.044079500048117</v>
       </c>
       <c r="J7">
-        <v>1.01881145337867</v>
+        <v>1.01882695412561</v>
       </c>
       <c r="K7">
-        <v>1.026433246261146</v>
+        <v>1.026446492058498</v>
       </c>
       <c r="L7">
-        <v>1.018265694154295</v>
+        <v>1.018281309370013</v>
       </c>
       <c r="M7">
-        <v>1.018417715511374</v>
+        <v>1.018433023060234</v>
+      </c>
+      <c r="N7">
+        <v>1.013433468729714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9873801182783833</v>
+        <v>0.987406420321315</v>
       </c>
       <c r="D8">
-        <v>1.007434456393034</v>
+        <v>1.007456033804141</v>
       </c>
       <c r="E8">
-        <v>0.9968443061425045</v>
+        <v>0.9968703785223507</v>
       </c>
       <c r="F8">
-        <v>0.9962207422421802</v>
+        <v>0.9962461638476479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04012132639994</v>
+        <v>1.040132278728276</v>
       </c>
       <c r="J8">
-        <v>1.009360839240644</v>
+        <v>1.009386351258744</v>
       </c>
       <c r="K8">
-        <v>1.018514656219019</v>
+        <v>1.018535946748453</v>
       </c>
       <c r="L8">
-        <v>1.008067193668565</v>
+        <v>1.00809291007245</v>
       </c>
       <c r="M8">
-        <v>1.007452150510734</v>
+        <v>1.007477224477855</v>
+      </c>
+      <c r="N8">
+        <v>1.006722005087432</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9642299160716964</v>
+        <v>0.964277693257828</v>
       </c>
       <c r="D9">
-        <v>0.9899315872120077</v>
+        <v>0.9899699669250468</v>
       </c>
       <c r="E9">
-        <v>0.9748964052314403</v>
+        <v>0.9749435959452708</v>
       </c>
       <c r="F9">
-        <v>0.9727889909260838</v>
+        <v>0.9728349798751088</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03236667398783</v>
+        <v>1.032386097223549</v>
       </c>
       <c r="J9">
-        <v>0.9911122706405192</v>
+        <v>0.9911581787519774</v>
       </c>
       <c r="K9">
-        <v>1.003190157274371</v>
+        <v>1.003227897914109</v>
       </c>
       <c r="L9">
-        <v>0.9884103394772374</v>
+        <v>0.9884567127404129</v>
       </c>
       <c r="M9">
-        <v>0.986339535073677</v>
+        <v>0.9863847229130109</v>
+      </c>
+      <c r="N9">
+        <v>0.993727181208056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9471279087895803</v>
+        <v>0.9471930407720348</v>
       </c>
       <c r="D10">
-        <v>0.977033980304622</v>
+        <v>0.9770858356480998</v>
       </c>
       <c r="E10">
-        <v>0.9587322043758909</v>
+        <v>0.9587963577248088</v>
       </c>
       <c r="F10">
-        <v>0.9555351520144409</v>
+        <v>0.9555978001530672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026547229116137</v>
+        <v>1.026573417207546</v>
       </c>
       <c r="J10">
-        <v>0.9776085072478466</v>
+        <v>0.9776706222231121</v>
       </c>
       <c r="K10">
-        <v>0.9918306546616442</v>
+        <v>0.9918815152965559</v>
       </c>
       <c r="L10">
-        <v>0.9738888001985306</v>
+        <v>0.9739516603147237</v>
       </c>
       <c r="M10">
-        <v>0.9707564853802417</v>
+        <v>0.9708178594645966</v>
+      </c>
+      <c r="N10">
+        <v>0.9840899563162906</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9392290103577502</v>
+        <v>0.9393026676754739</v>
       </c>
       <c r="D11">
-        <v>0.97108919669006</v>
+        <v>0.9711476354854716</v>
       </c>
       <c r="E11">
-        <v>0.951280828424946</v>
+        <v>0.951353280091359</v>
       </c>
       <c r="F11">
-        <v>0.947581266537221</v>
+        <v>0.9476521081767493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023839920164563</v>
+        <v>1.023869405045442</v>
       </c>
       <c r="J11">
-        <v>0.971368270482573</v>
+        <v>0.9714382601684582</v>
       </c>
       <c r="K11">
-        <v>0.9865777297189516</v>
+        <v>0.9866349783273722</v>
       </c>
       <c r="L11">
-        <v>0.9671839641222065</v>
+        <v>0.9672548575961275</v>
       </c>
       <c r="M11">
-        <v>0.9635643879962716</v>
+        <v>0.9636336902283044</v>
+      </c>
+      <c r="N11">
+        <v>0.9796323267219059</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9362104026705237</v>
+        <v>0.9362874124057557</v>
       </c>
       <c r="D12">
-        <v>0.9688196658792844</v>
+        <v>0.9688806867642958</v>
       </c>
       <c r="E12">
-        <v>0.9484356704890956</v>
+        <v>0.9485113791164813</v>
       </c>
       <c r="F12">
-        <v>0.9445441025526765</v>
+        <v>0.9446181676577928</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022802597637236</v>
+        <v>1.022833374197676</v>
       </c>
       <c r="J12">
-        <v>0.968983266514738</v>
+        <v>0.9690563375969449</v>
       </c>
       <c r="K12">
-        <v>0.984569646025299</v>
+        <v>0.9846293963722921</v>
       </c>
       <c r="L12">
-        <v>0.9646222450391514</v>
+        <v>0.9646962859222651</v>
       </c>
       <c r="M12">
-        <v>0.9608168818153331</v>
+        <v>0.960889297426226</v>
+      </c>
+      <c r="N12">
+        <v>0.9779280976086625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9368619243810887</v>
+        <v>0.9369382059529581</v>
       </c>
       <c r="D13">
-        <v>0.9693093984652614</v>
+        <v>0.9693698588310079</v>
       </c>
       <c r="E13">
-        <v>0.94904964151477</v>
+        <v>0.9491246430085354</v>
       </c>
       <c r="F13">
-        <v>0.9451995153622959</v>
+        <v>0.945272880243589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023026606526143</v>
+        <v>1.023057102752055</v>
       </c>
       <c r="J13">
-        <v>0.9694980420276496</v>
+        <v>0.9695704445328674</v>
       </c>
       <c r="K13">
-        <v>0.9850030850053854</v>
+        <v>0.985062292448193</v>
       </c>
       <c r="L13">
-        <v>0.9651751241143659</v>
+        <v>0.965248481911359</v>
       </c>
       <c r="M13">
-        <v>0.961409841800197</v>
+        <v>0.9614815813701684</v>
+      </c>
+      <c r="N13">
+        <v>0.9782959581254073</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9389812853934524</v>
+        <v>0.9390552158025277</v>
       </c>
       <c r="D14">
-        <v>0.9709028959929172</v>
+        <v>0.9709615452706926</v>
       </c>
       <c r="E14">
-        <v>0.9510472870412812</v>
+        <v>0.9511200041534366</v>
       </c>
       <c r="F14">
-        <v>0.9473319679053216</v>
+        <v>0.9474030721006751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023754844668643</v>
+        <v>1.023784434870318</v>
       </c>
       <c r="J14">
-        <v>0.9711725466900387</v>
+        <v>0.9712427877069338</v>
       </c>
       <c r="K14">
-        <v>0.9864129456048221</v>
+        <v>0.9864703982220343</v>
       </c>
       <c r="L14">
-        <v>0.966973721106956</v>
+        <v>0.9670448712138988</v>
       </c>
       <c r="M14">
-        <v>0.9633388898412099</v>
+        <v>0.9634084457811366</v>
+      </c>
+      <c r="N14">
+        <v>0.9794924804669586</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9402755334560317</v>
+        <v>0.9403480410291963</v>
       </c>
       <c r="D15">
-        <v>0.9718763268361609</v>
+        <v>0.9719338792007842</v>
       </c>
       <c r="E15">
-        <v>0.9522675323910053</v>
+        <v>0.9523388662477703</v>
       </c>
       <c r="F15">
-        <v>0.9486345382785761</v>
+        <v>0.9487042745909278</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024199216399323</v>
+        <v>1.024228257674619</v>
       </c>
       <c r="J15">
-        <v>0.9721951035477293</v>
+        <v>0.9722640344819823</v>
       </c>
       <c r="K15">
-        <v>0.9872738418116358</v>
+        <v>0.9873302311022075</v>
       </c>
       <c r="L15">
-        <v>0.9680721679987757</v>
+        <v>0.9681419805469637</v>
       </c>
       <c r="M15">
-        <v>0.9645170546677457</v>
+        <v>0.9645852885888085</v>
+      </c>
+      <c r="N15">
+        <v>0.9802230847246335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9476408886324301</v>
+        <v>0.9477054787872168</v>
       </c>
       <c r="D16">
-        <v>0.9774203413688419</v>
+        <v>0.977471777479017</v>
       </c>
       <c r="E16">
-        <v>0.9592164367420881</v>
+        <v>0.9592800619264004</v>
       </c>
       <c r="F16">
-        <v>0.9560520279603313</v>
+        <v>0.9561141555627559</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026722668119784</v>
+        <v>1.026748646099104</v>
       </c>
       <c r="J16">
-        <v>0.9780137193875359</v>
+        <v>0.9780753319873781</v>
       </c>
       <c r="K16">
-        <v>0.992171690708211</v>
+        <v>0.9922221440899469</v>
       </c>
       <c r="L16">
-        <v>0.9743242981806561</v>
+        <v>0.9743866462957728</v>
       </c>
       <c r="M16">
-        <v>0.9712236871363263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9712845568289658</v>
+      </c>
+      <c r="N16">
+        <v>0.9843793360891606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9521220885474726</v>
+        <v>0.9521820039562262</v>
       </c>
       <c r="D17">
-        <v>0.9807968581108056</v>
+        <v>0.9808446731556592</v>
       </c>
       <c r="E17">
-        <v>0.9634481401726878</v>
+        <v>0.9635072046896708</v>
       </c>
       <c r="F17">
-        <v>0.9605689701424441</v>
+        <v>0.9606266077683159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028253085954681</v>
+        <v>1.0282772482285</v>
       </c>
       <c r="J17">
-        <v>0.9815531600177548</v>
+        <v>0.9816104286961417</v>
       </c>
       <c r="K17">
-        <v>0.9951501794208391</v>
+        <v>0.9951971128203383</v>
       </c>
       <c r="L17">
-        <v>0.9781289171007838</v>
+        <v>0.9781868405682687</v>
       </c>
       <c r="M17">
-        <v>0.9753055920029841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.97536210737244</v>
+      </c>
+      <c r="N17">
+        <v>0.9869065508092585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9546890753621728</v>
+        <v>0.9547463588557269</v>
       </c>
       <c r="D18">
-        <v>0.982732145552744</v>
+        <v>0.9827779187597878</v>
       </c>
       <c r="E18">
-        <v>0.9658735215533932</v>
+        <v>0.96593001538352</v>
       </c>
       <c r="F18">
-        <v>0.9631578228266654</v>
+        <v>0.9632129334429794</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029127939321187</v>
+        <v>1.029151077037953</v>
       </c>
       <c r="J18">
-        <v>0.9835803558991202</v>
+        <v>0.9836351713215788</v>
       </c>
       <c r="K18">
-        <v>0.9968557538003212</v>
+        <v>0.9969007004407809</v>
       </c>
       <c r="L18">
-        <v>0.9803085239881555</v>
+        <v>0.9803639506043046</v>
       </c>
       <c r="M18">
-        <v>0.9776443201305279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9776983819682488</v>
+      </c>
+      <c r="N18">
+        <v>0.988353606978789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9555566937298655</v>
+        <v>0.955613095005595</v>
       </c>
       <c r="D19">
-        <v>0.9833864297947207</v>
+        <v>0.983431518074533</v>
       </c>
       <c r="E19">
-        <v>0.9666934945649092</v>
+        <v>0.9667491262176987</v>
       </c>
       <c r="F19">
-        <v>0.9640330628643299</v>
+        <v>0.9640873265746861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029423316806749</v>
+        <v>1.029446110720366</v>
       </c>
       <c r="J19">
-        <v>0.9842654697994251</v>
+        <v>0.9843194616561192</v>
       </c>
       <c r="K19">
-        <v>0.9974321115979483</v>
+        <v>0.9974763914723346</v>
       </c>
       <c r="L19">
-        <v>0.98104523727044</v>
+        <v>0.9810998260104501</v>
       </c>
       <c r="M19">
-        <v>0.9784348636474196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9784881027374217</v>
+      </c>
+      <c r="N19">
+        <v>0.9888425870326473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9516462099502948</v>
+        <v>0.9517066168962222</v>
       </c>
       <c r="D20">
-        <v>0.9804381730273714</v>
+        <v>0.9804863691559064</v>
       </c>
       <c r="E20">
-        <v>0.962998618062974</v>
+        <v>0.9630581624427226</v>
       </c>
       <c r="F20">
-        <v>0.9600891498114377</v>
+        <v>0.9601472594539073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028090752529132</v>
+        <v>1.028115105965556</v>
       </c>
       <c r="J20">
-        <v>0.9811773227577927</v>
+        <v>0.9812350489978708</v>
       </c>
       <c r="K20">
-        <v>0.9948339417480474</v>
+        <v>0.9948812457969656</v>
       </c>
       <c r="L20">
-        <v>0.9777248664309171</v>
+        <v>0.977783255750992</v>
       </c>
       <c r="M20">
-        <v>0.9748720659064878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9749290393374181</v>
+      </c>
+      <c r="N20">
+        <v>0.9866382375708084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9383596166991177</v>
+        <v>0.9384342340178194</v>
       </c>
       <c r="D21">
-        <v>0.9704354108398638</v>
+        <v>0.9704945894344366</v>
       </c>
       <c r="E21">
-        <v>0.9504612521173353</v>
+        <v>0.9505346368057297</v>
       </c>
       <c r="F21">
-        <v>0.9467063901636581</v>
+        <v>0.9467781547931052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023541304065669</v>
+        <v>1.023571159103961</v>
       </c>
       <c r="J21">
-        <v>0.9706813721695916</v>
+        <v>0.9707522451125719</v>
       </c>
       <c r="K21">
-        <v>0.9859994086396806</v>
+        <v>0.9860573742339094</v>
       </c>
       <c r="L21">
-        <v>0.9664461238444909</v>
+        <v>0.96651791927315</v>
       </c>
       <c r="M21">
-        <v>0.9627730162881939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.962843210312634</v>
+      </c>
+      <c r="N21">
+        <v>0.9791415240305971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9295094138213562</v>
+        <v>0.929594065215419</v>
       </c>
       <c r="D22">
-        <v>0.9637864053912689</v>
+        <v>0.9638532976884258</v>
       </c>
       <c r="E22">
-        <v>0.9421245608927149</v>
+        <v>0.9422076806109364</v>
       </c>
       <c r="F22">
-        <v>0.9378067087466913</v>
+        <v>0.9378881244981911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020495107533169</v>
+        <v>1.02052881854333</v>
       </c>
       <c r="J22">
-        <v>0.9636886151693419</v>
+        <v>0.9637686788289244</v>
       </c>
       <c r="K22">
-        <v>0.9801110935533941</v>
+        <v>0.9801765251701198</v>
       </c>
       <c r="L22">
-        <v>0.9589368643208022</v>
+        <v>0.9590180556524744</v>
       </c>
       <c r="M22">
-        <v>0.954719816597055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9547993201185397</v>
+      </c>
+      <c r="N22">
+        <v>0.9741438799997223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9342522181953394</v>
+        <v>0.9343314319823895</v>
       </c>
       <c r="D23">
-        <v>0.9673481254482531</v>
+        <v>0.9674108418482069</v>
       </c>
       <c r="E23">
-        <v>0.9465907258444232</v>
+        <v>0.9466685738698892</v>
       </c>
       <c r="F23">
-        <v>0.9425745994681117</v>
+        <v>0.9426507842842343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022128948200424</v>
+        <v>1.02216057253544</v>
       </c>
       <c r="J23">
-        <v>0.9674360616443499</v>
+        <v>0.9675111540023204</v>
       </c>
       <c r="K23">
-        <v>0.9832668522253574</v>
+        <v>0.9833282442274791</v>
       </c>
       <c r="L23">
-        <v>0.962960641045133</v>
+        <v>0.9630367476931402</v>
       </c>
       <c r="M23">
-        <v>0.9590348716660891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9591093328784525</v>
+      </c>
+      <c r="N23">
+        <v>0.9768223890634665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.95186138292718</v>
+        <v>0.9519215674781611</v>
       </c>
       <c r="D24">
-        <v>0.9806003524600255</v>
+        <v>0.9806483761778604</v>
       </c>
       <c r="E24">
-        <v>0.9632018696317028</v>
+        <v>0.963261196907901</v>
       </c>
       <c r="F24">
-        <v>0.9603061007608151</v>
+        <v>0.9603639968376286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028164158804242</v>
+        <v>1.028188425756721</v>
       </c>
       <c r="J24">
-        <v>0.9813472621125909</v>
+        <v>0.9814047813535353</v>
       </c>
       <c r="K24">
-        <v>0.9949769334942127</v>
+        <v>0.9950240698591097</v>
       </c>
       <c r="L24">
-        <v>0.9779075611639665</v>
+        <v>0.977965739727926</v>
       </c>
       <c r="M24">
-        <v>0.9750680873495081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9751248535377763</v>
+      </c>
+      <c r="N24">
+        <v>0.9867595598704477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.970480346556132</v>
+        <v>0.9705221162423276</v>
       </c>
       <c r="D25">
-        <v>0.9946530826657913</v>
+        <v>0.994686775557112</v>
       </c>
       <c r="E25">
-        <v>0.9808146217476639</v>
+        <v>0.9808559189301608</v>
       </c>
       <c r="F25">
-        <v>0.9791065226331037</v>
+        <v>0.9791467522032802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034476192419335</v>
+        <v>1.0344932571005</v>
       </c>
       <c r="J25">
-        <v>0.9960437070387537</v>
+        <v>0.996083948202578</v>
       </c>
       <c r="K25">
-        <v>1.007334973622662</v>
+        <v>1.007368136277421</v>
       </c>
       <c r="L25">
-        <v>0.9937182509501877</v>
+        <v>0.9937588744540201</v>
       </c>
       <c r="M25">
-        <v>0.9920380799701164</v>
+        <v>0.9920776503295016</v>
+      </c>
+      <c r="N25">
+        <v>0.997242652238863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9841921667669085</v>
+        <v>1.049889008844951</v>
       </c>
       <c r="D2">
-        <v>1.005023724678174</v>
+        <v>1.060424041614316</v>
       </c>
       <c r="E2">
-        <v>0.9938185466878857</v>
+        <v>1.066376670582745</v>
       </c>
       <c r="F2">
-        <v>0.9929871183103068</v>
+        <v>1.070534182144748</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039066124319375</v>
+        <v>1.0589617956046</v>
       </c>
       <c r="J2">
-        <v>1.006856191193698</v>
+        <v>1.070673473988511</v>
       </c>
       <c r="K2">
-        <v>1.016413511926892</v>
+        <v>1.07110118228936</v>
       </c>
       <c r="L2">
-        <v>1.005364676064063</v>
+        <v>1.07698270237764</v>
       </c>
       <c r="M2">
-        <v>1.004545026125512</v>
+        <v>1.081091129813331</v>
       </c>
       <c r="N2">
-        <v>1.004920839121551</v>
+        <v>1.072193953129539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9935544659863025</v>
+        <v>1.060768235525205</v>
       </c>
       <c r="D3">
-        <v>1.012109798246369</v>
+        <v>1.069339566970936</v>
       </c>
       <c r="E3">
-        <v>1.002711929645975</v>
+        <v>1.076725218178558</v>
       </c>
       <c r="F3">
-        <v>1.002485146405643</v>
+        <v>1.080686702157463</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042160663204495</v>
+        <v>1.062839691681112</v>
       </c>
       <c r="J3">
-        <v>1.01422239843081</v>
+        <v>1.079729036840217</v>
       </c>
       <c r="K3">
-        <v>1.022590041673882</v>
+        <v>1.079155932631827</v>
       </c>
       <c r="L3">
-        <v>1.013310228030867</v>
+        <v>1.08646220986873</v>
       </c>
       <c r="M3">
-        <v>1.013086327769774</v>
+        <v>1.09038166644694</v>
       </c>
       <c r="N3">
-        <v>1.010161917862478</v>
+        <v>1.081262375919182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9993821035510057</v>
+        <v>1.067530846410766</v>
       </c>
       <c r="D4">
-        <v>1.016522268289498</v>
+        <v>1.074882091808617</v>
       </c>
       <c r="E4">
-        <v>1.008254142626942</v>
+        <v>1.083163413342347</v>
       </c>
       <c r="F4">
-        <v>1.008405573422041</v>
+        <v>1.087002950154751</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044068981544278</v>
+        <v>1.065234020052017</v>
       </c>
       <c r="J4">
-        <v>1.018801628400316</v>
+        <v>1.085351788313288</v>
       </c>
       <c r="K4">
-        <v>1.026425291386206</v>
+        <v>1.084153557153735</v>
       </c>
       <c r="L4">
-        <v>1.018253957818951</v>
+        <v>1.092351965029347</v>
       </c>
       <c r="M4">
-        <v>1.018403598194461</v>
+        <v>1.096153580203485</v>
       </c>
       <c r="N4">
-        <v>1.013415485330003</v>
+        <v>1.086893112344283</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001780819827873</v>
+        <v>1.070312587496736</v>
       </c>
       <c r="D5">
-        <v>1.018338714838338</v>
+        <v>1.077161944824773</v>
       </c>
       <c r="E5">
-        <v>1.010536827513108</v>
+        <v>1.085812910604906</v>
       </c>
       <c r="F5">
-        <v>1.010844409143502</v>
+        <v>1.089602245121371</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044850076797705</v>
+        <v>1.066214920024015</v>
       </c>
       <c r="J5">
-        <v>1.020684980602414</v>
+        <v>1.087663075074961</v>
       </c>
       <c r="K5">
-        <v>1.028001552732574</v>
+        <v>1.086206956160647</v>
       </c>
       <c r="L5">
-        <v>1.020288270824275</v>
+        <v>1.094773903495726</v>
       </c>
       <c r="M5">
-        <v>1.020592327313363</v>
+        <v>1.098526944193117</v>
       </c>
       <c r="N5">
-        <v>1.014752487976699</v>
+        <v>1.089207681398266</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002180677369143</v>
+        <v>1.070776197348426</v>
       </c>
       <c r="D6">
-        <v>1.018641518635143</v>
+        <v>1.077541904040982</v>
       </c>
       <c r="E6">
-        <v>1.01091742585094</v>
+        <v>1.086254548255384</v>
       </c>
       <c r="F6">
-        <v>1.011251066002036</v>
+        <v>1.09003551311473</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044980021819787</v>
+        <v>1.066378161279417</v>
       </c>
       <c r="J6">
-        <v>1.020998837796416</v>
+        <v>1.088048182807362</v>
       </c>
       <c r="K6">
-        <v>1.028264167434485</v>
+        <v>1.086549039243446</v>
       </c>
       <c r="L6">
-        <v>1.020627347242155</v>
+        <v>1.095177500680163</v>
       </c>
       <c r="M6">
-        <v>1.020957183697239</v>
+        <v>1.098922439593956</v>
       </c>
       <c r="N6">
-        <v>1.014975229656718</v>
+        <v>1.089593336027819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9994143517119943</v>
+        <v>1.067568250659061</v>
       </c>
       <c r="D7">
-        <v>1.016546687778734</v>
+        <v>1.074912747751573</v>
       </c>
       <c r="E7">
-        <v>1.008284825233322</v>
+        <v>1.083199034763317</v>
       </c>
       <c r="F7">
-        <v>1.008438353390702</v>
+        <v>1.087037896720507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044079500048117</v>
+        <v>1.065247225502971</v>
       </c>
       <c r="J7">
-        <v>1.01882695412561</v>
+        <v>1.085382873051174</v>
       </c>
       <c r="K7">
-        <v>1.026446492058498</v>
+        <v>1.084181177237524</v>
       </c>
       <c r="L7">
-        <v>1.018281309370013</v>
+        <v>1.092384534383064</v>
       </c>
       <c r="M7">
-        <v>1.018433023060234</v>
+        <v>1.096185496824469</v>
       </c>
       <c r="N7">
-        <v>1.013433468729714</v>
+        <v>1.086924241226062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.987406420321315</v>
+        <v>1.05362628467083</v>
       </c>
       <c r="D8">
-        <v>1.007456033804141</v>
+        <v>1.063486518843928</v>
       </c>
       <c r="E8">
-        <v>0.9968703785223507</v>
+        <v>1.069930414504561</v>
       </c>
       <c r="F8">
-        <v>0.9962461638476479</v>
+        <v>1.07402059447669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040132278728276</v>
+        <v>1.060297324720586</v>
       </c>
       <c r="J8">
-        <v>1.009386351258744</v>
+        <v>1.073785553019747</v>
       </c>
       <c r="K8">
-        <v>1.018535946748453</v>
+        <v>1.073870083038494</v>
       </c>
       <c r="L8">
-        <v>1.00809291007245</v>
+        <v>1.080239669869497</v>
       </c>
       <c r="M8">
-        <v>1.007477224477855</v>
+        <v>1.08428325369046</v>
       </c>
       <c r="N8">
-        <v>1.006722005087432</v>
+        <v>1.075310451669959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.964277693257828</v>
+        <v>1.026671954433272</v>
       </c>
       <c r="D9">
-        <v>0.9899699669250468</v>
+        <v>1.04140911302268</v>
       </c>
       <c r="E9">
-        <v>0.9749435959452708</v>
+        <v>1.044329292562227</v>
       </c>
       <c r="F9">
-        <v>0.9728349798751088</v>
+        <v>1.048905549526651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032386097223549</v>
+        <v>1.050598325418076</v>
       </c>
       <c r="J9">
-        <v>0.9911581787519774</v>
+        <v>1.051316780496152</v>
       </c>
       <c r="K9">
-        <v>1.003227897914109</v>
+        <v>1.053864272993549</v>
       </c>
       <c r="L9">
-        <v>0.9884567127404129</v>
+        <v>1.05674188849784</v>
       </c>
       <c r="M9">
-        <v>0.9863847229130109</v>
+        <v>1.06125204648514</v>
       </c>
       <c r="N9">
-        <v>0.993727181208056</v>
+        <v>1.052809770912177</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9471930407720348</v>
+        <v>1.006647840107933</v>
       </c>
       <c r="D10">
-        <v>0.9770858356480998</v>
+        <v>1.025031691388282</v>
       </c>
       <c r="E10">
-        <v>0.9587963577248088</v>
+        <v>1.025356353231659</v>
       </c>
       <c r="F10">
-        <v>0.9555978001530672</v>
+        <v>1.03029554969317</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026573417207546</v>
+        <v>1.043312971420795</v>
       </c>
       <c r="J10">
-        <v>0.9776706222231121</v>
+        <v>1.03460016166841</v>
       </c>
       <c r="K10">
-        <v>0.9918815152965559</v>
+        <v>1.038963235353113</v>
       </c>
       <c r="L10">
-        <v>0.9739516603147237</v>
+        <v>1.039282401248848</v>
       </c>
       <c r="M10">
-        <v>0.9708178594645966</v>
+        <v>1.044138536370987</v>
       </c>
       <c r="N10">
-        <v>0.9840899563162906</v>
+        <v>1.036069412568276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9393026676754739</v>
+        <v>0.9973585377332066</v>
       </c>
       <c r="D11">
-        <v>0.9711476354854716</v>
+        <v>1.017443939896022</v>
       </c>
       <c r="E11">
-        <v>0.951353280091359</v>
+        <v>1.016568635144653</v>
       </c>
       <c r="F11">
-        <v>0.9476521081767493</v>
+        <v>1.021677130894118</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023869405045442</v>
+        <v>1.039916741569488</v>
       </c>
       <c r="J11">
-        <v>0.9714382601684582</v>
+        <v>1.026841618997868</v>
       </c>
       <c r="K11">
-        <v>0.9866349783273722</v>
+        <v>1.032044219989251</v>
       </c>
       <c r="L11">
-        <v>0.9672548575961275</v>
+        <v>1.031184712351858</v>
       </c>
       <c r="M11">
-        <v>0.9636336902283044</v>
+        <v>1.03620150815174</v>
       </c>
       <c r="N11">
-        <v>0.9796323267219059</v>
+        <v>1.028299851877226</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9362874124057557</v>
+        <v>0.9938007947472038</v>
       </c>
       <c r="D12">
-        <v>0.9688806867642958</v>
+        <v>1.014539801975126</v>
       </c>
       <c r="E12">
-        <v>0.9485113791164813</v>
+        <v>1.013205408728714</v>
       </c>
       <c r="F12">
-        <v>0.9446181676577928</v>
+        <v>1.018378937229227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022833374197676</v>
+        <v>1.038613798724547</v>
       </c>
       <c r="J12">
-        <v>0.9690563375969449</v>
+        <v>1.023869853201442</v>
       </c>
       <c r="K12">
-        <v>0.9846293963722921</v>
+        <v>1.029393644972338</v>
       </c>
       <c r="L12">
-        <v>0.9646962859222651</v>
+        <v>1.028083912822561</v>
       </c>
       <c r="M12">
-        <v>0.960889297426226</v>
+        <v>1.033162297896745</v>
       </c>
       <c r="N12">
-        <v>0.9779280976086625</v>
+        <v>1.025323865832501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9369382059529581</v>
+        <v>0.994569063528714</v>
       </c>
       <c r="D13">
-        <v>0.9693698588310079</v>
+        <v>1.015166834806809</v>
       </c>
       <c r="E13">
-        <v>0.9491246430085354</v>
+        <v>1.013931558577198</v>
       </c>
       <c r="F13">
-        <v>0.945272880243589</v>
+        <v>1.01909103410993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023057102752055</v>
+        <v>1.038895254316497</v>
       </c>
       <c r="J13">
-        <v>0.9695704445328674</v>
+        <v>1.024511593152998</v>
       </c>
       <c r="K13">
-        <v>0.985062292448193</v>
+        <v>1.029966040315452</v>
       </c>
       <c r="L13">
-        <v>0.965248481911359</v>
+        <v>1.028753477447093</v>
       </c>
       <c r="M13">
-        <v>0.9614815813701684</v>
+        <v>1.033818559578498</v>
       </c>
       <c r="N13">
-        <v>0.9782959581254073</v>
+        <v>1.025966517128398</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9390552158025277</v>
+        <v>0.9970667367065634</v>
       </c>
       <c r="D14">
-        <v>0.9709615452706926</v>
+        <v>1.017205704941906</v>
       </c>
       <c r="E14">
-        <v>0.9511200041534366</v>
+        <v>1.016292737304061</v>
       </c>
       <c r="F14">
-        <v>0.9474030721006751</v>
+        <v>1.021406562725931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023784434870318</v>
+        <v>1.039809918901484</v>
       </c>
       <c r="J14">
-        <v>0.9712427877069338</v>
+        <v>1.026597883314625</v>
       </c>
       <c r="K14">
-        <v>0.9864703982220343</v>
+        <v>1.031826834404496</v>
       </c>
       <c r="L14">
-        <v>0.9670448712138988</v>
+        <v>1.030930375976141</v>
       </c>
       <c r="M14">
-        <v>0.9634084457811366</v>
+        <v>1.035952221869553</v>
       </c>
       <c r="N14">
-        <v>0.9794924804669586</v>
+        <v>1.028055770061355</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9403480410291963</v>
+        <v>0.9985909355801733</v>
       </c>
       <c r="D15">
-        <v>0.9719338792007842</v>
+        <v>1.018450186391086</v>
       </c>
       <c r="E15">
-        <v>0.9523388662477703</v>
+        <v>1.017733966810504</v>
       </c>
       <c r="F15">
-        <v>0.9487042745909278</v>
+        <v>1.022819961234623</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024228257674619</v>
+        <v>1.040367810834731</v>
       </c>
       <c r="J15">
-        <v>0.9722640344819823</v>
+        <v>1.027871006503821</v>
       </c>
       <c r="K15">
-        <v>0.9873302311022075</v>
+        <v>1.032962306576383</v>
       </c>
       <c r="L15">
-        <v>0.9681419805469637</v>
+        <v>1.032258905897079</v>
       </c>
       <c r="M15">
-        <v>0.9645852885888085</v>
+        <v>1.037254375568734</v>
       </c>
       <c r="N15">
-        <v>0.9802230847246335</v>
+        <v>1.029330701231508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9477054787872168</v>
+        <v>1.007250153191517</v>
       </c>
       <c r="D16">
-        <v>0.977471777479017</v>
+        <v>1.025523913163323</v>
       </c>
       <c r="E16">
-        <v>0.9592800619264004</v>
+        <v>1.025926454336005</v>
       </c>
       <c r="F16">
-        <v>0.9561141555627559</v>
+        <v>1.030854696690949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026748646099104</v>
+        <v>1.043532864432292</v>
       </c>
       <c r="J16">
-        <v>0.9780753319873781</v>
+        <v>1.035103166785374</v>
       </c>
       <c r="K16">
-        <v>0.9922221440899469</v>
+        <v>1.039411755402822</v>
       </c>
       <c r="L16">
-        <v>0.9743866462957728</v>
+        <v>1.039807511232432</v>
       </c>
       <c r="M16">
-        <v>0.9712845568289658</v>
+        <v>1.044653235096288</v>
       </c>
       <c r="N16">
-        <v>0.9843793360891606</v>
+        <v>1.036573132010202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9521820039562262</v>
+        <v>1.012507041005571</v>
       </c>
       <c r="D17">
-        <v>0.9808446731556592</v>
+        <v>1.029821079642977</v>
       </c>
       <c r="E17">
-        <v>0.9635072046896708</v>
+        <v>1.030903783569073</v>
       </c>
       <c r="F17">
-        <v>0.9606266077683159</v>
+        <v>1.035736528850453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0282772482285</v>
+        <v>1.045450242891854</v>
       </c>
       <c r="J17">
-        <v>0.9816104286961417</v>
+        <v>1.03949293372454</v>
       </c>
       <c r="K17">
-        <v>0.9951971128203383</v>
+        <v>1.043325688426556</v>
       </c>
       <c r="L17">
-        <v>0.9781868405682687</v>
+        <v>1.044390818460343</v>
       </c>
       <c r="M17">
-        <v>0.97536210737244</v>
+        <v>1.049145695622297</v>
       </c>
       <c r="N17">
-        <v>0.9869065508092585</v>
+        <v>1.040969132921935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9547463588557269</v>
+        <v>1.015514712206616</v>
       </c>
       <c r="D18">
-        <v>0.9827779187597878</v>
+        <v>1.032280533896142</v>
       </c>
       <c r="E18">
-        <v>0.96593001538352</v>
+        <v>1.033752774831605</v>
       </c>
       <c r="F18">
-        <v>0.9632129334429794</v>
+        <v>1.038530964693486</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029151077037953</v>
+        <v>1.046545702903886</v>
       </c>
       <c r="J18">
-        <v>0.9836351713215788</v>
+        <v>1.042004139456651</v>
       </c>
       <c r="K18">
-        <v>0.9969007004407809</v>
+        <v>1.045564393393926</v>
       </c>
       <c r="L18">
-        <v>0.9803639506043046</v>
+        <v>1.047013260195857</v>
       </c>
       <c r="M18">
-        <v>0.9776983819682488</v>
+        <v>1.051716172791654</v>
       </c>
       <c r="N18">
-        <v>0.988353606978789</v>
+        <v>1.043483904854225</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.955613095005595</v>
+        <v>1.016530698850687</v>
       </c>
       <c r="D19">
-        <v>0.983431518074533</v>
+        <v>1.033111470917027</v>
       </c>
       <c r="E19">
-        <v>0.9667491262176987</v>
+        <v>1.034715366172177</v>
       </c>
       <c r="F19">
-        <v>0.9640873265746861</v>
+        <v>1.039475139876279</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029446110720366</v>
+        <v>1.046915478024209</v>
       </c>
       <c r="J19">
-        <v>0.9843194616561192</v>
+        <v>1.042852354765996</v>
       </c>
       <c r="K19">
-        <v>0.9974763914723346</v>
+        <v>1.046320512916385</v>
       </c>
       <c r="L19">
-        <v>0.9810998260104501</v>
+        <v>1.047899135445371</v>
       </c>
       <c r="M19">
-        <v>0.9784881027374217</v>
+        <v>1.052584495728651</v>
       </c>
       <c r="N19">
-        <v>0.9888425870326473</v>
+        <v>1.044333324726601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9517066168962222</v>
+        <v>1.011949179638198</v>
       </c>
       <c r="D20">
-        <v>0.9804863691559064</v>
+        <v>1.029364969747141</v>
       </c>
       <c r="E20">
-        <v>0.9630581624427226</v>
+        <v>1.030375454985757</v>
       </c>
       <c r="F20">
-        <v>0.9601472594539073</v>
+        <v>1.035218325526235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028115105965556</v>
+        <v>1.045246930019097</v>
       </c>
       <c r="J20">
-        <v>0.9812350489978708</v>
+        <v>1.039027126372881</v>
       </c>
       <c r="K20">
-        <v>0.9948812457969656</v>
+        <v>1.042910403017128</v>
       </c>
       <c r="L20">
-        <v>0.977783255750992</v>
+        <v>1.043904419854979</v>
       </c>
       <c r="M20">
-        <v>0.9749290393374181</v>
+        <v>1.048668936174482</v>
       </c>
       <c r="N20">
-        <v>0.9866382375708084</v>
+        <v>1.040502664070408</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9384342340178194</v>
+        <v>0.9963343272499029</v>
       </c>
       <c r="D21">
-        <v>0.9704945894344366</v>
+        <v>1.016607776765917</v>
       </c>
       <c r="E21">
-        <v>0.9505346368057297</v>
+        <v>1.015600284113451</v>
       </c>
       <c r="F21">
-        <v>0.9467781547931052</v>
+        <v>1.02072749008868</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023571159103961</v>
+        <v>1.039541763692942</v>
       </c>
       <c r="J21">
-        <v>0.9707522451125719</v>
+        <v>1.025986112263305</v>
       </c>
       <c r="K21">
-        <v>0.9860573742339094</v>
+        <v>1.031281195855525</v>
       </c>
       <c r="L21">
-        <v>0.96651791927315</v>
+        <v>1.030292011457167</v>
       </c>
       <c r="M21">
-        <v>0.962843210312634</v>
+        <v>1.035326533935865</v>
       </c>
       <c r="N21">
-        <v>0.9791415240305971</v>
+        <v>1.027443130224971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.929594065215419</v>
+        <v>0.9858862266186225</v>
       </c>
       <c r="D22">
-        <v>0.9638532976884258</v>
+        <v>1.008083394294081</v>
       </c>
       <c r="E22">
-        <v>0.9422076806109364</v>
+        <v>1.005728456483441</v>
       </c>
       <c r="F22">
-        <v>0.9378881244981911</v>
+        <v>1.011047082661928</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02052881854333</v>
+        <v>1.035711524864701</v>
       </c>
       <c r="J22">
-        <v>0.9637686788289244</v>
+        <v>1.017258634174292</v>
       </c>
       <c r="K22">
-        <v>0.9801765251701198</v>
+        <v>1.023496400550505</v>
       </c>
       <c r="L22">
-        <v>0.9590180556524744</v>
+        <v>1.021187279336529</v>
       </c>
       <c r="M22">
-        <v>0.9547993201185397</v>
+        <v>1.026402825975195</v>
       </c>
       <c r="N22">
-        <v>0.9741438799997223</v>
+        <v>1.018703258116016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9343314319823895</v>
+        <v>0.991490421394003</v>
       </c>
       <c r="D23">
-        <v>0.9674108418482069</v>
+        <v>1.012654481397877</v>
       </c>
       <c r="E23">
-        <v>0.9466685738698892</v>
+        <v>1.011022079611116</v>
       </c>
       <c r="F23">
-        <v>0.9426507842842343</v>
+        <v>1.016237901727176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02216057253544</v>
+        <v>1.037767092783497</v>
       </c>
       <c r="J23">
-        <v>0.9675111540023204</v>
+        <v>1.021939962360986</v>
       </c>
       <c r="K23">
-        <v>0.9833282442274791</v>
+        <v>1.027672246191994</v>
       </c>
       <c r="L23">
-        <v>0.9630367476931402</v>
+        <v>1.026070475050257</v>
       </c>
       <c r="M23">
-        <v>0.9591093328784525</v>
+        <v>1.031188876713866</v>
       </c>
       <c r="N23">
-        <v>0.9768223890634665</v>
+        <v>1.023391234325691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9519215674781611</v>
+        <v>1.012201433164071</v>
       </c>
       <c r="D24">
-        <v>0.9806483761778604</v>
+        <v>1.029571210633133</v>
       </c>
       <c r="E24">
-        <v>0.963261196907901</v>
+        <v>1.030614350466713</v>
       </c>
       <c r="F24">
-        <v>0.9603639968376286</v>
+        <v>1.035452642319344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028188425756721</v>
+        <v>1.045338868790489</v>
       </c>
       <c r="J24">
-        <v>0.9814047813535353</v>
+        <v>1.039237756064637</v>
       </c>
       <c r="K24">
-        <v>0.9950240698591097</v>
+        <v>1.043098188524818</v>
       </c>
       <c r="L24">
-        <v>0.977965739727926</v>
+        <v>1.04412435892373</v>
       </c>
       <c r="M24">
-        <v>0.9751248535377763</v>
+        <v>1.048884516576678</v>
       </c>
       <c r="N24">
-        <v>0.9867595598704477</v>
+        <v>1.040713592880485</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9705221162423276</v>
+        <v>1.033964574004116</v>
       </c>
       <c r="D25">
-        <v>0.994686775557112</v>
+        <v>1.047379448999677</v>
       </c>
       <c r="E25">
-        <v>0.9808559189301608</v>
+        <v>1.051248953012118</v>
       </c>
       <c r="F25">
-        <v>0.9791467522032802</v>
+        <v>1.055693526577991</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0344932571005</v>
+        <v>1.053236506698479</v>
       </c>
       <c r="J25">
-        <v>0.996083948202578</v>
+        <v>1.057400572360874</v>
       </c>
       <c r="K25">
-        <v>1.007368136277421</v>
+        <v>1.059284232275072</v>
       </c>
       <c r="L25">
-        <v>0.9937588744540201</v>
+        <v>1.063100573909886</v>
       </c>
       <c r="M25">
-        <v>0.9920776503295016</v>
+        <v>1.067484689246709</v>
       </c>
       <c r="N25">
-        <v>0.997242652238863</v>
+        <v>1.058902202459167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049889008844951</v>
+        <v>1.001583150274342</v>
       </c>
       <c r="D2">
-        <v>1.060424041614316</v>
+        <v>1.020434636716236</v>
       </c>
       <c r="E2">
-        <v>1.066376670582745</v>
+        <v>1.018982697032234</v>
       </c>
       <c r="F2">
-        <v>1.070534182144748</v>
+        <v>1.02518652318144</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0589617956046</v>
+        <v>1.047924820790357</v>
       </c>
       <c r="J2">
-        <v>1.070673473988511</v>
+        <v>1.023716612478069</v>
       </c>
       <c r="K2">
-        <v>1.07110118228936</v>
+        <v>1.031616440068589</v>
       </c>
       <c r="L2">
-        <v>1.07698270237764</v>
+        <v>1.030183758631566</v>
       </c>
       <c r="M2">
-        <v>1.081091129813331</v>
+        <v>1.036305776377613</v>
       </c>
       <c r="N2">
-        <v>1.072193953129539</v>
+        <v>1.011754370244767</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.060768235525205</v>
+        <v>1.006203571155206</v>
       </c>
       <c r="D3">
-        <v>1.069339566970936</v>
+        <v>1.023890493176913</v>
       </c>
       <c r="E3">
-        <v>1.076725218178558</v>
+        <v>1.023276517453452</v>
       </c>
       <c r="F3">
-        <v>1.080686702157463</v>
+        <v>1.029822596836393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062839691681112</v>
+        <v>1.049312214906055</v>
       </c>
       <c r="J3">
-        <v>1.079729036840217</v>
+        <v>1.026526537403816</v>
       </c>
       <c r="K3">
-        <v>1.079155932631827</v>
+        <v>1.034226550525906</v>
       </c>
       <c r="L3">
-        <v>1.08646220986873</v>
+        <v>1.033619987528971</v>
       </c>
       <c r="M3">
-        <v>1.09038166644694</v>
+        <v>1.040087598339551</v>
       </c>
       <c r="N3">
-        <v>1.081262375919182</v>
+        <v>1.012696886332835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067530846410766</v>
+        <v>1.009129931939757</v>
       </c>
       <c r="D4">
-        <v>1.074882091808617</v>
+        <v>1.02607900266466</v>
       </c>
       <c r="E4">
-        <v>1.083163413342347</v>
+        <v>1.026001088491626</v>
       </c>
       <c r="F4">
-        <v>1.087002950154751</v>
+        <v>1.032763647356579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065234020052017</v>
+        <v>1.050176366423136</v>
       </c>
       <c r="J4">
-        <v>1.085351788313288</v>
+        <v>1.028302941756108</v>
       </c>
       <c r="K4">
-        <v>1.084153557153735</v>
+        <v>1.03587254491746</v>
       </c>
       <c r="L4">
-        <v>1.092351965029347</v>
+        <v>1.035795513154172</v>
       </c>
       <c r="M4">
-        <v>1.096153580203485</v>
+        <v>1.042482093356131</v>
       </c>
       <c r="N4">
-        <v>1.086893112344283</v>
+        <v>1.013292596563519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070312587496736</v>
+        <v>1.010345558099649</v>
       </c>
       <c r="D5">
-        <v>1.077161944824773</v>
+        <v>1.026987996594164</v>
       </c>
       <c r="E5">
-        <v>1.085812910604906</v>
+        <v>1.027134071711441</v>
       </c>
       <c r="F5">
-        <v>1.089602245121371</v>
+        <v>1.033986492601927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066214920024015</v>
+        <v>1.050531793771571</v>
       </c>
       <c r="J5">
-        <v>1.087663075074961</v>
+        <v>1.029040050723779</v>
       </c>
       <c r="K5">
-        <v>1.086206956160647</v>
+        <v>1.03655453960975</v>
       </c>
       <c r="L5">
-        <v>1.094773903495726</v>
+        <v>1.036699005546326</v>
       </c>
       <c r="M5">
-        <v>1.098526944193117</v>
+        <v>1.043476566181655</v>
       </c>
       <c r="N5">
-        <v>1.089207681398266</v>
+        <v>1.013539746667486</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070776197348426</v>
+        <v>1.010548825530285</v>
       </c>
       <c r="D6">
-        <v>1.077541904040982</v>
+        <v>1.027139982352286</v>
       </c>
       <c r="E6">
-        <v>1.086254548255384</v>
+        <v>1.027323588762105</v>
       </c>
       <c r="F6">
-        <v>1.09003551311473</v>
+        <v>1.034191031991286</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066378161279417</v>
+        <v>1.050591015566057</v>
       </c>
       <c r="J6">
-        <v>1.088048182807362</v>
+        <v>1.029163255157917</v>
       </c>
       <c r="K6">
-        <v>1.086549039243446</v>
+        <v>1.036668472475502</v>
       </c>
       <c r="L6">
-        <v>1.095177500680163</v>
+        <v>1.036850065736275</v>
       </c>
       <c r="M6">
-        <v>1.098922439593956</v>
+        <v>1.043642840500538</v>
       </c>
       <c r="N6">
-        <v>1.089593336027819</v>
+        <v>1.013581054449384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067568250659061</v>
+        <v>1.009146231915568</v>
       </c>
       <c r="D7">
-        <v>1.074912747751573</v>
+        <v>1.026091191669393</v>
       </c>
       <c r="E7">
-        <v>1.083199034763317</v>
+        <v>1.026016275706817</v>
       </c>
       <c r="F7">
-        <v>1.087037896720507</v>
+        <v>1.032780039755502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065247225502971</v>
+        <v>1.050181146323023</v>
       </c>
       <c r="J7">
-        <v>1.085382873051174</v>
+        <v>1.028312828714985</v>
       </c>
       <c r="K7">
-        <v>1.084181177237524</v>
+        <v>1.0358816966049</v>
       </c>
       <c r="L7">
-        <v>1.092384534383064</v>
+        <v>1.035807628785016</v>
       </c>
       <c r="M7">
-        <v>1.096185496824469</v>
+        <v>1.042495428842372</v>
       </c>
       <c r="N7">
-        <v>1.086924241226062</v>
+        <v>1.013295911775465</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05362628467083</v>
+        <v>1.003158104498843</v>
       </c>
       <c r="D8">
-        <v>1.063486518843928</v>
+        <v>1.021612647417392</v>
       </c>
       <c r="E8">
-        <v>1.069930414504561</v>
+        <v>1.020445240183806</v>
       </c>
       <c r="F8">
-        <v>1.07402059447669</v>
+        <v>1.026765792656713</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060297324720586</v>
+        <v>1.048400761746624</v>
       </c>
       <c r="J8">
-        <v>1.073785553019747</v>
+        <v>1.024675091811231</v>
       </c>
       <c r="K8">
-        <v>1.073870083038494</v>
+        <v>1.032507608419648</v>
       </c>
       <c r="L8">
-        <v>1.080239669869497</v>
+        <v>1.031355210183564</v>
       </c>
       <c r="M8">
-        <v>1.08428325369046</v>
+        <v>1.037595010475161</v>
       </c>
       <c r="N8">
-        <v>1.075310451669959</v>
+        <v>1.012075894177698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026671954433272</v>
+        <v>0.9920946016812959</v>
       </c>
       <c r="D9">
-        <v>1.04140911302268</v>
+        <v>1.013338955915171</v>
       </c>
       <c r="E9">
-        <v>1.044329292562227</v>
+        <v>1.010194373600981</v>
       </c>
       <c r="F9">
-        <v>1.048905549526651</v>
+        <v>1.015693554256139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050598325418076</v>
+        <v>1.044997734596764</v>
       </c>
       <c r="J9">
-        <v>1.051316780496152</v>
+        <v>1.017929642015159</v>
       </c>
       <c r="K9">
-        <v>1.053864272993549</v>
+        <v>1.026219262431398</v>
       </c>
       <c r="L9">
-        <v>1.05674188849784</v>
+        <v>1.023124191461099</v>
       </c>
       <c r="M9">
-        <v>1.06125204648514</v>
+        <v>1.028537044298356</v>
       </c>
       <c r="N9">
-        <v>1.052809770912177</v>
+        <v>1.009812666937846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006647840107933</v>
+        <v>0.9843354558140471</v>
       </c>
       <c r="D10">
-        <v>1.025031691388282</v>
+        <v>1.007541167254471</v>
       </c>
       <c r="E10">
-        <v>1.025356353231659</v>
+        <v>1.003036133276141</v>
       </c>
       <c r="F10">
-        <v>1.03029554969317</v>
+        <v>1.007957253139335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043312971420795</v>
+        <v>1.042537576024834</v>
       </c>
       <c r="J10">
-        <v>1.03460016166841</v>
+        <v>1.013184658954022</v>
       </c>
       <c r="K10">
-        <v>1.038963235353113</v>
+        <v>1.021775585547229</v>
       </c>
       <c r="L10">
-        <v>1.039282401248848</v>
+        <v>1.017350784927731</v>
       </c>
       <c r="M10">
-        <v>1.044138536370987</v>
+        <v>1.022184307987279</v>
       </c>
       <c r="N10">
-        <v>1.036069412568276</v>
+        <v>1.008220212780002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9973585377332066</v>
+        <v>0.9808750805920946</v>
       </c>
       <c r="D11">
-        <v>1.017443939896022</v>
+        <v>1.004957651885414</v>
       </c>
       <c r="E11">
-        <v>1.016568635144653</v>
+        <v>0.9998517012057789</v>
       </c>
       <c r="F11">
-        <v>1.021677130894118</v>
+        <v>1.00451447106992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039916741569488</v>
+        <v>1.041423764024956</v>
       </c>
       <c r="J11">
-        <v>1.026841618997868</v>
+        <v>1.011065704740864</v>
       </c>
       <c r="K11">
-        <v>1.032044219989251</v>
+        <v>1.01978667587521</v>
       </c>
       <c r="L11">
-        <v>1.031184712351858</v>
+        <v>1.014776414766778</v>
       </c>
       <c r="M11">
-        <v>1.03620150815174</v>
+        <v>1.019351750316248</v>
       </c>
       <c r="N11">
-        <v>1.028299851877226</v>
+        <v>1.007509025187979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938007947472038</v>
+        <v>0.9795737359593804</v>
       </c>
       <c r="D12">
-        <v>1.014539801975126</v>
+        <v>1.003986481478218</v>
       </c>
       <c r="E12">
-        <v>1.013205408728714</v>
+        <v>0.998655380763377</v>
       </c>
       <c r="F12">
-        <v>1.018378937229227</v>
+        <v>1.003220903675588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038613798724547</v>
+        <v>1.041002461953194</v>
       </c>
       <c r="J12">
-        <v>1.023869853201442</v>
+        <v>1.010268455321308</v>
       </c>
       <c r="K12">
-        <v>1.029393644972338</v>
+        <v>1.019037703258007</v>
       </c>
       <c r="L12">
-        <v>1.028083912822561</v>
+        <v>1.013808386974438</v>
       </c>
       <c r="M12">
-        <v>1.033162297896745</v>
+        <v>1.018286655321051</v>
       </c>
       <c r="N12">
-        <v>1.025323865832501</v>
+        <v>1.007241440152549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.994569063528714</v>
+        <v>0.9798536182095492</v>
       </c>
       <c r="D13">
-        <v>1.015166834806809</v>
+        <v>1.004195332459856</v>
       </c>
       <c r="E13">
-        <v>1.013931558577198</v>
+        <v>0.9989126178992865</v>
       </c>
       <c r="F13">
-        <v>1.01909103410993</v>
+        <v>1.003499060003574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038895254316497</v>
+        <v>1.041093180687878</v>
       </c>
       <c r="J13">
-        <v>1.024511593152998</v>
+        <v>1.010439937065811</v>
       </c>
       <c r="K13">
-        <v>1.029966040315452</v>
+        <v>1.019198830100511</v>
       </c>
       <c r="L13">
-        <v>1.028753477447093</v>
+        <v>1.014016576081517</v>
       </c>
       <c r="M13">
-        <v>1.033818559578498</v>
+        <v>1.018515719448102</v>
       </c>
       <c r="N13">
-        <v>1.025966517128398</v>
+        <v>1.007298995544702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9970667367065634</v>
+        <v>0.9807678429718788</v>
       </c>
       <c r="D14">
-        <v>1.017205704941906</v>
+        <v>1.00487761341585</v>
       </c>
       <c r="E14">
-        <v>1.016292737304061</v>
+        <v>0.9997530923966891</v>
       </c>
       <c r="F14">
-        <v>1.021406562725931</v>
+        <v>1.004407850452782</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039809918901484</v>
+        <v>1.041389095496186</v>
       </c>
       <c r="J14">
-        <v>1.026597883314625</v>
+        <v>1.011000014504085</v>
       </c>
       <c r="K14">
-        <v>1.031826834404496</v>
+        <v>1.019724976557153</v>
       </c>
       <c r="L14">
-        <v>1.030930375976141</v>
+        <v>1.014696641512017</v>
       </c>
       <c r="M14">
-        <v>1.035952221869553</v>
+        <v>1.0192639775999</v>
       </c>
       <c r="N14">
-        <v>1.028055770061355</v>
+        <v>1.007486977263859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9985909355801733</v>
+        <v>0.981328978120573</v>
       </c>
       <c r="D15">
-        <v>1.018450186391086</v>
+        <v>1.005296442771288</v>
       </c>
       <c r="E15">
-        <v>1.017733966810504</v>
+        <v>1.000269127418511</v>
       </c>
       <c r="F15">
-        <v>1.022819961234623</v>
+        <v>1.00496580465554</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040367810834731</v>
+        <v>1.041570404587229</v>
       </c>
       <c r="J15">
-        <v>1.027871006503821</v>
+        <v>1.011343732509989</v>
       </c>
       <c r="K15">
-        <v>1.032962306576383</v>
+        <v>1.020047786043133</v>
       </c>
       <c r="L15">
-        <v>1.032258905897079</v>
+        <v>1.015114070784147</v>
       </c>
       <c r="M15">
-        <v>1.037254375568734</v>
+        <v>1.019723266339112</v>
       </c>
       <c r="N15">
-        <v>1.029330701231508</v>
+        <v>1.007602340860418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007250153191517</v>
+        <v>0.9845629151528456</v>
       </c>
       <c r="D16">
-        <v>1.025523913163323</v>
+        <v>1.007711040584794</v>
       </c>
       <c r="E16">
-        <v>1.025926454336005</v>
+        <v>1.003245624363766</v>
       </c>
       <c r="F16">
-        <v>1.030854696690949</v>
+        <v>1.008183714237537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043532864432292</v>
+        <v>1.042610449036388</v>
       </c>
       <c r="J16">
-        <v>1.035103166785374</v>
+        <v>1.013323888740816</v>
       </c>
       <c r="K16">
-        <v>1.039411755402822</v>
+        <v>1.021906178804449</v>
       </c>
       <c r="L16">
-        <v>1.039807511232432</v>
+        <v>1.017520018052979</v>
       </c>
       <c r="M16">
-        <v>1.044653235096288</v>
+        <v>1.022370516373958</v>
       </c>
       <c r="N16">
-        <v>1.036573132010202</v>
+        <v>1.00826694200261</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012507041005571</v>
+        <v>0.9865639327996411</v>
       </c>
       <c r="D17">
-        <v>1.029821079642977</v>
+        <v>1.009205714140213</v>
       </c>
       <c r="E17">
-        <v>1.030903783569073</v>
+        <v>1.005089481858376</v>
       </c>
       <c r="F17">
-        <v>1.035736528850453</v>
+        <v>1.010176797900466</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045450242891854</v>
+        <v>1.043249646527628</v>
       </c>
       <c r="J17">
-        <v>1.03949293372454</v>
+        <v>1.014548414055986</v>
       </c>
       <c r="K17">
-        <v>1.043325688426556</v>
+        <v>1.023054236416326</v>
       </c>
       <c r="L17">
-        <v>1.044390818460343</v>
+        <v>1.019008858638375</v>
       </c>
       <c r="M17">
-        <v>1.049145695622297</v>
+        <v>1.024008713235512</v>
       </c>
       <c r="N17">
-        <v>1.040969132921935</v>
+        <v>1.008677920174631</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015514712206616</v>
+        <v>0.9877214483833233</v>
       </c>
       <c r="D18">
-        <v>1.032280533896142</v>
+        <v>1.010070525415433</v>
       </c>
       <c r="E18">
-        <v>1.033752774831605</v>
+        <v>1.006156836382444</v>
       </c>
       <c r="F18">
-        <v>1.038530964693486</v>
+        <v>1.011330422607001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046545702903886</v>
+        <v>1.043617816141557</v>
       </c>
       <c r="J18">
-        <v>1.042004139456651</v>
+        <v>1.015256486827499</v>
       </c>
       <c r="K18">
-        <v>1.045564393393926</v>
+        <v>1.0237176634783</v>
       </c>
       <c r="L18">
-        <v>1.047013260195857</v>
+        <v>1.019870134402125</v>
       </c>
       <c r="M18">
-        <v>1.051716172791654</v>
+        <v>1.024956402866474</v>
       </c>
       <c r="N18">
-        <v>1.043483904854225</v>
+        <v>1.008915560288701</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016530698850687</v>
+        <v>0.9881145214469363</v>
       </c>
       <c r="D19">
-        <v>1.033111470917027</v>
+        <v>1.010364231787837</v>
       </c>
       <c r="E19">
-        <v>1.034715366172177</v>
+        <v>1.006519417942402</v>
       </c>
       <c r="F19">
-        <v>1.039475139876279</v>
+        <v>1.011722291507408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046915478024209</v>
+        <v>1.043742569892881</v>
       </c>
       <c r="J19">
-        <v>1.042852354765996</v>
+        <v>1.015496889276579</v>
       </c>
       <c r="K19">
-        <v>1.046320512916385</v>
+        <v>1.023942834485744</v>
       </c>
       <c r="L19">
-        <v>1.047899135445371</v>
+        <v>1.020162613875092</v>
       </c>
       <c r="M19">
-        <v>1.052584495728651</v>
+        <v>1.025278229813319</v>
       </c>
       <c r="N19">
-        <v>1.044333324726601</v>
+        <v>1.008996242072829</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011949179638198</v>
+        <v>0.9863502463111612</v>
       </c>
       <c r="D20">
-        <v>1.029364969747141</v>
+        <v>1.009046078486054</v>
       </c>
       <c r="E20">
-        <v>1.030375454985757</v>
+        <v>1.00489250009006</v>
       </c>
       <c r="F20">
-        <v>1.035218325526235</v>
+        <v>1.009963885843131</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045246930019097</v>
+        <v>1.043181551072089</v>
       </c>
       <c r="J20">
-        <v>1.039027126372881</v>
+        <v>1.014417676045748</v>
       </c>
       <c r="K20">
-        <v>1.042910403017128</v>
+        <v>1.02293170690394</v>
       </c>
       <c r="L20">
-        <v>1.043904419854979</v>
+        <v>1.018849862880454</v>
       </c>
       <c r="M20">
-        <v>1.048668936174482</v>
+        <v>1.023833766130807</v>
       </c>
       <c r="N20">
-        <v>1.040502664070408</v>
+        <v>1.008634042052626</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9963343272499029</v>
+        <v>0.9804990759381634</v>
       </c>
       <c r="D21">
-        <v>1.016607776765917</v>
+        <v>1.004677021922802</v>
       </c>
       <c r="E21">
-        <v>1.015600284113451</v>
+        <v>0.9995059718697461</v>
       </c>
       <c r="F21">
-        <v>1.02072749008868</v>
+        <v>1.004140648667746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039541763692942</v>
+        <v>1.041302167709388</v>
       </c>
       <c r="J21">
-        <v>1.025986112263305</v>
+        <v>1.010835370822552</v>
       </c>
       <c r="K21">
-        <v>1.031281195855525</v>
+        <v>1.019570325160311</v>
       </c>
       <c r="L21">
-        <v>1.030292011457167</v>
+        <v>1.014496709814082</v>
       </c>
       <c r="M21">
-        <v>1.035326533935865</v>
+        <v>1.019043997530593</v>
       </c>
       <c r="N21">
-        <v>1.027443130224971</v>
+        <v>1.007431717093513</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9858862266186225</v>
+        <v>0.9767271085294902</v>
       </c>
       <c r="D22">
-        <v>1.008083394294081</v>
+        <v>1.001862958340541</v>
       </c>
       <c r="E22">
-        <v>1.005728456483441</v>
+        <v>0.9960408516914058</v>
       </c>
       <c r="F22">
-        <v>1.011047082661928</v>
+        <v>1.000393480209176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035711524864701</v>
+        <v>1.040076494516667</v>
       </c>
       <c r="J22">
-        <v>1.017258634174292</v>
+        <v>1.00852388137799</v>
       </c>
       <c r="K22">
-        <v>1.023496400550505</v>
+        <v>1.017397599781078</v>
       </c>
       <c r="L22">
-        <v>1.021187279336529</v>
+        <v>1.011691150216337</v>
       </c>
       <c r="M22">
-        <v>1.026402825975195</v>
+        <v>1.015957146207817</v>
       </c>
       <c r="N22">
-        <v>1.018703258116016</v>
+        <v>1.006655898819697</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.991490421394003</v>
+        <v>0.978735840556149</v>
       </c>
       <c r="D23">
-        <v>1.012654481397877</v>
+        <v>1.003361303202591</v>
       </c>
       <c r="E23">
-        <v>1.011022079611116</v>
+        <v>0.9978854666185729</v>
       </c>
       <c r="F23">
-        <v>1.016237901727176</v>
+        <v>1.00238834927043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037767092783497</v>
+        <v>1.0407305228459</v>
       </c>
       <c r="J23">
-        <v>1.021939962360986</v>
+        <v>1.00975503234561</v>
       </c>
       <c r="K23">
-        <v>1.027672246191994</v>
+        <v>1.018555189701398</v>
       </c>
       <c r="L23">
-        <v>1.026070475050257</v>
+        <v>1.013185143773123</v>
       </c>
       <c r="M23">
-        <v>1.031188876713866</v>
+        <v>1.017600922222585</v>
       </c>
       <c r="N23">
-        <v>1.023391234325691</v>
+        <v>1.007069116971721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012201433164071</v>
+        <v>0.9864468317753472</v>
       </c>
       <c r="D24">
-        <v>1.029571210633133</v>
+        <v>1.009118232577876</v>
       </c>
       <c r="E24">
-        <v>1.030614350466713</v>
+        <v>1.004981532762744</v>
       </c>
       <c r="F24">
-        <v>1.035452642319344</v>
+        <v>1.010060119104522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045338868790489</v>
+        <v>1.043212334867602</v>
       </c>
       <c r="J24">
-        <v>1.039237756064637</v>
+        <v>1.014476769961612</v>
       </c>
       <c r="K24">
-        <v>1.043098188524818</v>
+        <v>1.022987091889682</v>
       </c>
       <c r="L24">
-        <v>1.04412435892373</v>
+        <v>1.018921728239245</v>
       </c>
       <c r="M24">
-        <v>1.048884516576678</v>
+        <v>1.023912841384841</v>
       </c>
       <c r="N24">
-        <v>1.040713592880485</v>
+        <v>1.00865387509211</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033964574004116</v>
+        <v>0.9950193126955122</v>
       </c>
       <c r="D25">
-        <v>1.047379448999677</v>
+        <v>1.015525655964449</v>
       </c>
       <c r="E25">
-        <v>1.051248953012118</v>
+        <v>1.012899114773458</v>
       </c>
       <c r="F25">
-        <v>1.055693526577991</v>
+        <v>1.018615753341058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053236506698479</v>
+        <v>1.045910255084556</v>
       </c>
       <c r="J25">
-        <v>1.057400572360874</v>
+        <v>1.019715467372768</v>
       </c>
       <c r="K25">
-        <v>1.059284232275072</v>
+        <v>1.0278876438188</v>
       </c>
       <c r="L25">
-        <v>1.063100573909886</v>
+        <v>1.025300435114183</v>
       </c>
       <c r="M25">
-        <v>1.067484689246709</v>
+        <v>1.030931797001897</v>
       </c>
       <c r="N25">
-        <v>1.058902202459167</v>
+        <v>1.010411934082984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001583150274342</v>
+        <v>1.032015776714196</v>
       </c>
       <c r="D2">
-        <v>1.020434636716236</v>
+        <v>1.035866392573799</v>
       </c>
       <c r="E2">
-        <v>1.018982697032234</v>
+        <v>1.045687926806673</v>
       </c>
       <c r="F2">
-        <v>1.02518652318144</v>
+        <v>1.053467506576291</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047924820790357</v>
+        <v>1.035366852227118</v>
       </c>
       <c r="J2">
-        <v>1.023716612478069</v>
+        <v>1.037148321012233</v>
       </c>
       <c r="K2">
-        <v>1.031616440068589</v>
+        <v>1.038661770439816</v>
       </c>
       <c r="L2">
-        <v>1.030183758631566</v>
+        <v>1.048455465856699</v>
       </c>
       <c r="M2">
-        <v>1.036305776377613</v>
+        <v>1.056213394052302</v>
       </c>
       <c r="N2">
-        <v>1.011754370244767</v>
+        <v>1.016353281504802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006203571155206</v>
+        <v>1.032984689000636</v>
       </c>
       <c r="D3">
-        <v>1.023890493176913</v>
+        <v>1.036593769848524</v>
       </c>
       <c r="E3">
-        <v>1.023276517453452</v>
+        <v>1.046644822169625</v>
       </c>
       <c r="F3">
-        <v>1.029822596836393</v>
+        <v>1.054502041919094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049312214906055</v>
+        <v>1.035567820689132</v>
       </c>
       <c r="J3">
-        <v>1.026526537403816</v>
+        <v>1.037759252080038</v>
       </c>
       <c r="K3">
-        <v>1.034226550525906</v>
+        <v>1.039198849257479</v>
       </c>
       <c r="L3">
-        <v>1.033619987528971</v>
+        <v>1.049223473795543</v>
       </c>
       <c r="M3">
-        <v>1.040087598339551</v>
+        <v>1.057060412660611</v>
       </c>
       <c r="N3">
-        <v>1.012696886332835</v>
+        <v>1.016556932610429</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009129931939757</v>
+        <v>1.033611848989776</v>
       </c>
       <c r="D4">
-        <v>1.02607900266466</v>
+        <v>1.037064176104779</v>
       </c>
       <c r="E4">
-        <v>1.026001088491626</v>
+        <v>1.047264538805189</v>
       </c>
       <c r="F4">
-        <v>1.032763647356579</v>
+        <v>1.055171996345113</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050176366423136</v>
+        <v>1.035696099101795</v>
       </c>
       <c r="J4">
-        <v>1.028302941756108</v>
+        <v>1.038154176128475</v>
       </c>
       <c r="K4">
-        <v>1.03587254491746</v>
+        <v>1.039545452585946</v>
       </c>
       <c r="L4">
-        <v>1.035795513154172</v>
+        <v>1.049720346485992</v>
       </c>
       <c r="M4">
-        <v>1.042482093356131</v>
+        <v>1.057608424677989</v>
       </c>
       <c r="N4">
-        <v>1.013292596563519</v>
+        <v>1.016688533721792</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010345558099649</v>
+        <v>1.033875556480089</v>
       </c>
       <c r="D5">
-        <v>1.026987996594164</v>
+        <v>1.037261872561194</v>
       </c>
       <c r="E5">
-        <v>1.027134071711441</v>
+        <v>1.047525196342901</v>
       </c>
       <c r="F5">
-        <v>1.033986492601927</v>
+        <v>1.055453773783258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050531793771571</v>
+        <v>1.035749605028806</v>
       </c>
       <c r="J5">
-        <v>1.029040050723779</v>
+        <v>1.038320108311775</v>
       </c>
       <c r="K5">
-        <v>1.03655453960975</v>
+        <v>1.039690942894676</v>
       </c>
       <c r="L5">
-        <v>1.036699005546326</v>
+        <v>1.049929211851236</v>
       </c>
       <c r="M5">
-        <v>1.043476566181655</v>
+        <v>1.057838792367596</v>
       </c>
       <c r="N5">
-        <v>1.013539746667486</v>
+        <v>1.016743816705194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010548825530285</v>
+        <v>1.033919837009535</v>
       </c>
       <c r="D6">
-        <v>1.027139982352286</v>
+        <v>1.03729506297668</v>
       </c>
       <c r="E6">
-        <v>1.027323588762105</v>
+        <v>1.047568969408113</v>
       </c>
       <c r="F6">
-        <v>1.034191031991286</v>
+        <v>1.055501092970104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050591015566057</v>
+        <v>1.035758564127485</v>
       </c>
       <c r="J6">
-        <v>1.029163255157917</v>
+        <v>1.038347963529234</v>
       </c>
       <c r="K6">
-        <v>1.036668472475502</v>
+        <v>1.039715358330136</v>
       </c>
       <c r="L6">
-        <v>1.036850065736275</v>
+        <v>1.049964280073794</v>
       </c>
       <c r="M6">
-        <v>1.043642840500538</v>
+        <v>1.057877471120566</v>
       </c>
       <c r="N6">
-        <v>1.013581054449384</v>
+        <v>1.016753096482955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009146231915568</v>
+        <v>1.033615372468678</v>
       </c>
       <c r="D7">
-        <v>1.026091191669393</v>
+        <v>1.037066817980917</v>
       </c>
       <c r="E7">
-        <v>1.026016275706817</v>
+        <v>1.047268021219581</v>
       </c>
       <c r="F7">
-        <v>1.032780039755502</v>
+        <v>1.055175760964853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050181146323023</v>
+        <v>1.035696815710767</v>
       </c>
       <c r="J7">
-        <v>1.028312828714985</v>
+        <v>1.038156393692236</v>
       </c>
       <c r="K7">
-        <v>1.0358816966049</v>
+        <v>1.039547397506914</v>
       </c>
       <c r="L7">
-        <v>1.035807628785016</v>
+        <v>1.049723137434492</v>
       </c>
       <c r="M7">
-        <v>1.042495428842372</v>
+        <v>1.057611502928475</v>
       </c>
       <c r="N7">
-        <v>1.013295911775465</v>
+        <v>1.016689272581597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003158104498843</v>
+        <v>1.032343181537331</v>
       </c>
       <c r="D8">
-        <v>1.021612647417392</v>
+        <v>1.036112265325494</v>
       </c>
       <c r="E8">
-        <v>1.020445240183806</v>
+        <v>1.046011201422633</v>
       </c>
       <c r="F8">
-        <v>1.026765792656713</v>
+        <v>1.053817020111091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048400761746624</v>
+        <v>1.035435134866173</v>
       </c>
       <c r="J8">
-        <v>1.024675091811231</v>
+        <v>1.03735486818808</v>
       </c>
       <c r="K8">
-        <v>1.032507608419648</v>
+        <v>1.038843469249792</v>
       </c>
       <c r="L8">
-        <v>1.031355210183564</v>
+        <v>1.048715033773132</v>
       </c>
       <c r="M8">
-        <v>1.037595010475161</v>
+        <v>1.056499661046137</v>
       </c>
       <c r="N8">
-        <v>1.012075894177698</v>
+        <v>1.016422142367222</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9920946016812959</v>
+        <v>1.030103044668473</v>
       </c>
       <c r="D9">
-        <v>1.013338955915171</v>
+        <v>1.034428316222941</v>
       </c>
       <c r="E9">
-        <v>1.010194373600981</v>
+        <v>1.043800711433209</v>
       </c>
       <c r="F9">
-        <v>1.015693554256139</v>
+        <v>1.051426926570699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044997734596764</v>
+        <v>1.034960553286086</v>
       </c>
       <c r="J9">
-        <v>1.017929642015159</v>
+        <v>1.035939528047279</v>
       </c>
       <c r="K9">
-        <v>1.026219262431398</v>
+        <v>1.037596029573687</v>
       </c>
       <c r="L9">
-        <v>1.023124191461099</v>
+        <v>1.046938050521128</v>
       </c>
       <c r="M9">
-        <v>1.028537044298356</v>
+        <v>1.054539987557991</v>
       </c>
       <c r="N9">
-        <v>1.009812666937846</v>
+        <v>1.015950098649647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9843354558140471</v>
+        <v>1.028610745870965</v>
       </c>
       <c r="D10">
-        <v>1.007541167254471</v>
+        <v>1.033304470099812</v>
       </c>
       <c r="E10">
-        <v>1.003036133276141</v>
+        <v>1.042329919969096</v>
       </c>
       <c r="F10">
-        <v>1.007957253139335</v>
+        <v>1.049836392600357</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042537576024834</v>
+        <v>1.034635144762088</v>
       </c>
       <c r="J10">
-        <v>1.013184658954022</v>
+        <v>1.034994025078907</v>
       </c>
       <c r="K10">
-        <v>1.021775585547229</v>
+        <v>1.036759727210831</v>
       </c>
       <c r="L10">
-        <v>1.017350784927731</v>
+        <v>1.045753053894744</v>
       </c>
       <c r="M10">
-        <v>1.022184307987279</v>
+        <v>1.053233273009624</v>
       </c>
       <c r="N10">
-        <v>1.008220212780002</v>
+        <v>1.015634527455861</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9808750805920946</v>
+        <v>1.027964837150423</v>
       </c>
       <c r="D11">
-        <v>1.004957651885414</v>
+        <v>1.032817558321574</v>
       </c>
       <c r="E11">
-        <v>0.9998517012057789</v>
+        <v>1.041693742064922</v>
       </c>
       <c r="F11">
-        <v>1.00451447106992</v>
+        <v>1.049148362528585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041423764024956</v>
+        <v>1.034492106369851</v>
       </c>
       <c r="J11">
-        <v>1.011065704740864</v>
+        <v>1.034584159081206</v>
       </c>
       <c r="K11">
-        <v>1.01978667587521</v>
+        <v>1.036396499951994</v>
       </c>
       <c r="L11">
-        <v>1.014776414766778</v>
+        <v>1.045239865520509</v>
       </c>
       <c r="M11">
-        <v>1.019351750316248</v>
+        <v>1.052667397662469</v>
       </c>
       <c r="N11">
-        <v>1.007509025187979</v>
+        <v>1.015497677292472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9795737359593804</v>
+        <v>1.027724958336528</v>
       </c>
       <c r="D12">
-        <v>1.003986481478218</v>
+        <v>1.032636656749012</v>
       </c>
       <c r="E12">
-        <v>0.998655380763377</v>
+        <v>1.041457540897993</v>
       </c>
       <c r="F12">
-        <v>1.003220903675588</v>
+        <v>1.048892900656784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041002461953194</v>
+        <v>1.034438655365709</v>
       </c>
       <c r="J12">
-        <v>1.010268455321308</v>
+        <v>1.034431848534576</v>
       </c>
       <c r="K12">
-        <v>1.019037703258007</v>
+        <v>1.036261416230448</v>
       </c>
       <c r="L12">
-        <v>1.013808386974438</v>
+        <v>1.045049233610237</v>
       </c>
       <c r="M12">
-        <v>1.018286655321051</v>
+        <v>1.052457198139214</v>
       </c>
       <c r="N12">
-        <v>1.007241440152549</v>
+        <v>1.01544681438099</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9798536182095492</v>
+        <v>1.027776411319722</v>
       </c>
       <c r="D13">
-        <v>1.004195332459856</v>
+        <v>1.032675462582433</v>
       </c>
       <c r="E13">
-        <v>0.9989126178992865</v>
+        <v>1.041508202147799</v>
       </c>
       <c r="F13">
-        <v>1.003499060003574</v>
+        <v>1.048947693416955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041093180687878</v>
+        <v>1.034450135268429</v>
       </c>
       <c r="J13">
-        <v>1.010439937065811</v>
+        <v>1.034464522734542</v>
       </c>
       <c r="K13">
-        <v>1.019198830100511</v>
+        <v>1.036290399599527</v>
       </c>
       <c r="L13">
-        <v>1.014016576081517</v>
+        <v>1.045090125284508</v>
       </c>
       <c r="M13">
-        <v>1.018515719448102</v>
+        <v>1.052502287011589</v>
       </c>
       <c r="N13">
-        <v>1.007298995544702</v>
+        <v>1.015457726032014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9807678429718788</v>
+        <v>1.027945007865449</v>
       </c>
       <c r="D14">
-        <v>1.00487761341585</v>
+        <v>1.032802605768561</v>
       </c>
       <c r="E14">
-        <v>0.9997530923966891</v>
+        <v>1.041674215484129</v>
       </c>
       <c r="F14">
-        <v>1.004407850452782</v>
+        <v>1.049127243862541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041389095496186</v>
+        <v>1.034487694621877</v>
       </c>
       <c r="J14">
-        <v>1.011000014504085</v>
+        <v>1.034571570429029</v>
       </c>
       <c r="K14">
-        <v>1.019724976557153</v>
+        <v>1.036385337249989</v>
       </c>
       <c r="L14">
-        <v>1.014696641512017</v>
+        <v>1.04522410804578</v>
       </c>
       <c r="M14">
-        <v>1.0192639775999</v>
+        <v>1.052650022668088</v>
       </c>
       <c r="N14">
-        <v>1.007486977263859</v>
+        <v>1.015493473572538</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.981328978120573</v>
+        <v>1.028048891132995</v>
       </c>
       <c r="D15">
-        <v>1.005296442771288</v>
+        <v>1.03288093749917</v>
       </c>
       <c r="E15">
-        <v>1.000269127418511</v>
+        <v>1.041776515535781</v>
       </c>
       <c r="F15">
-        <v>1.00496580465554</v>
+        <v>1.049237884505513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041570404587229</v>
+        <v>1.034510793767151</v>
       </c>
       <c r="J15">
-        <v>1.011343732509989</v>
+        <v>1.034637517044833</v>
       </c>
       <c r="K15">
-        <v>1.020047786043133</v>
+        <v>1.036443809635062</v>
       </c>
       <c r="L15">
-        <v>1.015114070784147</v>
+        <v>1.045306657822927</v>
       </c>
       <c r="M15">
-        <v>1.019723266339112</v>
+        <v>1.052741046412808</v>
       </c>
       <c r="N15">
-        <v>1.007602340860418</v>
+        <v>1.015515494755629</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9845629151528456</v>
+        <v>1.028653618354985</v>
       </c>
       <c r="D16">
-        <v>1.007711040584794</v>
+        <v>1.033336779043256</v>
       </c>
       <c r="E16">
-        <v>1.003245624363766</v>
+        <v>1.042372155490896</v>
       </c>
       <c r="F16">
-        <v>1.008183714237537</v>
+        <v>1.049882069313283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042610449036388</v>
+        <v>1.034644592822267</v>
       </c>
       <c r="J16">
-        <v>1.013323888740816</v>
+        <v>1.03502121695776</v>
       </c>
       <c r="K16">
-        <v>1.021906178804449</v>
+        <v>1.036783810235989</v>
       </c>
       <c r="L16">
-        <v>1.017520018052979</v>
+        <v>1.045787110951806</v>
       </c>
       <c r="M16">
-        <v>1.022370516373958</v>
+        <v>1.053270827101713</v>
       </c>
       <c r="N16">
-        <v>1.00826694200261</v>
+        <v>1.015643605436405</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9865639327996411</v>
+        <v>1.029033019401465</v>
       </c>
       <c r="D17">
-        <v>1.009205714140213</v>
+        <v>1.033622642454967</v>
       </c>
       <c r="E17">
-        <v>1.005089481858376</v>
+        <v>1.042745968520485</v>
       </c>
       <c r="F17">
-        <v>1.010176797900466</v>
+        <v>1.050286332428173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043249646527628</v>
+        <v>1.034727950351608</v>
       </c>
       <c r="J17">
-        <v>1.014548414055986</v>
+        <v>1.03526177984803</v>
       </c>
       <c r="K17">
-        <v>1.023054236416326</v>
+        <v>1.036996788899292</v>
       </c>
       <c r="L17">
-        <v>1.019008858638375</v>
+        <v>1.046088466362362</v>
       </c>
       <c r="M17">
-        <v>1.024008713235512</v>
+        <v>1.053603129135598</v>
       </c>
       <c r="N17">
-        <v>1.008677920174631</v>
+        <v>1.015723910968678</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9877214483833233</v>
+        <v>1.0292543432998</v>
       </c>
       <c r="D18">
-        <v>1.010070525415433</v>
+        <v>1.033789354757509</v>
       </c>
       <c r="E18">
-        <v>1.006156836382444</v>
+        <v>1.04296407332802</v>
       </c>
       <c r="F18">
-        <v>1.011330422607001</v>
+        <v>1.050522197982801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043617816141557</v>
+        <v>1.034776365421543</v>
       </c>
       <c r="J18">
-        <v>1.015256486827499</v>
+        <v>1.035402051981272</v>
       </c>
       <c r="K18">
-        <v>1.0237176634783</v>
+        <v>1.037120909295003</v>
       </c>
       <c r="L18">
-        <v>1.019870134402125</v>
+        <v>1.046264234399001</v>
       </c>
       <c r="M18">
-        <v>1.024956402866474</v>
+        <v>1.053796949519793</v>
       </c>
       <c r="N18">
-        <v>1.008915560288701</v>
+        <v>1.015770731958359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9881145214469363</v>
+        <v>1.02932981337425</v>
       </c>
       <c r="D19">
-        <v>1.010364231787837</v>
+        <v>1.033846194734383</v>
       </c>
       <c r="E19">
-        <v>1.006519417942402</v>
+        <v>1.043038452600239</v>
       </c>
       <c r="F19">
-        <v>1.011722291507408</v>
+        <v>1.050602633166707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043742569892881</v>
+        <v>1.034792838758885</v>
       </c>
       <c r="J19">
-        <v>1.015496889276579</v>
+        <v>1.035449873650464</v>
       </c>
       <c r="K19">
-        <v>1.023942834485744</v>
+        <v>1.037163213063113</v>
       </c>
       <c r="L19">
-        <v>1.020162613875092</v>
+        <v>1.046324165468727</v>
       </c>
       <c r="M19">
-        <v>1.025278229813319</v>
+        <v>1.053863036262335</v>
       </c>
       <c r="N19">
-        <v>1.008996242072829</v>
+        <v>1.015786693328354</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9863502463111612</v>
+        <v>1.028992310599868</v>
       </c>
       <c r="D20">
-        <v>1.009046078486054</v>
+        <v>1.033591974800186</v>
       </c>
       <c r="E20">
-        <v>1.00489250009006</v>
+        <v>1.042705855088495</v>
       </c>
       <c r="F20">
-        <v>1.009963885843131</v>
+        <v>1.050242952018883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043181551072089</v>
+        <v>1.034719028178141</v>
       </c>
       <c r="J20">
-        <v>1.014417676045748</v>
+        <v>1.035235974286892</v>
       </c>
       <c r="K20">
-        <v>1.02293170690394</v>
+        <v>1.036973949310086</v>
       </c>
       <c r="L20">
-        <v>1.018849862880454</v>
+        <v>1.04605613454714</v>
       </c>
       <c r="M20">
-        <v>1.023833766130807</v>
+        <v>1.053567476864005</v>
       </c>
       <c r="N20">
-        <v>1.008634042052626</v>
+        <v>1.015715296998388</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9804990759381634</v>
+        <v>1.027895359265188</v>
       </c>
       <c r="D21">
-        <v>1.004677021922802</v>
+        <v>1.03276516638864</v>
       </c>
       <c r="E21">
-        <v>0.9995059718697461</v>
+        <v>1.041625325827228</v>
       </c>
       <c r="F21">
-        <v>1.004140648667746</v>
+        <v>1.049074367878757</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041302167709388</v>
+        <v>1.034476643162978</v>
       </c>
       <c r="J21">
-        <v>1.010835370822552</v>
+        <v>1.034540049425325</v>
       </c>
       <c r="K21">
-        <v>1.019570325160311</v>
+        <v>1.036357385025545</v>
       </c>
       <c r="L21">
-        <v>1.014496709814082</v>
+        <v>1.045184653757477</v>
       </c>
       <c r="M21">
-        <v>1.019043997530593</v>
+        <v>1.052606518420953</v>
       </c>
       <c r="N21">
-        <v>1.007431717093513</v>
+        <v>1.015482947657452</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9767271085294902</v>
+        <v>1.027205896620537</v>
       </c>
       <c r="D22">
-        <v>1.001862958340541</v>
+        <v>1.032245083249393</v>
       </c>
       <c r="E22">
-        <v>0.9960408516914058</v>
+        <v>1.040946554171653</v>
       </c>
       <c r="F22">
-        <v>1.000393480209176</v>
+        <v>1.048340229692625</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040076494516667</v>
+        <v>1.034322393879862</v>
       </c>
       <c r="J22">
-        <v>1.00852388137799</v>
+        <v>1.034102100326145</v>
       </c>
       <c r="K22">
-        <v>1.017397599781078</v>
+        <v>1.035968772631807</v>
       </c>
       <c r="L22">
-        <v>1.011691150216337</v>
+        <v>1.044636656472889</v>
       </c>
       <c r="M22">
-        <v>1.015957146207817</v>
+        <v>1.052002278467401</v>
       </c>
       <c r="N22">
-        <v>1.006655898819697</v>
+        <v>1.015336683092389</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.978735840556149</v>
+        <v>1.027571371479126</v>
       </c>
       <c r="D23">
-        <v>1.003361303202591</v>
+        <v>1.032520811168687</v>
       </c>
       <c r="E23">
-        <v>0.9978854666185729</v>
+        <v>1.041306326733805</v>
       </c>
       <c r="F23">
-        <v>1.00238834927043</v>
+        <v>1.048729353401353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0407305228459</v>
+        <v>1.034404339749339</v>
       </c>
       <c r="J23">
-        <v>1.00975503234561</v>
+        <v>1.034334302534636</v>
       </c>
       <c r="K23">
-        <v>1.018555189701398</v>
+        <v>1.036174873592328</v>
       </c>
       <c r="L23">
-        <v>1.013185143773123</v>
+        <v>1.044927165923385</v>
       </c>
       <c r="M23">
-        <v>1.017600922222585</v>
+        <v>1.052322601747604</v>
       </c>
       <c r="N23">
-        <v>1.007069116971721</v>
+        <v>1.015414237431475</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9864468317753472</v>
+        <v>1.029010705075593</v>
       </c>
       <c r="D24">
-        <v>1.009118232577876</v>
+        <v>1.033605832276763</v>
       </c>
       <c r="E24">
-        <v>1.004981532762744</v>
+        <v>1.042723980417857</v>
       </c>
       <c r="F24">
-        <v>1.010060119104522</v>
+        <v>1.050262553555479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043212334867602</v>
+        <v>1.034723060360694</v>
       </c>
       <c r="J24">
-        <v>1.014476769961612</v>
+        <v>1.035247634845541</v>
       </c>
       <c r="K24">
-        <v>1.022987091889682</v>
+        <v>1.036984269866281</v>
       </c>
       <c r="L24">
-        <v>1.018921728239245</v>
+        <v>1.046070743925832</v>
       </c>
       <c r="M24">
-        <v>1.023912841384841</v>
+        <v>1.053583586608724</v>
       </c>
       <c r="N24">
-        <v>1.00865387509211</v>
+        <v>1.015719189342176</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9950193126955122</v>
+        <v>1.030681977695436</v>
       </c>
       <c r="D25">
-        <v>1.015525655964449</v>
+        <v>1.034863876228348</v>
       </c>
       <c r="E25">
-        <v>1.012899114773458</v>
+        <v>1.04437167438088</v>
       </c>
       <c r="F25">
-        <v>1.018615753341058</v>
+        <v>1.05204432232094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045910255084556</v>
+        <v>1.035084836403859</v>
       </c>
       <c r="J25">
-        <v>1.019715467372768</v>
+        <v>1.036305772791401</v>
       </c>
       <c r="K25">
-        <v>1.0278876438188</v>
+        <v>1.037919350392011</v>
       </c>
       <c r="L25">
-        <v>1.025300435114183</v>
+        <v>1.047397506769714</v>
       </c>
       <c r="M25">
-        <v>1.030931797001897</v>
+        <v>1.055046660421646</v>
       </c>
       <c r="N25">
-        <v>1.010411934082984</v>
+        <v>1.01607228874276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032015776714196</v>
+        <v>1.001583150274342</v>
       </c>
       <c r="D2">
-        <v>1.035866392573799</v>
+        <v>1.020434636716236</v>
       </c>
       <c r="E2">
-        <v>1.045687926806673</v>
+        <v>1.018982697032233</v>
       </c>
       <c r="F2">
-        <v>1.053467506576291</v>
+        <v>1.02518652318144</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035366852227118</v>
+        <v>1.047924820790357</v>
       </c>
       <c r="J2">
-        <v>1.037148321012233</v>
+        <v>1.023716612478069</v>
       </c>
       <c r="K2">
-        <v>1.038661770439816</v>
+        <v>1.031616440068589</v>
       </c>
       <c r="L2">
-        <v>1.048455465856699</v>
+        <v>1.030183758631566</v>
       </c>
       <c r="M2">
-        <v>1.056213394052302</v>
+        <v>1.036305776377612</v>
       </c>
       <c r="N2">
-        <v>1.016353281504802</v>
+        <v>1.011754370244767</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032984689000636</v>
+        <v>1.006203571155206</v>
       </c>
       <c r="D3">
-        <v>1.036593769848524</v>
+        <v>1.023890493176913</v>
       </c>
       <c r="E3">
-        <v>1.046644822169625</v>
+        <v>1.023276517453452</v>
       </c>
       <c r="F3">
-        <v>1.054502041919094</v>
+        <v>1.029822596836393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035567820689132</v>
+        <v>1.049312214906055</v>
       </c>
       <c r="J3">
-        <v>1.037759252080038</v>
+        <v>1.026526537403816</v>
       </c>
       <c r="K3">
-        <v>1.039198849257479</v>
+        <v>1.034226550525907</v>
       </c>
       <c r="L3">
-        <v>1.049223473795543</v>
+        <v>1.033619987528971</v>
       </c>
       <c r="M3">
-        <v>1.057060412660611</v>
+        <v>1.040087598339551</v>
       </c>
       <c r="N3">
-        <v>1.016556932610429</v>
+        <v>1.012696886332835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033611848989776</v>
+        <v>1.009129931939757</v>
       </c>
       <c r="D4">
-        <v>1.037064176104779</v>
+        <v>1.02607900266466</v>
       </c>
       <c r="E4">
-        <v>1.047264538805189</v>
+        <v>1.026001088491627</v>
       </c>
       <c r="F4">
-        <v>1.055171996345113</v>
+        <v>1.03276364735658</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035696099101795</v>
+        <v>1.050176366423136</v>
       </c>
       <c r="J4">
-        <v>1.038154176128475</v>
+        <v>1.028302941756109</v>
       </c>
       <c r="K4">
-        <v>1.039545452585946</v>
+        <v>1.03587254491746</v>
       </c>
       <c r="L4">
-        <v>1.049720346485992</v>
+        <v>1.035795513154172</v>
       </c>
       <c r="M4">
-        <v>1.057608424677989</v>
+        <v>1.042482093356132</v>
       </c>
       <c r="N4">
-        <v>1.016688533721792</v>
+        <v>1.013292596563519</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033875556480089</v>
+        <v>1.01034555809965</v>
       </c>
       <c r="D5">
-        <v>1.037261872561194</v>
+        <v>1.026987996594164</v>
       </c>
       <c r="E5">
-        <v>1.047525196342901</v>
+        <v>1.027134071711441</v>
       </c>
       <c r="F5">
-        <v>1.055453773783258</v>
+        <v>1.033986492601927</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035749605028806</v>
+        <v>1.050531793771571</v>
       </c>
       <c r="J5">
-        <v>1.038320108311775</v>
+        <v>1.029040050723779</v>
       </c>
       <c r="K5">
-        <v>1.039690942894676</v>
+        <v>1.03655453960975</v>
       </c>
       <c r="L5">
-        <v>1.049929211851236</v>
+        <v>1.036699005546326</v>
       </c>
       <c r="M5">
-        <v>1.057838792367596</v>
+        <v>1.043476566181655</v>
       </c>
       <c r="N5">
-        <v>1.016743816705194</v>
+        <v>1.013539746667486</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033919837009535</v>
+        <v>1.010548825530284</v>
       </c>
       <c r="D6">
-        <v>1.03729506297668</v>
+        <v>1.027139982352285</v>
       </c>
       <c r="E6">
-        <v>1.047568969408113</v>
+        <v>1.027323588762104</v>
       </c>
       <c r="F6">
-        <v>1.055501092970104</v>
+        <v>1.034191031991285</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035758564127485</v>
+        <v>1.050591015566056</v>
       </c>
       <c r="J6">
-        <v>1.038347963529234</v>
+        <v>1.029163255157916</v>
       </c>
       <c r="K6">
-        <v>1.039715358330136</v>
+        <v>1.036668472475502</v>
       </c>
       <c r="L6">
-        <v>1.049964280073794</v>
+        <v>1.036850065736274</v>
       </c>
       <c r="M6">
-        <v>1.057877471120566</v>
+        <v>1.043642840500538</v>
       </c>
       <c r="N6">
-        <v>1.016753096482955</v>
+        <v>1.013581054449384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033615372468678</v>
+        <v>1.009146231915569</v>
       </c>
       <c r="D7">
-        <v>1.037066817980917</v>
+        <v>1.026091191669393</v>
       </c>
       <c r="E7">
-        <v>1.047268021219581</v>
+        <v>1.026016275706817</v>
       </c>
       <c r="F7">
-        <v>1.055175760964853</v>
+        <v>1.032780039755503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035696815710767</v>
+        <v>1.050181146323023</v>
       </c>
       <c r="J7">
-        <v>1.038156393692236</v>
+        <v>1.028312828714986</v>
       </c>
       <c r="K7">
-        <v>1.039547397506914</v>
+        <v>1.0358816966049</v>
       </c>
       <c r="L7">
-        <v>1.049723137434492</v>
+        <v>1.035807628785017</v>
       </c>
       <c r="M7">
-        <v>1.057611502928475</v>
+        <v>1.042495428842372</v>
       </c>
       <c r="N7">
-        <v>1.016689272581597</v>
+        <v>1.013295911775465</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032343181537331</v>
+        <v>1.003158104498844</v>
       </c>
       <c r="D8">
-        <v>1.036112265325494</v>
+        <v>1.021612647417393</v>
       </c>
       <c r="E8">
-        <v>1.046011201422633</v>
+        <v>1.020445240183806</v>
       </c>
       <c r="F8">
-        <v>1.053817020111091</v>
+        <v>1.026765792656714</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035435134866173</v>
+        <v>1.048400761746624</v>
       </c>
       <c r="J8">
-        <v>1.03735486818808</v>
+        <v>1.024675091811232</v>
       </c>
       <c r="K8">
-        <v>1.038843469249792</v>
+        <v>1.032507608419649</v>
       </c>
       <c r="L8">
-        <v>1.048715033773132</v>
+        <v>1.031355210183565</v>
       </c>
       <c r="M8">
-        <v>1.056499661046137</v>
+        <v>1.037595010475161</v>
       </c>
       <c r="N8">
-        <v>1.016422142367222</v>
+        <v>1.012075894177698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030103044668473</v>
+        <v>0.9920946016812953</v>
       </c>
       <c r="D9">
-        <v>1.034428316222941</v>
+        <v>1.01333895591517</v>
       </c>
       <c r="E9">
-        <v>1.043800711433209</v>
+        <v>1.01019437360098</v>
       </c>
       <c r="F9">
-        <v>1.051426926570699</v>
+        <v>1.015693554256138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034960553286086</v>
+        <v>1.044997734596763</v>
       </c>
       <c r="J9">
-        <v>1.035939528047279</v>
+        <v>1.017929642015158</v>
       </c>
       <c r="K9">
-        <v>1.037596029573687</v>
+        <v>1.026219262431397</v>
       </c>
       <c r="L9">
-        <v>1.046938050521128</v>
+        <v>1.023124191461098</v>
       </c>
       <c r="M9">
-        <v>1.054539987557991</v>
+        <v>1.028537044298355</v>
       </c>
       <c r="N9">
-        <v>1.015950098649647</v>
+        <v>1.009812666937846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028610745870965</v>
+        <v>0.9843354558140467</v>
       </c>
       <c r="D10">
-        <v>1.033304470099812</v>
+        <v>1.007541167254471</v>
       </c>
       <c r="E10">
-        <v>1.042329919969096</v>
+        <v>1.003036133276141</v>
       </c>
       <c r="F10">
-        <v>1.049836392600357</v>
+        <v>1.007957253139335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034635144762088</v>
+        <v>1.042537576024834</v>
       </c>
       <c r="J10">
-        <v>1.034994025078907</v>
+        <v>1.013184658954021</v>
       </c>
       <c r="K10">
-        <v>1.036759727210831</v>
+        <v>1.021775585547229</v>
       </c>
       <c r="L10">
-        <v>1.045753053894744</v>
+        <v>1.017350784927731</v>
       </c>
       <c r="M10">
-        <v>1.053233273009624</v>
+        <v>1.022184307987279</v>
       </c>
       <c r="N10">
-        <v>1.015634527455861</v>
+        <v>1.008220212780002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027964837150423</v>
+        <v>0.9808750805920948</v>
       </c>
       <c r="D11">
-        <v>1.032817558321574</v>
+        <v>1.004957651885414</v>
       </c>
       <c r="E11">
-        <v>1.041693742064922</v>
+        <v>0.9998517012057789</v>
       </c>
       <c r="F11">
-        <v>1.049148362528585</v>
+        <v>1.00451447106992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034492106369851</v>
+        <v>1.041423764024956</v>
       </c>
       <c r="J11">
-        <v>1.034584159081206</v>
+        <v>1.011065704740864</v>
       </c>
       <c r="K11">
-        <v>1.036396499951994</v>
+        <v>1.01978667587521</v>
       </c>
       <c r="L11">
-        <v>1.045239865520509</v>
+        <v>1.014776414766779</v>
       </c>
       <c r="M11">
-        <v>1.052667397662469</v>
+        <v>1.019351750316249</v>
       </c>
       <c r="N11">
-        <v>1.015497677292472</v>
+        <v>1.007509025187979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027724958336528</v>
+        <v>0.9795737359593808</v>
       </c>
       <c r="D12">
-        <v>1.032636656749012</v>
+        <v>1.003986481478218</v>
       </c>
       <c r="E12">
-        <v>1.041457540897993</v>
+        <v>0.9986553807633771</v>
       </c>
       <c r="F12">
-        <v>1.048892900656784</v>
+        <v>1.003220903675589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034438655365709</v>
+        <v>1.041002461953194</v>
       </c>
       <c r="J12">
-        <v>1.034431848534576</v>
+        <v>1.010268455321308</v>
       </c>
       <c r="K12">
-        <v>1.036261416230448</v>
+        <v>1.019037703258007</v>
       </c>
       <c r="L12">
-        <v>1.045049233610237</v>
+        <v>1.013808386974438</v>
       </c>
       <c r="M12">
-        <v>1.052457198139214</v>
+        <v>1.018286655321051</v>
       </c>
       <c r="N12">
-        <v>1.01544681438099</v>
+        <v>1.007241440152549</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027776411319722</v>
+        <v>0.9798536182095495</v>
       </c>
       <c r="D13">
-        <v>1.032675462582433</v>
+        <v>1.004195332459857</v>
       </c>
       <c r="E13">
-        <v>1.041508202147799</v>
+        <v>0.998912617899287</v>
       </c>
       <c r="F13">
-        <v>1.048947693416955</v>
+        <v>1.003499060003575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034450135268429</v>
+        <v>1.041093180687878</v>
       </c>
       <c r="J13">
-        <v>1.034464522734542</v>
+        <v>1.010439937065811</v>
       </c>
       <c r="K13">
-        <v>1.036290399599527</v>
+        <v>1.019198830100511</v>
       </c>
       <c r="L13">
-        <v>1.045090125284508</v>
+        <v>1.014016576081517</v>
       </c>
       <c r="M13">
-        <v>1.052502287011589</v>
+        <v>1.018515719448102</v>
       </c>
       <c r="N13">
-        <v>1.015457726032014</v>
+        <v>1.007298995544702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027945007865449</v>
+        <v>0.9807678429718784</v>
       </c>
       <c r="D14">
-        <v>1.032802605768561</v>
+        <v>1.00487761341585</v>
       </c>
       <c r="E14">
-        <v>1.041674215484129</v>
+        <v>0.9997530923966886</v>
       </c>
       <c r="F14">
-        <v>1.049127243862541</v>
+        <v>1.004407850452782</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034487694621877</v>
+        <v>1.041389095496186</v>
       </c>
       <c r="J14">
-        <v>1.034571570429029</v>
+        <v>1.011000014504084</v>
       </c>
       <c r="K14">
-        <v>1.036385337249989</v>
+        <v>1.019724976557153</v>
       </c>
       <c r="L14">
-        <v>1.04522410804578</v>
+        <v>1.014696641512017</v>
       </c>
       <c r="M14">
-        <v>1.052650022668088</v>
+        <v>1.0192639775999</v>
       </c>
       <c r="N14">
-        <v>1.015493473572538</v>
+        <v>1.007486977263859</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028048891132995</v>
+        <v>0.9813289781205731</v>
       </c>
       <c r="D15">
-        <v>1.03288093749917</v>
+        <v>1.005296442771288</v>
       </c>
       <c r="E15">
-        <v>1.041776515535781</v>
+        <v>1.000269127418511</v>
       </c>
       <c r="F15">
-        <v>1.049237884505513</v>
+        <v>1.00496580465554</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034510793767151</v>
+        <v>1.041570404587229</v>
       </c>
       <c r="J15">
-        <v>1.034637517044833</v>
+        <v>1.011343732509989</v>
       </c>
       <c r="K15">
-        <v>1.036443809635062</v>
+        <v>1.020047786043133</v>
       </c>
       <c r="L15">
-        <v>1.045306657822927</v>
+        <v>1.015114070784147</v>
       </c>
       <c r="M15">
-        <v>1.052741046412808</v>
+        <v>1.019723266339112</v>
       </c>
       <c r="N15">
-        <v>1.015515494755629</v>
+        <v>1.007602340860418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028653618354985</v>
+        <v>0.9845629151528454</v>
       </c>
       <c r="D16">
-        <v>1.033336779043256</v>
+        <v>1.007711040584794</v>
       </c>
       <c r="E16">
-        <v>1.042372155490896</v>
+        <v>1.003245624363766</v>
       </c>
       <c r="F16">
-        <v>1.049882069313283</v>
+        <v>1.008183714237537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034644592822267</v>
+        <v>1.042610449036388</v>
       </c>
       <c r="J16">
-        <v>1.03502121695776</v>
+        <v>1.013323888740816</v>
       </c>
       <c r="K16">
-        <v>1.036783810235989</v>
+        <v>1.021906178804449</v>
       </c>
       <c r="L16">
-        <v>1.045787110951806</v>
+        <v>1.017520018052979</v>
       </c>
       <c r="M16">
-        <v>1.053270827101713</v>
+        <v>1.022370516373958</v>
       </c>
       <c r="N16">
-        <v>1.015643605436405</v>
+        <v>1.00826694200261</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029033019401465</v>
+        <v>0.9865639327996418</v>
       </c>
       <c r="D17">
-        <v>1.033622642454967</v>
+        <v>1.009205714140213</v>
       </c>
       <c r="E17">
-        <v>1.042745968520485</v>
+        <v>1.005089481858377</v>
       </c>
       <c r="F17">
-        <v>1.050286332428173</v>
+        <v>1.010176797900466</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034727950351608</v>
+        <v>1.043249646527628</v>
       </c>
       <c r="J17">
-        <v>1.03526177984803</v>
+        <v>1.014548414055986</v>
       </c>
       <c r="K17">
-        <v>1.036996788899292</v>
+        <v>1.023054236416326</v>
       </c>
       <c r="L17">
-        <v>1.046088466362362</v>
+        <v>1.019008858638376</v>
       </c>
       <c r="M17">
-        <v>1.053603129135598</v>
+        <v>1.024008713235513</v>
       </c>
       <c r="N17">
-        <v>1.015723910968678</v>
+        <v>1.008677920174631</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0292543432998</v>
+        <v>0.9877214483833231</v>
       </c>
       <c r="D18">
-        <v>1.033789354757509</v>
+        <v>1.010070525415433</v>
       </c>
       <c r="E18">
-        <v>1.04296407332802</v>
+        <v>1.006156836382444</v>
       </c>
       <c r="F18">
-        <v>1.050522197982801</v>
+        <v>1.011330422607001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034776365421543</v>
+        <v>1.043617816141556</v>
       </c>
       <c r="J18">
-        <v>1.035402051981272</v>
+        <v>1.0152564868275</v>
       </c>
       <c r="K18">
-        <v>1.037120909295003</v>
+        <v>1.0237176634783</v>
       </c>
       <c r="L18">
-        <v>1.046264234399001</v>
+        <v>1.019870134402125</v>
       </c>
       <c r="M18">
-        <v>1.053796949519793</v>
+        <v>1.024956402866473</v>
       </c>
       <c r="N18">
-        <v>1.015770731958359</v>
+        <v>1.008915560288701</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02932981337425</v>
+        <v>0.9881145214469361</v>
       </c>
       <c r="D19">
-        <v>1.033846194734383</v>
+        <v>1.010364231787837</v>
       </c>
       <c r="E19">
-        <v>1.043038452600239</v>
+        <v>1.006519417942401</v>
       </c>
       <c r="F19">
-        <v>1.050602633166707</v>
+        <v>1.011722291507408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034792838758885</v>
+        <v>1.043742569892881</v>
       </c>
       <c r="J19">
-        <v>1.035449873650464</v>
+        <v>1.015496889276579</v>
       </c>
       <c r="K19">
-        <v>1.037163213063113</v>
+        <v>1.023942834485744</v>
       </c>
       <c r="L19">
-        <v>1.046324165468727</v>
+        <v>1.020162613875091</v>
       </c>
       <c r="M19">
-        <v>1.053863036262335</v>
+        <v>1.025278229813318</v>
       </c>
       <c r="N19">
-        <v>1.015786693328354</v>
+        <v>1.008996242072829</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028992310599868</v>
+        <v>0.9863502463111615</v>
       </c>
       <c r="D20">
-        <v>1.033591974800186</v>
+        <v>1.009046078486055</v>
       </c>
       <c r="E20">
-        <v>1.042705855088495</v>
+        <v>1.004892500090061</v>
       </c>
       <c r="F20">
-        <v>1.050242952018883</v>
+        <v>1.009963885843132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034719028178141</v>
+        <v>1.043181551072089</v>
       </c>
       <c r="J20">
-        <v>1.035235974286892</v>
+        <v>1.014417676045749</v>
       </c>
       <c r="K20">
-        <v>1.036973949310086</v>
+        <v>1.02293170690394</v>
       </c>
       <c r="L20">
-        <v>1.04605613454714</v>
+        <v>1.018849862880455</v>
       </c>
       <c r="M20">
-        <v>1.053567476864005</v>
+        <v>1.023833766130808</v>
       </c>
       <c r="N20">
-        <v>1.015715296998388</v>
+        <v>1.008634042052626</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027895359265188</v>
+        <v>0.9804990759381637</v>
       </c>
       <c r="D21">
-        <v>1.03276516638864</v>
+        <v>1.004677021922802</v>
       </c>
       <c r="E21">
-        <v>1.041625325827228</v>
+        <v>0.9995059718697465</v>
       </c>
       <c r="F21">
-        <v>1.049074367878757</v>
+        <v>1.004140648667746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034476643162978</v>
+        <v>1.041302167709389</v>
       </c>
       <c r="J21">
-        <v>1.034540049425325</v>
+        <v>1.010835370822552</v>
       </c>
       <c r="K21">
-        <v>1.036357385025545</v>
+        <v>1.019570325160311</v>
       </c>
       <c r="L21">
-        <v>1.045184653757477</v>
+        <v>1.014496709814082</v>
       </c>
       <c r="M21">
-        <v>1.052606518420953</v>
+        <v>1.019043997530593</v>
       </c>
       <c r="N21">
-        <v>1.015482947657452</v>
+        <v>1.007431717093513</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027205896620537</v>
+        <v>0.9767271085294913</v>
       </c>
       <c r="D22">
-        <v>1.032245083249393</v>
+        <v>1.001862958340542</v>
       </c>
       <c r="E22">
-        <v>1.040946554171653</v>
+        <v>0.9960408516914073</v>
       </c>
       <c r="F22">
-        <v>1.048340229692625</v>
+        <v>1.000393480209177</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034322393879862</v>
+        <v>1.040076494516667</v>
       </c>
       <c r="J22">
-        <v>1.034102100326145</v>
+        <v>1.008523881377991</v>
       </c>
       <c r="K22">
-        <v>1.035968772631807</v>
+        <v>1.017397599781079</v>
       </c>
       <c r="L22">
-        <v>1.044636656472889</v>
+        <v>1.011691150216339</v>
       </c>
       <c r="M22">
-        <v>1.052002278467401</v>
+        <v>1.015957146207818</v>
       </c>
       <c r="N22">
-        <v>1.015336683092389</v>
+        <v>1.006655898819697</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027571371479126</v>
+        <v>0.9787358405561487</v>
       </c>
       <c r="D23">
-        <v>1.032520811168687</v>
+        <v>1.00336130320259</v>
       </c>
       <c r="E23">
-        <v>1.041306326733805</v>
+        <v>0.9978854666185724</v>
       </c>
       <c r="F23">
-        <v>1.048729353401353</v>
+        <v>1.00238834927043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034404339749339</v>
+        <v>1.040730522845899</v>
       </c>
       <c r="J23">
-        <v>1.034334302534636</v>
+        <v>1.009755032345609</v>
       </c>
       <c r="K23">
-        <v>1.036174873592328</v>
+        <v>1.018555189701398</v>
       </c>
       <c r="L23">
-        <v>1.044927165923385</v>
+        <v>1.013185143773122</v>
       </c>
       <c r="M23">
-        <v>1.052322601747604</v>
+        <v>1.017600922222584</v>
       </c>
       <c r="N23">
-        <v>1.015414237431475</v>
+        <v>1.007069116971721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029010705075593</v>
+        <v>0.9864468317753475</v>
       </c>
       <c r="D24">
-        <v>1.033605832276763</v>
+        <v>1.009118232577877</v>
       </c>
       <c r="E24">
-        <v>1.042723980417857</v>
+        <v>1.004981532762745</v>
       </c>
       <c r="F24">
-        <v>1.050262553555479</v>
+        <v>1.010060119104522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034723060360694</v>
+        <v>1.043212334867602</v>
       </c>
       <c r="J24">
-        <v>1.035247634845541</v>
+        <v>1.014476769961612</v>
       </c>
       <c r="K24">
-        <v>1.036984269866281</v>
+        <v>1.022987091889682</v>
       </c>
       <c r="L24">
-        <v>1.046070743925832</v>
+        <v>1.018921728239245</v>
       </c>
       <c r="M24">
-        <v>1.053583586608724</v>
+        <v>1.023912841384841</v>
       </c>
       <c r="N24">
-        <v>1.015719189342176</v>
+        <v>1.008653875092111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030681977695436</v>
+        <v>0.9950193126955124</v>
       </c>
       <c r="D25">
-        <v>1.034863876228348</v>
+        <v>1.015525655964449</v>
       </c>
       <c r="E25">
-        <v>1.04437167438088</v>
+        <v>1.012899114773459</v>
       </c>
       <c r="F25">
-        <v>1.05204432232094</v>
+        <v>1.018615753341058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035084836403859</v>
+        <v>1.045910255084557</v>
       </c>
       <c r="J25">
-        <v>1.036305772791401</v>
+        <v>1.019715467372769</v>
       </c>
       <c r="K25">
-        <v>1.037919350392011</v>
+        <v>1.027887643818801</v>
       </c>
       <c r="L25">
-        <v>1.047397506769714</v>
+        <v>1.025300435114183</v>
       </c>
       <c r="M25">
-        <v>1.055046660421646</v>
+        <v>1.030931797001897</v>
       </c>
       <c r="N25">
-        <v>1.01607228874276</v>
+        <v>1.010411934082984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001583150274342</v>
+        <v>1.032340474065667</v>
       </c>
       <c r="D2">
-        <v>1.020434636716236</v>
+        <v>1.04655675939582</v>
       </c>
       <c r="E2">
-        <v>1.018982697032233</v>
+        <v>1.0487840949767</v>
       </c>
       <c r="F2">
-        <v>1.02518652318144</v>
+        <v>1.052912715436482</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047924820790357</v>
+        <v>1.056660477232413</v>
       </c>
       <c r="J2">
-        <v>1.023716612478069</v>
+        <v>1.053595114475002</v>
       </c>
       <c r="K2">
-        <v>1.031616440068589</v>
+        <v>1.057403462036022</v>
       </c>
       <c r="L2">
-        <v>1.030183758631566</v>
+        <v>1.059603186662033</v>
       </c>
       <c r="M2">
-        <v>1.036305776377612</v>
+        <v>1.063681011302352</v>
       </c>
       <c r="N2">
-        <v>1.011754370244767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021049574442271</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.058971408596638</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.051659354043154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006203571155206</v>
+        <v>1.036421741063015</v>
       </c>
       <c r="D3">
-        <v>1.023890493176913</v>
+        <v>1.04936035220406</v>
       </c>
       <c r="E3">
-        <v>1.023276517453452</v>
+        <v>1.052231869767942</v>
       </c>
       <c r="F3">
-        <v>1.029822596836393</v>
+        <v>1.056000913438717</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049312214906055</v>
+        <v>1.057761522837999</v>
       </c>
       <c r="J3">
-        <v>1.026526537403816</v>
+        <v>1.055966462110955</v>
       </c>
       <c r="K3">
-        <v>1.034226550525907</v>
+        <v>1.059398334679435</v>
       </c>
       <c r="L3">
-        <v>1.033619987528971</v>
+        <v>1.062237362408824</v>
       </c>
       <c r="M3">
-        <v>1.040087598339551</v>
+        <v>1.065964091288055</v>
       </c>
       <c r="N3">
-        <v>1.012696886332835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.021895655433378</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.060778266424784</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.053067236710325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009129931939757</v>
+        <v>1.039015786897603</v>
       </c>
       <c r="D4">
-        <v>1.02607900266466</v>
+        <v>1.051146304096862</v>
       </c>
       <c r="E4">
-        <v>1.026001088491627</v>
+        <v>1.054428890882149</v>
       </c>
       <c r="F4">
-        <v>1.03276364735658</v>
+        <v>1.057970333802036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050176366423136</v>
+        <v>1.058453589715307</v>
       </c>
       <c r="J4">
-        <v>1.028302941756109</v>
+        <v>1.057471511207289</v>
       </c>
       <c r="K4">
-        <v>1.03587254491746</v>
+        <v>1.06066427102065</v>
       </c>
       <c r="L4">
-        <v>1.035795513154172</v>
+        <v>1.063911958576511</v>
       </c>
       <c r="M4">
-        <v>1.042482093356132</v>
+        <v>1.067416047104264</v>
       </c>
       <c r="N4">
-        <v>1.013292596563519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.022432236649865</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.061927360080987</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053963210688917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01034555809965</v>
+        <v>1.040100191376759</v>
       </c>
       <c r="D5">
-        <v>1.026987996594164</v>
+        <v>1.051895890444935</v>
       </c>
       <c r="E5">
-        <v>1.027134071711441</v>
+        <v>1.055349210233196</v>
       </c>
       <c r="F5">
-        <v>1.033986492601927</v>
+        <v>1.058795761877517</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050531793771571</v>
+        <v>1.058742915311752</v>
       </c>
       <c r="J5">
-        <v>1.029040050723779</v>
+        <v>1.058102003727809</v>
       </c>
       <c r="K5">
-        <v>1.03655453960975</v>
+        <v>1.061195936840087</v>
       </c>
       <c r="L5">
-        <v>1.036699005546326</v>
+        <v>1.064613520335724</v>
       </c>
       <c r="M5">
-        <v>1.043476566181655</v>
+        <v>1.068024689032084</v>
       </c>
       <c r="N5">
-        <v>1.013539746667486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.022657663482039</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.062409045430715</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.054346164627235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010548825530284</v>
+        <v>1.040287397581888</v>
       </c>
       <c r="D6">
-        <v>1.027139982352285</v>
+        <v>1.052027861971686</v>
       </c>
       <c r="E6">
-        <v>1.027323588762104</v>
+        <v>1.055508850647529</v>
       </c>
       <c r="F6">
-        <v>1.034191031991285</v>
+        <v>1.058939070332476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050591015566056</v>
+        <v>1.058795078219161</v>
       </c>
       <c r="J6">
-        <v>1.029163255157916</v>
+        <v>1.05821309883806</v>
       </c>
       <c r="K6">
-        <v>1.036668472475502</v>
+        <v>1.061291294621302</v>
       </c>
       <c r="L6">
-        <v>1.036850065736274</v>
+        <v>1.064736425921628</v>
       </c>
       <c r="M6">
-        <v>1.043642840500538</v>
+        <v>1.068131592148749</v>
       </c>
       <c r="N6">
-        <v>1.013581054449384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.022698287504902</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.062493649602858</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054422166644621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009146231915569</v>
+        <v>1.03904587439621</v>
       </c>
       <c r="D7">
-        <v>1.026091191669393</v>
+        <v>1.051173842281786</v>
       </c>
       <c r="E7">
-        <v>1.026016275706817</v>
+        <v>1.054456259982686</v>
       </c>
       <c r="F7">
-        <v>1.032780039755503</v>
+        <v>1.057995157305508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050181146323023</v>
+        <v>1.058467905652326</v>
       </c>
       <c r="J7">
-        <v>1.028312828714986</v>
+        <v>1.057495159092999</v>
       </c>
       <c r="K7">
-        <v>1.0358816966049</v>
+        <v>1.060688707764349</v>
       </c>
       <c r="L7">
-        <v>1.035807628785017</v>
+        <v>1.063936241826681</v>
       </c>
       <c r="M7">
-        <v>1.042495428842372</v>
+        <v>1.067437826223801</v>
       </c>
       <c r="N7">
-        <v>1.013295911775465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.022443173496348</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061944596300607</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.054000223144345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003158104498844</v>
+        <v>1.033749430140819</v>
       </c>
       <c r="D8">
-        <v>1.021612647417393</v>
+        <v>1.047532222911301</v>
       </c>
       <c r="E8">
-        <v>1.020445240183806</v>
+        <v>1.049975525773575</v>
       </c>
       <c r="F8">
-        <v>1.026765792656714</v>
+        <v>1.053979887092475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048400761746624</v>
+        <v>1.057050087271557</v>
       </c>
       <c r="J8">
-        <v>1.024675091811232</v>
+        <v>1.054421959175609</v>
       </c>
       <c r="K8">
-        <v>1.032507608419649</v>
+        <v>1.058104647753595</v>
       </c>
       <c r="L8">
-        <v>1.031355210183565</v>
+        <v>1.060518566104482</v>
       </c>
       <c r="M8">
-        <v>1.037595010475161</v>
+        <v>1.064475133909697</v>
       </c>
       <c r="N8">
-        <v>1.012075894177698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.021347942619908</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.059599887560463</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.052177635187526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9920946016812953</v>
+        <v>1.024016007237389</v>
       </c>
       <c r="D9">
-        <v>1.01333895591517</v>
+        <v>1.040862533137822</v>
       </c>
       <c r="E9">
-        <v>1.01019437360098</v>
+        <v>1.041784233196905</v>
       </c>
       <c r="F9">
-        <v>1.015693554256138</v>
+        <v>1.046651615125354</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044997734596763</v>
+        <v>1.054374245100809</v>
       </c>
       <c r="J9">
-        <v>1.017929642015158</v>
+        <v>1.048748298518424</v>
       </c>
       <c r="K9">
-        <v>1.026219262431397</v>
+        <v>1.053325693640595</v>
       </c>
       <c r="L9">
-        <v>1.023124191461098</v>
+        <v>1.054233908531756</v>
       </c>
       <c r="M9">
-        <v>1.028537044298355</v>
+        <v>1.059030576143311</v>
       </c>
       <c r="N9">
-        <v>1.009812666937846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.019318718312433</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.055290983375158</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.048795580678153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9843354558140467</v>
+        <v>1.017346573803817</v>
       </c>
       <c r="D10">
-        <v>1.007541167254471</v>
+        <v>1.036341774046646</v>
       </c>
       <c r="E10">
-        <v>1.003036133276141</v>
+        <v>1.036231974337702</v>
       </c>
       <c r="F10">
-        <v>1.007957253139335</v>
+        <v>1.041724838859374</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042537576024834</v>
+        <v>1.05253244981344</v>
       </c>
       <c r="J10">
-        <v>1.013184658954021</v>
+        <v>1.044888468018334</v>
       </c>
       <c r="K10">
-        <v>1.021775585547229</v>
+        <v>1.050084469264661</v>
       </c>
       <c r="L10">
-        <v>1.017350784927731</v>
+        <v>1.049976477430674</v>
       </c>
       <c r="M10">
-        <v>1.022184307987279</v>
+        <v>1.055379501084845</v>
       </c>
       <c r="N10">
-        <v>1.008220212780002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01794970891384</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.052452035246182</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046520449472461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9808750805920948</v>
+        <v>1.015152496438619</v>
       </c>
       <c r="D11">
-        <v>1.004957651885414</v>
+        <v>1.035049933828322</v>
       </c>
       <c r="E11">
-        <v>0.9998517012057789</v>
+        <v>1.034632416901871</v>
       </c>
       <c r="F11">
-        <v>1.00451447106992</v>
+        <v>1.04056170249768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041423764024956</v>
+        <v>1.052154389229968</v>
       </c>
       <c r="J11">
-        <v>1.011065704740864</v>
+        <v>1.043908222838284</v>
       </c>
       <c r="K11">
-        <v>1.01978667587521</v>
+        <v>1.049339805953543</v>
       </c>
       <c r="L11">
-        <v>1.014776414766779</v>
+        <v>1.048929492017607</v>
       </c>
       <c r="M11">
-        <v>1.019351750316249</v>
+        <v>1.054757185359987</v>
       </c>
       <c r="N11">
-        <v>1.007509025187979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.017709363054207</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.052388866856942</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.046026316531102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9795737359593808</v>
+        <v>1.014617965910146</v>
       </c>
       <c r="D12">
-        <v>1.003986481478218</v>
+        <v>1.034828848910912</v>
       </c>
       <c r="E12">
-        <v>0.9986553807633771</v>
+        <v>1.034353104651911</v>
       </c>
       <c r="F12">
-        <v>1.003220903675589</v>
+        <v>1.040502214170379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041002461953194</v>
+        <v>1.052180123658097</v>
       </c>
       <c r="J12">
-        <v>1.010268455321308</v>
+        <v>1.043816297930043</v>
       </c>
       <c r="K12">
-        <v>1.019037703258007</v>
+        <v>1.049317878699372</v>
       </c>
       <c r="L12">
-        <v>1.013808386974438</v>
+        <v>1.04885047637112</v>
       </c>
       <c r="M12">
-        <v>1.018286655321051</v>
+        <v>1.054892524888759</v>
       </c>
       <c r="N12">
-        <v>1.007241440152549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.017762082539804</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.052817623273844</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046010813676288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9798536182095495</v>
+        <v>1.015346649804136</v>
       </c>
       <c r="D13">
-        <v>1.004195332459857</v>
+        <v>1.035440049781402</v>
       </c>
       <c r="E13">
-        <v>0.998912617899287</v>
+        <v>1.035093079180782</v>
       </c>
       <c r="F13">
-        <v>1.003499060003575</v>
+        <v>1.041314435433575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041093180687878</v>
+        <v>1.052535979134969</v>
       </c>
       <c r="J13">
-        <v>1.010439937065811</v>
+        <v>1.044425118790122</v>
       </c>
       <c r="K13">
-        <v>1.019198830100511</v>
+        <v>1.049876512957541</v>
       </c>
       <c r="L13">
-        <v>1.014016576081517</v>
+        <v>1.049535595820152</v>
       </c>
       <c r="M13">
-        <v>1.018515719448102</v>
+        <v>1.055649202024528</v>
       </c>
       <c r="N13">
-        <v>1.007298995544702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01805520429521</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.05368903697593</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046403320058371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9807678429718784</v>
+        <v>1.016429427960068</v>
       </c>
       <c r="D14">
-        <v>1.00487761341585</v>
+        <v>1.036246101838982</v>
       </c>
       <c r="E14">
-        <v>0.9997530923966886</v>
+        <v>1.036073059674409</v>
       </c>
       <c r="F14">
-        <v>1.004407850452782</v>
+        <v>1.042278341086278</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041389095496186</v>
+        <v>1.052934815702303</v>
       </c>
       <c r="J14">
-        <v>1.011000014504084</v>
+        <v>1.045169044948846</v>
       </c>
       <c r="K14">
-        <v>1.019724976557153</v>
+        <v>1.050531495819314</v>
       </c>
       <c r="L14">
-        <v>1.014696641512017</v>
+        <v>1.050361433024854</v>
       </c>
       <c r="M14">
-        <v>1.0192639775999</v>
+        <v>1.056460672547265</v>
       </c>
       <c r="N14">
-        <v>1.007486977263859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.018369491461314</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.054501860573088</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046867804538537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9813289781205731</v>
+        <v>1.016975741459754</v>
       </c>
       <c r="D15">
-        <v>1.005296442771288</v>
+        <v>1.036633087399377</v>
       </c>
       <c r="E15">
-        <v>1.000269127418511</v>
+        <v>1.036544206568488</v>
       </c>
       <c r="F15">
-        <v>1.00496580465554</v>
+        <v>1.042717165847963</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041570404587229</v>
+        <v>1.053109600152869</v>
       </c>
       <c r="J15">
-        <v>1.011343732509989</v>
+        <v>1.045512048762309</v>
       </c>
       <c r="K15">
-        <v>1.020047786043133</v>
+        <v>1.050827434737144</v>
       </c>
       <c r="L15">
-        <v>1.015114070784147</v>
+        <v>1.050740072199708</v>
       </c>
       <c r="M15">
-        <v>1.019723266339112</v>
+        <v>1.056808376285468</v>
       </c>
       <c r="N15">
-        <v>1.007602340860418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.018502565638709</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.054813836542245</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047082817309737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9845629151528454</v>
+        <v>1.01966147886609</v>
       </c>
       <c r="D16">
-        <v>1.007711040584794</v>
+        <v>1.038434166582179</v>
       </c>
       <c r="E16">
-        <v>1.003245624363766</v>
+        <v>1.038758896761163</v>
       </c>
       <c r="F16">
-        <v>1.008183714237537</v>
+        <v>1.044670662849122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042610449036388</v>
+        <v>1.053835647722135</v>
       </c>
       <c r="J16">
-        <v>1.013323888740816</v>
+        <v>1.047041801443561</v>
       </c>
       <c r="K16">
-        <v>1.021906178804449</v>
+        <v>1.052107758979225</v>
       </c>
       <c r="L16">
-        <v>1.017520018052979</v>
+        <v>1.052427188393347</v>
       </c>
       <c r="M16">
-        <v>1.022370516373958</v>
+        <v>1.058243192293197</v>
       </c>
       <c r="N16">
-        <v>1.00826694200261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.019030237649562</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.055909627862347</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047991140336993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9865639327996418</v>
+        <v>1.021155948573394</v>
       </c>
       <c r="D17">
-        <v>1.009205714140213</v>
+        <v>1.039394864712498</v>
       </c>
       <c r="E17">
-        <v>1.005089481858377</v>
+        <v>1.039945276251557</v>
       </c>
       <c r="F17">
-        <v>1.010176797900466</v>
+        <v>1.04566139274666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043249646527628</v>
+        <v>1.054181666877592</v>
       </c>
       <c r="J17">
-        <v>1.014548414055986</v>
+        <v>1.047824727590113</v>
       </c>
       <c r="K17">
-        <v>1.023054236416326</v>
+        <v>1.052745703030085</v>
       </c>
       <c r="L17">
-        <v>1.019008858638376</v>
+        <v>1.05328738430462</v>
       </c>
       <c r="M17">
-        <v>1.024008713235513</v>
+        <v>1.058913530353576</v>
       </c>
       <c r="N17">
-        <v>1.008677920174631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.019270019654625</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.05631195652392</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.048444722806466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877214483833231</v>
+        <v>1.021744644890001</v>
       </c>
       <c r="D18">
-        <v>1.010070525415433</v>
+        <v>1.039693993822744</v>
       </c>
       <c r="E18">
-        <v>1.006156836382444</v>
+        <v>1.040325276031286</v>
       </c>
       <c r="F18">
-        <v>1.011330422607001</v>
+        <v>1.045871735184346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043617816141556</v>
+        <v>1.054216804827216</v>
       </c>
       <c r="J18">
-        <v>1.0152564868275</v>
+        <v>1.048010608309973</v>
       </c>
       <c r="K18">
-        <v>1.0237176634783</v>
+        <v>1.052861013032326</v>
       </c>
       <c r="L18">
-        <v>1.019870134402125</v>
+        <v>1.053482444236957</v>
       </c>
       <c r="M18">
-        <v>1.024956402866473</v>
+        <v>1.058943004824407</v>
       </c>
       <c r="N18">
-        <v>1.008915560288701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.019271075119035</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.056100720232041</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04851479928559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9881145214469361</v>
+        <v>1.021546083331269</v>
       </c>
       <c r="D19">
-        <v>1.010364231787837</v>
+        <v>1.039428920650703</v>
       </c>
       <c r="E19">
-        <v>1.006519417942401</v>
+        <v>1.040004296789952</v>
       </c>
       <c r="F19">
-        <v>1.011722291507408</v>
+        <v>1.045400986272454</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043742569892881</v>
+        <v>1.053994958029474</v>
       </c>
       <c r="J19">
-        <v>1.015496889276579</v>
+        <v>1.047689089162433</v>
       </c>
       <c r="K19">
-        <v>1.023942834485744</v>
+        <v>1.052538994898447</v>
       </c>
       <c r="L19">
-        <v>1.020162613875091</v>
+        <v>1.053105433656457</v>
       </c>
       <c r="M19">
-        <v>1.025278229813318</v>
+        <v>1.058418906736296</v>
       </c>
       <c r="N19">
-        <v>1.008996242072829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.019077188025771</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.055365699405147</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048293422799801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9863502463111615</v>
+        <v>1.019120194165554</v>
       </c>
       <c r="D20">
-        <v>1.009046078486055</v>
+        <v>1.037560575861613</v>
       </c>
       <c r="E20">
-        <v>1.004892500090061</v>
+        <v>1.03771261040583</v>
       </c>
       <c r="F20">
-        <v>1.009963885843132</v>
+        <v>1.043040415490121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043181551072089</v>
+        <v>1.053042721559921</v>
       </c>
       <c r="J20">
-        <v>1.014417676045749</v>
+        <v>1.045933453617664</v>
       </c>
       <c r="K20">
-        <v>1.02293170690394</v>
+        <v>1.050973627017756</v>
       </c>
       <c r="L20">
-        <v>1.018849862880455</v>
+        <v>1.051123231102772</v>
       </c>
       <c r="M20">
-        <v>1.023833766130808</v>
+        <v>1.056366437484394</v>
       </c>
       <c r="N20">
-        <v>1.008634042052626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.018328547478061</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.053222704123399</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.047190547420651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9804990759381637</v>
+        <v>1.013965259087567</v>
       </c>
       <c r="D21">
-        <v>1.004677021922802</v>
+        <v>1.034037505547794</v>
       </c>
       <c r="E21">
-        <v>0.9995059718697465</v>
+        <v>1.033390496779089</v>
       </c>
       <c r="F21">
-        <v>1.004140648667746</v>
+        <v>1.039158710237476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041302167709389</v>
+        <v>1.051560044612877</v>
       </c>
       <c r="J21">
-        <v>1.010835370822552</v>
+        <v>1.042890483924937</v>
       </c>
       <c r="K21">
-        <v>1.019570325160311</v>
+        <v>1.048401499389456</v>
       </c>
       <c r="L21">
-        <v>1.014496709814082</v>
+        <v>1.047765735310282</v>
       </c>
       <c r="M21">
-        <v>1.019043997530593</v>
+        <v>1.053434338602187</v>
       </c>
       <c r="N21">
-        <v>1.007431717093513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.017228645406748</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.050862012102353</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045375196371469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9767271085294913</v>
+        <v>1.010685674416735</v>
       </c>
       <c r="D22">
-        <v>1.001862958340542</v>
+        <v>1.031806478699638</v>
       </c>
       <c r="E22">
-        <v>0.9960408516914073</v>
+        <v>1.030659931311748</v>
       </c>
       <c r="F22">
-        <v>1.000393480209177</v>
+        <v>1.036724146293665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040076494516667</v>
+        <v>1.050616384374322</v>
       </c>
       <c r="J22">
-        <v>1.008523881377991</v>
+        <v>1.040963923288437</v>
       </c>
       <c r="K22">
-        <v>1.017397599781079</v>
+        <v>1.046773122352505</v>
       </c>
       <c r="L22">
-        <v>1.011691150216339</v>
+        <v>1.045647532570861</v>
       </c>
       <c r="M22">
-        <v>1.015957146207818</v>
+        <v>1.051601583927905</v>
       </c>
       <c r="N22">
-        <v>1.006655898819697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.016534806106125</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.049411528716765</v>
+      </c>
+      <c r="Q22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R22">
+        <v>1.044210578687836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9787358405561487</v>
+        <v>1.012414907855704</v>
       </c>
       <c r="D23">
-        <v>1.00336130320259</v>
+        <v>1.032975950562203</v>
       </c>
       <c r="E23">
-        <v>0.9978854666185724</v>
+        <v>1.032096992744369</v>
       </c>
       <c r="F23">
-        <v>1.00238834927043</v>
+        <v>1.038005041759757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040730522845899</v>
+        <v>1.051108724630103</v>
       </c>
       <c r="J23">
-        <v>1.009755032345609</v>
+        <v>1.041973976783207</v>
       </c>
       <c r="K23">
-        <v>1.018555189701398</v>
+        <v>1.04762291718024</v>
       </c>
       <c r="L23">
-        <v>1.013185143773122</v>
+        <v>1.046759605187149</v>
       </c>
       <c r="M23">
-        <v>1.017600922222584</v>
+        <v>1.052563148708651</v>
       </c>
       <c r="N23">
-        <v>1.007069116971721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.016895786468062</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.050172533123057</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044801899594734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9864468317753475</v>
+        <v>1.019108948603652</v>
       </c>
       <c r="D24">
-        <v>1.009118232577877</v>
+        <v>1.037525687331053</v>
       </c>
       <c r="E24">
-        <v>1.004981532762745</v>
+        <v>1.037679089854266</v>
       </c>
       <c r="F24">
-        <v>1.010060119104522</v>
+        <v>1.042985121785738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043212334867602</v>
+        <v>1.05300880165271</v>
       </c>
       <c r="J24">
-        <v>1.014476769961612</v>
+        <v>1.045890752066496</v>
       </c>
       <c r="K24">
-        <v>1.022987091889682</v>
+        <v>1.050924369596809</v>
       </c>
       <c r="L24">
-        <v>1.018921728239245</v>
+        <v>1.051075322712811</v>
       </c>
       <c r="M24">
-        <v>1.023912841384841</v>
+        <v>1.056297199854093</v>
       </c>
       <c r="N24">
-        <v>1.008653875092111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.018299693888875</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.053127739446676</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04712872580658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9950193126955124</v>
+        <v>1.026605086523774</v>
       </c>
       <c r="D25">
-        <v>1.015525655964449</v>
+        <v>1.042643190567011</v>
       </c>
       <c r="E25">
-        <v>1.012899114773459</v>
+        <v>1.043960574569734</v>
       </c>
       <c r="F25">
-        <v>1.018615753341058</v>
+        <v>1.048597495745452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045910255084557</v>
+        <v>1.055102942154988</v>
       </c>
       <c r="J25">
-        <v>1.019715467372769</v>
+        <v>1.050269098808375</v>
       </c>
       <c r="K25">
-        <v>1.027887643818801</v>
+        <v>1.054613722246762</v>
       </c>
       <c r="L25">
-        <v>1.025300435114183</v>
+        <v>1.055912742849146</v>
       </c>
       <c r="M25">
-        <v>1.030931797001897</v>
+        <v>1.060485491185559</v>
       </c>
       <c r="N25">
-        <v>1.010411934082984</v>
+        <v>1.01986736256773</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.056442427205099</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049734389476658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032340474065667</v>
+        <v>1.030051482643889</v>
       </c>
       <c r="D2">
-        <v>1.04655675939582</v>
+        <v>1.043644301969997</v>
       </c>
       <c r="E2">
-        <v>1.0487840949767</v>
+        <v>1.046529153780357</v>
       </c>
       <c r="F2">
-        <v>1.052912715436482</v>
+        <v>1.050723703015153</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056660477232413</v>
+        <v>1.055289824676085</v>
       </c>
       <c r="J2">
-        <v>1.053595114475002</v>
+        <v>1.051369062794512</v>
       </c>
       <c r="K2">
-        <v>1.057403462036022</v>
+        <v>1.054527330250687</v>
       </c>
       <c r="L2">
-        <v>1.059603186662033</v>
+        <v>1.057376199549424</v>
       </c>
       <c r="M2">
-        <v>1.063681011302352</v>
+        <v>1.06151886918533</v>
       </c>
       <c r="N2">
-        <v>1.021049574442271</v>
+        <v>1.020345217330586</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.058971408596638</v>
+        <v>1.057260258591926</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.051659354043154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.049634374487386</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026267140503987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036421741063015</v>
+        <v>1.03390492324492</v>
       </c>
       <c r="D3">
-        <v>1.04936035220406</v>
+        <v>1.046195659214805</v>
       </c>
       <c r="E3">
-        <v>1.052231869767942</v>
+        <v>1.049755796116757</v>
       </c>
       <c r="F3">
-        <v>1.056000913438717</v>
+        <v>1.053611204842173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057761522837999</v>
+        <v>1.056250598717611</v>
       </c>
       <c r="J3">
-        <v>1.055966462110955</v>
+        <v>1.05351212246232</v>
       </c>
       <c r="K3">
-        <v>1.059398334679435</v>
+        <v>1.056269703569469</v>
       </c>
       <c r="L3">
-        <v>1.062237362408824</v>
+        <v>1.059789291324788</v>
       </c>
       <c r="M3">
-        <v>1.065964091288055</v>
+        <v>1.063601168526826</v>
       </c>
       <c r="N3">
-        <v>1.021895655433378</v>
+        <v>1.020947172485767</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.060778266424784</v>
+        <v>1.058908219956902</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.053067236710325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05086344929941</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026650330295256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039015786897603</v>
+        <v>1.03635604587106</v>
       </c>
       <c r="D4">
-        <v>1.051146304096862</v>
+        <v>1.047822592383488</v>
       </c>
       <c r="E4">
-        <v>1.054428890882149</v>
+        <v>1.051813850216914</v>
       </c>
       <c r="F4">
-        <v>1.057970333802036</v>
+        <v>1.055454381257718</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058453589715307</v>
+        <v>1.056854271030099</v>
       </c>
       <c r="J4">
-        <v>1.057471511207289</v>
+        <v>1.054873363254344</v>
       </c>
       <c r="K4">
-        <v>1.06066427102065</v>
+        <v>1.057376168758859</v>
       </c>
       <c r="L4">
-        <v>1.063911958576511</v>
+        <v>1.061324698439453</v>
       </c>
       <c r="M4">
-        <v>1.067416047104264</v>
+        <v>1.064926600759274</v>
       </c>
       <c r="N4">
-        <v>1.022432236649865</v>
+        <v>1.021329403073388</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061927360080987</v>
+        <v>1.059957184071133</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053963210688917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05164675161647</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026891295181246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040100191376759</v>
+        <v>1.037380985154142</v>
       </c>
       <c r="D5">
-        <v>1.051895890444935</v>
+        <v>1.048505941775691</v>
       </c>
       <c r="E5">
-        <v>1.055349210233196</v>
+        <v>1.052676313612721</v>
       </c>
       <c r="F5">
-        <v>1.058795761877517</v>
+        <v>1.056227249857342</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058742915311752</v>
+        <v>1.057106727176513</v>
       </c>
       <c r="J5">
-        <v>1.058102003727809</v>
+        <v>1.055443900842827</v>
       </c>
       <c r="K5">
-        <v>1.061195936840087</v>
+        <v>1.057841348399701</v>
       </c>
       <c r="L5">
-        <v>1.064613520335724</v>
+        <v>1.061968258856657</v>
       </c>
       <c r="M5">
-        <v>1.068024689032084</v>
+        <v>1.065482519108667</v>
       </c>
       <c r="N5">
-        <v>1.022657663482039</v>
+        <v>1.021490119226977</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062409045430715</v>
+        <v>1.060397144578176</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054346164627235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.051983410610509</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026992689199303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040287397581888</v>
+        <v>1.037557767409651</v>
       </c>
       <c r="D6">
-        <v>1.052027861971686</v>
+        <v>1.04862641734115</v>
       </c>
       <c r="E6">
-        <v>1.055508850647529</v>
+        <v>1.052825829237935</v>
       </c>
       <c r="F6">
-        <v>1.058939070332476</v>
+        <v>1.056361392461382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058795078219161</v>
+        <v>1.057152417436596</v>
       </c>
       <c r="J6">
-        <v>1.05821309883806</v>
+        <v>1.055544493004736</v>
       </c>
       <c r="K6">
-        <v>1.061291294621302</v>
+        <v>1.057925168800609</v>
       </c>
       <c r="L6">
-        <v>1.064736425921628</v>
+        <v>1.062081016538274</v>
       </c>
       <c r="M6">
-        <v>1.068131592148749</v>
+        <v>1.065580229688613</v>
       </c>
       <c r="N6">
-        <v>1.022698287504902</v>
+        <v>1.021519114665557</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.062493649602858</v>
+        <v>1.060474473887379</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054422166644621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.052052127676175</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027011732883373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03904587439621</v>
+        <v>1.036393739687259</v>
       </c>
       <c r="D7">
-        <v>1.051173842281786</v>
+        <v>1.047855504099214</v>
       </c>
       <c r="E7">
-        <v>1.054456259982686</v>
+        <v>1.051848103825968</v>
       </c>
       <c r="F7">
-        <v>1.057995157305508</v>
+        <v>1.055484660189131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058467905652326</v>
+        <v>1.056872427433287</v>
       </c>
       <c r="J7">
-        <v>1.057495159092999</v>
+        <v>1.054904413708719</v>
       </c>
       <c r="K7">
-        <v>1.060688707764349</v>
+        <v>1.057405907161252</v>
       </c>
       <c r="L7">
-        <v>1.063936241826681</v>
+        <v>1.061355781895196</v>
       </c>
       <c r="M7">
-        <v>1.067437826223801</v>
+        <v>1.064953767389192</v>
       </c>
       <c r="N7">
-        <v>1.022443173496348</v>
+        <v>1.021366326374211</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061944596300607</v>
+        <v>1.059978684076519</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.054000223144345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05168951973787</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026900990659243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033749430140819</v>
+        <v>1.031410902272358</v>
       </c>
       <c r="D8">
-        <v>1.047532222911301</v>
+        <v>1.044555230849349</v>
       </c>
       <c r="E8">
-        <v>1.049975525773575</v>
+        <v>1.047670918810188</v>
       </c>
       <c r="F8">
-        <v>1.053979887092475</v>
+        <v>1.051743290345256</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057050087271557</v>
+        <v>1.055646594176893</v>
       </c>
       <c r="J8">
-        <v>1.054421959175609</v>
+        <v>1.052145584451238</v>
       </c>
       <c r="K8">
-        <v>1.058104647753595</v>
+        <v>1.055163689440357</v>
       </c>
       <c r="L8">
-        <v>1.060518566104482</v>
+        <v>1.058241671064151</v>
       </c>
       <c r="M8">
-        <v>1.064475133909697</v>
+        <v>1.062265176123982</v>
       </c>
       <c r="N8">
-        <v>1.021347942619908</v>
+        <v>1.020646136087999</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.059599887560463</v>
+        <v>1.057850896942356</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052177635187526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050109094972233</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026413602024196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024016007237389</v>
+        <v>1.022238011476625</v>
       </c>
       <c r="D9">
-        <v>1.040862533137822</v>
+        <v>1.038499253975643</v>
       </c>
       <c r="E9">
-        <v>1.041784233196905</v>
+        <v>1.040021634901191</v>
       </c>
       <c r="F9">
-        <v>1.046651615125354</v>
+        <v>1.044905828860679</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054374245100809</v>
+        <v>1.053313033948983</v>
       </c>
       <c r="J9">
-        <v>1.048748298518424</v>
+        <v>1.047029208688226</v>
       </c>
       <c r="K9">
-        <v>1.053325693640595</v>
+        <v>1.050997129940585</v>
       </c>
       <c r="L9">
-        <v>1.054233908531756</v>
+        <v>1.052497124849916</v>
       </c>
       <c r="M9">
-        <v>1.059030576143311</v>
+        <v>1.057310056955568</v>
       </c>
       <c r="N9">
-        <v>1.019318718312433</v>
+        <v>1.019216537661272</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.055290983375158</v>
+        <v>1.053929333780383</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.048795580678153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.047159749510208</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02548222804306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017346573803817</v>
+        <v>1.016001847896855</v>
       </c>
       <c r="D10">
-        <v>1.036341774046646</v>
+        <v>1.034434899952923</v>
       </c>
       <c r="E10">
-        <v>1.036231974337702</v>
+        <v>1.034884249771887</v>
       </c>
       <c r="F10">
-        <v>1.041724838859374</v>
+        <v>1.040351076370404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05253244981344</v>
+        <v>1.051729521424157</v>
       </c>
       <c r="J10">
-        <v>1.044888468018334</v>
+        <v>1.043594659547026</v>
       </c>
       <c r="K10">
-        <v>1.050084469264661</v>
+        <v>1.048209062449741</v>
       </c>
       <c r="L10">
-        <v>1.049976477430674</v>
+        <v>1.048650983648285</v>
       </c>
       <c r="M10">
-        <v>1.055379501084845</v>
+        <v>1.054028093439623</v>
       </c>
       <c r="N10">
-        <v>1.01794970891384</v>
+        <v>1.018379348888469</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052452035246182</v>
+        <v>1.05138256785181</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046520449472461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045206702906698</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024861167060699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015152496438619</v>
+        <v>1.013961473240606</v>
       </c>
       <c r="D11">
-        <v>1.035049933828322</v>
+        <v>1.033293391007799</v>
       </c>
       <c r="E11">
-        <v>1.034632416901871</v>
+        <v>1.03342981237178</v>
       </c>
       <c r="F11">
-        <v>1.04056170249768</v>
+        <v>1.039316618947355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052154389229968</v>
+        <v>1.051433396994937</v>
       </c>
       <c r="J11">
-        <v>1.043908222838284</v>
+        <v>1.042764755742278</v>
       </c>
       <c r="K11">
-        <v>1.049339805953543</v>
+        <v>1.047613617771989</v>
       </c>
       <c r="L11">
-        <v>1.048929492017607</v>
+        <v>1.047747676870375</v>
       </c>
       <c r="M11">
-        <v>1.054757185359987</v>
+        <v>1.053533310853729</v>
       </c>
       <c r="N11">
-        <v>1.017709363054207</v>
+        <v>1.018453848722763</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052388866856942</v>
+        <v>1.051420797760573</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046026316531102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04482128987338</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024806396753055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014617965910146</v>
+        <v>1.013445570364176</v>
       </c>
       <c r="D12">
-        <v>1.034828848910912</v>
+        <v>1.033089291962446</v>
       </c>
       <c r="E12">
-        <v>1.034353104651911</v>
+        <v>1.033167964017646</v>
       </c>
       <c r="F12">
-        <v>1.040502214170379</v>
+        <v>1.039273148780267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052180123658097</v>
+        <v>1.051463309105535</v>
       </c>
       <c r="J12">
-        <v>1.043816297930043</v>
+        <v>1.042691592408132</v>
       </c>
       <c r="K12">
-        <v>1.049317878699372</v>
+        <v>1.047608872356485</v>
       </c>
       <c r="L12">
-        <v>1.04885047637112</v>
+        <v>1.047686159871041</v>
       </c>
       <c r="M12">
-        <v>1.054892524888759</v>
+        <v>1.053684727439679</v>
       </c>
       <c r="N12">
-        <v>1.017762082539804</v>
+        <v>1.01859313128959</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.052817623273844</v>
+        <v>1.05186258530151</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046010813676288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044817934861298</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024862081442884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015346649804136</v>
+        <v>1.014073551738981</v>
       </c>
       <c r="D13">
-        <v>1.035440049781402</v>
+        <v>1.033603044872972</v>
       </c>
       <c r="E13">
-        <v>1.035093079180782</v>
+        <v>1.033813261129712</v>
       </c>
       <c r="F13">
-        <v>1.041314435433575</v>
+        <v>1.040003466536426</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052535979134969</v>
+        <v>1.05175515050939</v>
       </c>
       <c r="J13">
-        <v>1.044425118790122</v>
+        <v>1.043203520544569</v>
       </c>
       <c r="K13">
-        <v>1.049876512957541</v>
+        <v>1.048071617429563</v>
       </c>
       <c r="L13">
-        <v>1.049535595820152</v>
+        <v>1.048278151783206</v>
       </c>
       <c r="M13">
-        <v>1.055649202024528</v>
+        <v>1.054360799662571</v>
       </c>
       <c r="N13">
-        <v>1.01805520429521</v>
+        <v>1.018761599368121</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.05368903697593</v>
+        <v>1.052670512339742</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046403320058371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045142397829541</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025012009639674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016429427960068</v>
+        <v>1.015033092029606</v>
       </c>
       <c r="D14">
-        <v>1.036246101838982</v>
+        <v>1.034290383877349</v>
       </c>
       <c r="E14">
-        <v>1.036073059674409</v>
+        <v>1.034677358668572</v>
       </c>
       <c r="F14">
-        <v>1.042278341086278</v>
+        <v>1.040866819652691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052934815702303</v>
+        <v>1.052079434240098</v>
       </c>
       <c r="J14">
-        <v>1.045169044948846</v>
+        <v>1.043828359690889</v>
       </c>
       <c r="K14">
-        <v>1.050531495819314</v>
+        <v>1.04860952570255</v>
       </c>
       <c r="L14">
-        <v>1.050361433024854</v>
+        <v>1.048989809765119</v>
       </c>
       <c r="M14">
-        <v>1.056460672547265</v>
+        <v>1.055073129115188</v>
       </c>
       <c r="N14">
-        <v>1.018369491461314</v>
+        <v>1.018894850741755</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054501860573088</v>
+        <v>1.053405106796115</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046867804538537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045524241370087</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025160634402864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016975741459754</v>
+        <v>1.015523911745823</v>
       </c>
       <c r="D15">
-        <v>1.036633087399377</v>
+        <v>1.034623900254016</v>
       </c>
       <c r="E15">
-        <v>1.036544206568488</v>
+        <v>1.035096278682791</v>
       </c>
       <c r="F15">
-        <v>1.042717165847963</v>
+        <v>1.041260223739082</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053109600152869</v>
+        <v>1.052221620373285</v>
       </c>
       <c r="J15">
-        <v>1.045512048762309</v>
+        <v>1.044117568020077</v>
       </c>
       <c r="K15">
-        <v>1.050827434737144</v>
+        <v>1.0488526515712</v>
       </c>
       <c r="L15">
-        <v>1.050740072199708</v>
+        <v>1.049316925786371</v>
       </c>
       <c r="M15">
-        <v>1.056808376285468</v>
+        <v>1.055375990569978</v>
       </c>
       <c r="N15">
-        <v>1.018502565638709</v>
+        <v>1.01894007746855</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054813836542245</v>
+        <v>1.05368166743649</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047082817309737</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045702484126063</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025220991901409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01966147886609</v>
+        <v>1.017979039849083</v>
       </c>
       <c r="D16">
-        <v>1.038434166582179</v>
+        <v>1.036199774521592</v>
       </c>
       <c r="E16">
-        <v>1.038758896761163</v>
+        <v>1.037093178145888</v>
       </c>
       <c r="F16">
-        <v>1.044670662849122</v>
+        <v>1.043023050737563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053835647722135</v>
+        <v>1.052816417538567</v>
       </c>
       <c r="J16">
-        <v>1.047041801443561</v>
+        <v>1.045422488119807</v>
       </c>
       <c r="K16">
-        <v>1.052107758979225</v>
+        <v>1.049909956074505</v>
       </c>
       <c r="L16">
-        <v>1.052427188393347</v>
+        <v>1.050788705499737</v>
       </c>
       <c r="M16">
-        <v>1.058243192293197</v>
+        <v>1.056622129104964</v>
       </c>
       <c r="N16">
-        <v>1.019030237649562</v>
+        <v>1.019083035207295</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055909627862347</v>
+        <v>1.054628290275859</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047991140336993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046453427779323</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025445196915212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021155948573394</v>
+        <v>1.019372412288279</v>
       </c>
       <c r="D17">
-        <v>1.039394864712498</v>
+        <v>1.037058236926739</v>
       </c>
       <c r="E17">
-        <v>1.039945276251557</v>
+        <v>1.038183363902051</v>
       </c>
       <c r="F17">
-        <v>1.04566139274666</v>
+        <v>1.043928345898702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054181666877592</v>
+        <v>1.053106208596643</v>
       </c>
       <c r="J17">
-        <v>1.047824727590113</v>
+        <v>1.04610596682554</v>
       </c>
       <c r="K17">
-        <v>1.052745703030085</v>
+        <v>1.050446269542309</v>
       </c>
       <c r="L17">
-        <v>1.05328738430462</v>
+        <v>1.05155346003435</v>
       </c>
       <c r="M17">
-        <v>1.058913530353576</v>
+        <v>1.057207628139895</v>
       </c>
       <c r="N17">
-        <v>1.019270019654625</v>
+        <v>1.019152863983927</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05631195652392</v>
+        <v>1.054963427664706</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048444722806466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046835403987549</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025540977654186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021744644890001</v>
+        <v>1.019949762576092</v>
       </c>
       <c r="D18">
-        <v>1.039693993822744</v>
+        <v>1.037342571335302</v>
       </c>
       <c r="E18">
-        <v>1.040325276031286</v>
+        <v>1.038551878631314</v>
       </c>
       <c r="F18">
-        <v>1.045871735184346</v>
+        <v>1.044126907440146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054216804827216</v>
+        <v>1.053138259503336</v>
       </c>
       <c r="J18">
-        <v>1.048010608309973</v>
+        <v>1.046279715089897</v>
       </c>
       <c r="K18">
-        <v>1.052861013032326</v>
+        <v>1.050546418900214</v>
       </c>
       <c r="L18">
-        <v>1.053482444236957</v>
+        <v>1.051736759191398</v>
       </c>
       <c r="M18">
-        <v>1.058943004824407</v>
+        <v>1.057225073760187</v>
       </c>
       <c r="N18">
-        <v>1.019271075119035</v>
+        <v>1.019116751520782</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.056100720232041</v>
+        <v>1.054742406209079</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04851479928559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046893623819482</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025522181037766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021546083331269</v>
+        <v>1.019808239436121</v>
       </c>
       <c r="D19">
-        <v>1.039428920650703</v>
+        <v>1.037131540067606</v>
       </c>
       <c r="E19">
-        <v>1.040004296789952</v>
+        <v>1.038284350935604</v>
       </c>
       <c r="F19">
-        <v>1.045400986272454</v>
+        <v>1.043701397770486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053994958029474</v>
+        <v>1.052954166403785</v>
       </c>
       <c r="J19">
-        <v>1.047689089162433</v>
+        <v>1.046012869396238</v>
       </c>
       <c r="K19">
-        <v>1.052538994898447</v>
+        <v>1.050277426175748</v>
       </c>
       <c r="L19">
-        <v>1.053105433656457</v>
+        <v>1.051412241558432</v>
       </c>
       <c r="M19">
-        <v>1.058418906736296</v>
+        <v>1.056745407223918</v>
       </c>
       <c r="N19">
-        <v>1.019077188025771</v>
+        <v>1.018977899291943</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.055365699405147</v>
+        <v>1.054042096033354</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048293422799801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.046710364937698</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025410326318027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019120194165554</v>
+        <v>1.017629430250068</v>
       </c>
       <c r="D20">
-        <v>1.037560575861613</v>
+        <v>1.035508781931358</v>
       </c>
       <c r="E20">
-        <v>1.03771261040583</v>
+        <v>1.036226603511014</v>
       </c>
       <c r="F20">
-        <v>1.043040415490121</v>
+        <v>1.041544912447963</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053042721559921</v>
+        <v>1.052154080895489</v>
       </c>
       <c r="J20">
-        <v>1.045933453617664</v>
+        <v>1.044497283421309</v>
       </c>
       <c r="K20">
-        <v>1.050973627017756</v>
+        <v>1.04895472308544</v>
       </c>
       <c r="L20">
-        <v>1.051123231102772</v>
+        <v>1.049661019077657</v>
       </c>
       <c r="M20">
-        <v>1.056366437484394</v>
+        <v>1.054894569216419</v>
       </c>
       <c r="N20">
-        <v>1.018328547478061</v>
+        <v>1.018535320103767</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.053222704123399</v>
+        <v>1.052057894110637</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.047190547420651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045779451836398</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02503125350521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013965259087567</v>
+        <v>1.012962492299128</v>
       </c>
       <c r="D21">
-        <v>1.034037505547794</v>
+        <v>1.032459367083653</v>
       </c>
       <c r="E21">
-        <v>1.033390496779089</v>
+        <v>1.032364430451933</v>
       </c>
       <c r="F21">
-        <v>1.039158710237476</v>
+        <v>1.038065547998379</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051560044612877</v>
+        <v>1.050956444697783</v>
       </c>
       <c r="J21">
-        <v>1.042890483924937</v>
+        <v>1.041928079357133</v>
       </c>
       <c r="K21">
-        <v>1.048401499389456</v>
+        <v>1.046850820213256</v>
       </c>
       <c r="L21">
-        <v>1.047765735310282</v>
+        <v>1.046757538926132</v>
       </c>
       <c r="M21">
-        <v>1.053434338602187</v>
+        <v>1.052359944061493</v>
       </c>
       <c r="N21">
-        <v>1.017228645406748</v>
+        <v>1.018237643192115</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.050862012102353</v>
+        <v>1.05001171237262</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045375196371469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044295475464017</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024560858650276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010685674416735</v>
+        <v>1.009993805216523</v>
       </c>
       <c r="D22">
-        <v>1.031806478699638</v>
+        <v>1.030530347428708</v>
       </c>
       <c r="E22">
-        <v>1.030659931311748</v>
+        <v>1.029926334737673</v>
       </c>
       <c r="F22">
-        <v>1.036724146293665</v>
+        <v>1.035887512928368</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050616384374322</v>
+        <v>1.05019492489526</v>
       </c>
       <c r="J22">
-        <v>1.040963923288437</v>
+        <v>1.040301541972676</v>
       </c>
       <c r="K22">
-        <v>1.046773122352505</v>
+        <v>1.045520321156028</v>
       </c>
       <c r="L22">
-        <v>1.045647532570861</v>
+        <v>1.044927377204686</v>
       </c>
       <c r="M22">
-        <v>1.051601583927905</v>
+        <v>1.050780049275205</v>
       </c>
       <c r="N22">
-        <v>1.016534806106125</v>
+        <v>1.018046467653325</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.049411528716765</v>
+        <v>1.048761346747112</v>
       </c>
       <c r="Q22">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044210578687836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043340166254807</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024263908856598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012414907855704</v>
+        <v>1.011542526046169</v>
       </c>
       <c r="D23">
-        <v>1.032975950562203</v>
+        <v>1.031527227722047</v>
       </c>
       <c r="E23">
-        <v>1.032096992744369</v>
+        <v>1.031194080452228</v>
       </c>
       <c r="F23">
-        <v>1.038005041759757</v>
+        <v>1.037020544768356</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051108724630103</v>
+        <v>1.050581937939359</v>
       </c>
       <c r="J23">
-        <v>1.041973976783207</v>
+        <v>1.041137675123126</v>
       </c>
       <c r="K23">
-        <v>1.04762291718024</v>
+        <v>1.046200000719127</v>
       </c>
       <c r="L23">
-        <v>1.046759605187149</v>
+        <v>1.04587280118084</v>
       </c>
       <c r="M23">
-        <v>1.052563148708651</v>
+        <v>1.051595958976871</v>
       </c>
       <c r="N23">
-        <v>1.016895786468062</v>
+        <v>1.018097177915971</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.050172533123057</v>
+        <v>1.049407076999307</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044801899594734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043810267466395</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024411416844539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019108948603652</v>
+        <v>1.017624645945886</v>
       </c>
       <c r="D24">
-        <v>1.037525687331053</v>
+        <v>1.03547968832047</v>
       </c>
       <c r="E24">
-        <v>1.037679089854266</v>
+        <v>1.03619909637865</v>
       </c>
       <c r="F24">
-        <v>1.042985121785738</v>
+        <v>1.041494603250467</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05300880165271</v>
+        <v>1.052124626442468</v>
       </c>
       <c r="J24">
-        <v>1.045890752066496</v>
+        <v>1.044460731751095</v>
       </c>
       <c r="K24">
-        <v>1.050924369596809</v>
+        <v>1.048911128440718</v>
       </c>
       <c r="L24">
-        <v>1.051075322712811</v>
+        <v>1.049618999370098</v>
       </c>
       <c r="M24">
-        <v>1.056297199854093</v>
+        <v>1.054830210365086</v>
       </c>
       <c r="N24">
-        <v>1.018299693888875</v>
+        <v>1.018511809986898</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.053127739446676</v>
+        <v>1.051966734611564</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04712872580658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04571895637367</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025011566610976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026605086523774</v>
+        <v>1.024662806431989</v>
       </c>
       <c r="D25">
-        <v>1.042643190567011</v>
+        <v>1.040105395834019</v>
       </c>
       <c r="E25">
-        <v>1.043960574569734</v>
+        <v>1.042040162029708</v>
       </c>
       <c r="F25">
-        <v>1.048597495745452</v>
+        <v>1.046710075603621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055102942154988</v>
+        <v>1.053942642551846</v>
       </c>
       <c r="J25">
-        <v>1.050269098808375</v>
+        <v>1.048387750673189</v>
       </c>
       <c r="K25">
-        <v>1.054613722246762</v>
+        <v>1.052111468188799</v>
       </c>
       <c r="L25">
-        <v>1.055912742849146</v>
+        <v>1.054019119057234</v>
       </c>
       <c r="M25">
-        <v>1.060485491185559</v>
+        <v>1.058624105550592</v>
       </c>
       <c r="N25">
-        <v>1.01986736256773</v>
+        <v>1.019568155377162</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.056442427205099</v>
+        <v>1.054969295513407</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049734389476658</v>
+        <v>1.0479785630552</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025735711513317</v>
       </c>
     </row>
   </sheetData>
